--- a/data_raw/chatgpt.xlsx
+++ b/data_raw/chatgpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahafaisal/Desktop/virtual_assistant/clinical-benchmarks-rubric/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD7CFF-3746-2549-A3FE-5C1AB68C6525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368DB8F2-6DCF-094C-BF57-E9D7B36C9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -795,6 +795,21 @@
   </si>
   <si>
     <t>Comparison</t>
+  </si>
+  <si>
+    <t>c_aci_031</t>
+  </si>
+  <si>
+    <t>c_aci_032</t>
+  </si>
+  <si>
+    <t>c_aci_033</t>
+  </si>
+  <si>
+    <t>c_aci_034</t>
+  </si>
+  <si>
+    <t>c_aci_035</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1349,8 +1364,135 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G7" s="2"/>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_raw/chatgpt.xlsx
+++ b/data_raw/chatgpt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11015,6 +11015,1962 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>c_aci_051</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>virtscribe</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VS036</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[doctor] tyler nelson , date of birth : 3 , 6 , 1949 , mrn , 385729 . he is here today for ongoing management of rheumatoid arthritis . last time he was here , he received a steroid injection in his right knee . hello mr. nelson , how are you ?
+[patient] um , about the same as last time . my knee is still swollen .
+[doctor] that was your right knee , correct ? i take it the injection did n't help ?
+[patient] it did , maybe for a couple of weeks .
+[doctor] that's it ? and is it still painful ?
+[patient] yeah , it's pretty painful , and now the whole leg is getting swollen .
+[doctor] okay , what would you say your pain level is ?
+[patient] i mean , right now it's about a 3 or so , but , typically on a normal day it's around 6 .
+[doctor] okay , and its been swollen like that for how long now ?
+[patient] since i was last here a couple weeks after that . so about , maybe two months now .
+[doctor] okay , but before it was just the knee ?
+[patient] yeah , the whole thing was n't swollen like this , but i tried to wear compression socks a lot of the time , but it has n't been helping .
+[doctor] okay , okay , so that has n't been working for you ?
+[patient] i mean , it helps to some degree , but it's still swollen , especially around the knee .
+[doctor] hmm . has it been keeping you from doing things during the day ?
+[patient] well , i slowed down a little bit , and i found a few things too fast . but when it really hurts , is when i've been sitting for a while , and then i have to try and get up . i'm so stiff getting up i have to use a cane to get my bearings . i mean , after a little bit , it loosens up , but that first getting up is real difficult .
+[doctor] yeah , i can see , that makes sense . have you been taking your medication regularly ? your on xeljanz right ?
+[patient] yeah , the xr , i think its , uhm , 11 milligrams a day ? yeah , but i'm taking it everyday , and i'm also taking celebrex which i started maybe 2 months ago .
+[doctor] yes , the 200mgs daily . how's that working for you ?
+[patient] pretty good , up until it started swelling again .
+[doctor] okay , well come sit over here , and if you could take of your socks and shoes , and we'll take a look at your knee . and just to let you know , i have a service now that writes my note about the visit , so you'll hear me call things out and describe what i see fully .
+[patient] okay , gotcha .
+[doctor] right , so let's check your leg . can you straighten it , and does it hurt ?
+[patient] yeah , when i try to straighten it all the way it does .
+[doctor] okay , range of motion slightly diminished . i'm going to press here , okay ? and how about here , hmm , i see some pitting around the knee and ankle . normal capillary refill in the toes . does any of this area hurt ?
+[patient] um , just kinda sore , like an old bruise ?
+[doctor] so , i can feel that the knee is hot , and that means there's something going on , like some inflammation . so we can give you another steroid injection for that . i also want to get an x-ray of that knee , so we can see where all the swelling is coming from .
+[patient] yeah . let's do it . sounds go to me .
+[doctor] okay , and did we set up physical therapy for you last time you were here ?
+[patient] yeah , that was some years ago , but that was the other knee .
+[doctor] okay . so i think we'll set that up for you now . we'll also do an x-ray on that knee . i can send you for a physical therapy , and if nothing is helping , then we really might need to get a surgery consult to see what we can do with that knee .
+[patient] okay , sounds like a plan .
+[doctor] all right , so for today we'll go ahead and we'll give you the steroid shot . i'll try to see if i can get a little bit of fluid out before i do give you the injection . there might be no fluid , but i'll see if i can get anything out regardless .
+[patient] okay . and that's a procedure you're going to do right now ?
+[doctor] yep . once we're done talking here , and as far as the edema in your legs , uh , we'll take an x-ray to look for the cause , but there is a lot you can do as well . the compression socks are a good start . um , and also , do you eat a lot of salt ?
+[patient] i mean , um , i mean i love my salty snacks .
+[doctor] okay . well , salt does have a tendency to make your body hold on to water , reducing your salt intake could help with some of the swelling . you can also prop your feet up any time you get a chance , especially at night . and have you talked to your private care doctor about this at all ?
+[patient] no , i figured i would just come here first .
+[doctor] okay . so i think , try some of those things out first , and if it does n't help , definitely make an appointment with them , also , as you know , xeljanz is a high-risk medication , so we need to check your cmp levels every couple of months . so this time your levels are good , but do make sure to make an appointment for the blood work for next time .
+[patient] all right . i can do that . thank you so much doc .
+[doctor] yes , of course . well let me go ahead and get supplies and we'll get to work on your knee .
+[doctor] fluid aspiration and steroid injection procedure . the risks , benefits , and alternatives were explained . the risks of steroid injection were explained , including , but not limited to : hypopigmentation , soft tissue atrophy , tendon ruptures , and transient hypoglycemia among others . verbal consent was attained . the right knee was , uh , um , accessed through the lateral approach with 3 milliliters of initially clear fluid , then bloo- blood tinged fluid . then the right knee was prepped in a standard-fashion . the right knee was injected with 80 milligrams of triamcinolone , and one milliliter of lidocaine . the procedure was tolerated well , with no complications . post-procedure instructions were given . patient will follow up with his pcp . thank you .</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+Rheumatoid arthritis management.
+HISTORY OF PRESENT ILLNESS
+Mr. Nelson is a 72-year-old male who presents today for ongoing management of rheumatoid arthritis. He was last seen by me on 03/04/2021, where he received a steroid injection to his right knee. He continues to experience right knee pain and swelling. The pain level is 6/10. He notes when he stands after he has been sitting for a while, he has to use a cane to "get his bearings." The injection he received to the right knee at the last visit was only beneficial for a few weeks. The patient notes whole right leg swelling since the last visit. He usually wears support hose, which helps to some degree. He has not attended physical therapy.
+PHYSICAL EXAM
+Musculoskeletal
+Lower right extremity: Swollen right knee, slightly reduced range of motion. Skin warm to touch. Lower right leg pits with pressure.
+PROCEDURE
+Fluid aspiration and Steroid injection.
+Risks, benefits, and alternatives were explained. The risks of steroid injection were explained, including but not limited to, hypopigmentation, soft tissue atrophy, tendon ruptures, and transient hyperglycemia among others. Verbal consent was obtained. The right knee was accessed through the lateral approach with 3 mL of initially clear fluid then blood-tinged fluid. Then the right knee was prepped in a standard fashion. The right knee was injected with 80 mg triamcinolone and 1 mL lidocaine. The procedure was tolerated well with no complications. Post procedure instructions were given.
+ASSESSMENT
+â€¢ Rheumatoid arthritis management.
+â€¢ High risk medication use.
+â€¢ Right knee pain.
+â€¢ Lower extremity pitting edema.
+PLAN
+Rheumatoid arthritis management.
+The patient will continue Xeljanz XR 11 mg daily. He will also continue Celebrex 200 mg daily.
+High-risk medication use.
+The patient is currently on the high-risk medication Xeljanz. We will check his CMP levels and monitor periodically every couple of months.
+Right knee pain.
+He has right knee pain and swelling, with pain level 6/10. On exam today, the right knee continues to be hot, which is ongoing inflammation. We performed a fluid aspiration of the right knee today, see procedure note above. A steroid injection to the right knee was given today, see procedure note above. We will arrange for x-ray of the right knee and refer his to physical therapy.
+Lower extremity pitting edema.
+The patient notes whole right leg swelling since the last visit. He usually wears support hose, which helps to some degree. He has not seen his PCP. We discussed compression stockings, elevate feet, and a low salt diet. He will check with his PCP for further instructions.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>test2_virtscribe_humantrans</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ٹائلر نیلسن، تاریخ پیدائش: 3، 6، 1949، MRN، 385729۔ وہ آج روماتوائڈ آرتھرائٹس کے مسلسل علاج کے لیے یہاں آئے ہیں۔ جب وہ آخری بار یہاں آئے تھے تو انھیں دائیں گھٹنے میں سٹیرائڈ کا انجیکشن لگایا گیا تھا۔ ہیلو مسٹر نیلسن، آپ کیسے ہیں؟
+[مریض] اوہ، تقریباً پچھلی بار جیسا ہی حال ہے۔ میرا گھٹنا ابھی بھی سوجا ہوا ہے۔
+[ڈاکٹر] یہ آپ کا دایاں گھٹنا تھا، درست ہے؟ کیا میں سمجھوں کہ انجیکشن نے مدد نہیں کی؟
+[مریض] کی، شاید دو ہفتوں کے لیے۔
+[ڈاکٹر] بس اتنی ہی؟ اور کیا یہ اب بھی دردناک ہے؟
+[مریض] ہاں، یہ کافی دردناک ہے، اور اب پورا پاؤں سوج رہا ہے۔
+[ڈاکٹر] ٹھیک ہے، آپ درد کی سطح کو کیسا بتائیں گے؟
+[مریض] میرا مطلب ہے، ابھی یہ تقریباً 3 یا اس کے آس پاس ہے، لیکن عام دنوں میں یہ تقریباً 6 ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اور یہ کب سے سوجا ہوا ہے؟
+[مریض] جب سے میں پچھلی بار یہاں آیا تھا، دو ہفتے بعد۔ تو تقریباً، شاید دو مہینے ہو گئے ہیں۔
+[ڈاکٹر] ٹھیک ہے، لیکن اس سے پہلے صرف گھٹنا سوجا ہوا تھا؟
+[مریض] ہاں، پورا پاؤں اتنا سوجا ہوا نہیں تھا، لیکن میں اکثر کمپریشن ساکس پہننے کی کوشش کرتا تھا، لیکن اس سے کوئی خاص مدد نہیں ملی۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، تو یہ آپ کے لیے کام نہیں کر رہا ہے؟
+[مریض] میرا مطلب ہے، یہ کچھ حد تک مدد کرتا ہے، لیکن یہ اب بھی سوجا ہوا ہے، خاص طور پر گھٹنے کے ارد گرد۔
+[ڈاکٹر] ہمم۔ کیا اس کی وجہ سے آپ کے روزمرہ کے کاموں میں رکاوٹ آ رہی ہے؟
+[مریض] میں نے تھوڑا سست ہو گیا ہوں، اور مجھے کچھ کام بہت جلدی کرنے میں مشکل ہو رہی ہے۔ لیکن جب واقعی درد ہوتا ہے، تو یہ تب ہوتا ہے جب میں کچھ دیر بیٹھا رہتا ہوں، اور پھر مجھے اٹھنے کی کوشش کرنی پڑتی ہے۔ میں اتنا سخت ہو جاتا ہوں کہ مجھے اپنا توازن برقرار رکھنے کے لیے ایک عصا استعمال کرنی پڑتی ہے۔ میرا مطلب ہے، تھوڑی دیر بعد، یہ کھل جاتا ہے، لیکن پہلی بار اٹھنا بہت مشکل ہوتا ہے۔
+[ڈاکٹر] ہاں، میں دیکھ سکتا ہوں، یہ سمجھ میں آتا ہے۔ کیا آپ اپنی دوائیں باقاعدگی سے لے رہے ہیں؟ آپ Xeljanz لے رہے ہیں، درست ہے؟
+[مریض] ہاں، XR، مجھے لگتا ہے کہ یہ، اوہ، ایک دن میں 11 ملی گرام ہے؟ ہاں، لیکن میں اسے ہر روز لے رہا ہوں، اور میں Celebrex بھی لے رہا ہوں جو میں نے شاید 2 ماہ پہلے شروع کیا تھا۔
+[ڈاکٹر] ہاں، روزانہ 200 ملی گرام۔ یہ آپ کے لیے کیسا کام کر رہا ہے؟
+[مریض] کافی اچھا، جب تک کہ یہ دوبارہ سوجنا شروع نہیں ہوا۔
+[ڈاکٹر] ٹھیک ہے، تو یہاں بیٹھ جائیں، اور اگر آپ اپنے موزے اور جوتے اتار سکتے ہیں، تو ہم آپ کے گھٹنے کو دیکھ لیں گے۔ اور آپ کو بتانے کے لیے، میرے پاس اب ایک سروس ہے جو میری وزٹ کے بارے میں نوٹ لکھتی ہے، تو آپ مجھے چیزیں پکارتے ہوئے اور جو میں دیکھ رہا ہوں اسے مکمل طور پر بیان کرتے ہوئے سنیں گے۔
+[مریض] ٹھیک ہے، سمجھ گیا.
+[ڈاکٹر] ٹھیک ہے، تو آئیے آپ کے پاؤں کو چیک کریں۔ کیا آپ اسے سیدھا کر سکتے ہیں، اور کیا اس سے درد ہوتا ہے؟
+[مریض] ہاں، جب میں اسے پوری طرح سیدھا کرنے کی کوشش کرتا ہوں تو ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، حرکت کی حد قدرے کم ہو گئی ہے۔ میں یہاں دبنے والا ہوں، ٹھیک ہے؟ اور یہاں کیسا ہے، ہمم، مجھے گھٹنے اور ٹخنوں کے ارد گرد کچھ گڑھا نظر آ رہا ہے۔ انگلیوں میں معمول کی کیپیلری ریفل۔ کیا اس علاقے میں سے کسی بھی حصے میں درد ہو رہا ہے؟
+[مریض] اوہ، صرف تھوڑا درد ہو رہا ہے، جیسے پرانا چوٹ لگا ہو۔
+[ڈاکٹر] تو، میں محسوس کر سکتا ہوں کہ گھٹنا گرم ہے، اور اس کا مطلب ہے کہ کچھ ہو رہا ہے، جیسے کہ کچھ سوزش۔ تو ہم آپ کو اس کے لیے ایک اور سٹیرائڈ انجیکشن دے سکتے ہیں۔ میں اس گھٹنے کا ایک ایکس-رے بھی لینا چاہتا ہوں، تاکہ ہم دیکھ سکیں کہ ساری سوجن کہاں سے آ رہی ہے۔
+[مریض] ہاں۔ آئیے کرتے ہیں۔ مجھے یہ اچھا لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اور کیا ہم نے آپ کے لیے پچھلی بار یہاں آنے پر فزیکل تھراپی کا اہتمام کیا تھا؟
+[مریض] ہاں، وہ کچھ سال پہلے تھا، لیکن وہ دوسرا گھٹنا تھا۔
+[ڈاکٹر] ٹھیک ہے۔ تو مجھے لگتا ہے کہ ہم اب آپ کے لیے اس کا اہتمام کریں گے۔ ہم اس گھٹنے کا ایک ایکس-رے بھی کریں گے۔ میں آپ کو فزیکل تھراپی کے لیے بھیج سکتا ہوں، اور اگر کچھ بھی مدد نہیں کر رہا ہے، تو ہمیں واقعی اس گھٹنے کے لیے سرجری سے مشورہ کرنے کی ضرورت ہو سکتی ہے تاکہ ہم کیا کر سکتے ہیں۔
+[مریض] ٹھیک ہے، یہ ایک منصوبہ لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے، تو آج ہم آگے بڑھیں گے اور آپ کو سٹیرائڈ کا انجیکشن لگائیں گے۔ میں انجیکشن دینے سے پہلے تھوڑی سی سیال نکالنے کی کوشش کروں گا۔ ہو سکتا ہے کہ کوئی سیال نہ ہو، لیکن میں اس کے باوجود کچھ بھی نکالنے کی کوشش کروں گا۔
+[مریض] ٹھیک ہے۔ اور کیا یہ ایک طریقہ کار ہے جو آپ ابھی کرنے والے ہیں؟
+[ڈاکٹر] ہاں۔ ایک بار جب ہم یہاں بات کرنا ختم کر لیں گے، اور آپ کے پاؤں میں edema کے حوالے سے، ہم وجہ دیکھنے کے لیے ایک ایکس-رے لیں گے، لیکن آپ بہت کچھ کر سکتے ہیں۔ کمپریشن ساکس ایک اچھی شروعات ہے۔ اوہ، اور کیا آپ بہت زیادہ نمک کھاتے ہیں؟
+[مریض] میرا مطلب ہے، اوہ، مجھے میرے نمکین ناشتے پسند ہیں۔
+[ڈاکٹر] ٹھیک ہے۔ نمک آپ کے جسم کو پانی برقرار رکھنے کا باعث بن سکتا ہے، اس لیے اپنے نمک کی مقدار کو کم کرنے سے سوجن میں کچھ مدد مل سکتی ہے۔ آپ جب بھی موقع ملے اپنے پاؤں اٹھا سکتے ہیں، خاص طور پر رات میں۔ اور کیا آپ نے اس بارے میں اپنے نجی نگہداشت والے ڈاکٹر سے بات کی ہے؟
+[مریض] نہیں، میں نے سوچا کہ میں پہلے یہاں آؤں گا۔
+[ڈاکٹر] ٹھیک ہے۔ تو میں سوچتا ہوں، پہلے ان چیزوں کو آزمائیں، اور اگر یہ مدد نہیں کرتا ہے، تو یقینی طور پر ان سے اپائنٹمنٹ لیں، نیز، جیسا کہ آپ جانتے ہیں، Xeljanz ایک ہائی رسک دوا ہے، اس لیے ہمیں ہر دو ماہ بعد آپ کے CMP لیول چیک کرنے کی ضرورت ہے۔ تو اس بار آپ کے لیول ٹھیک ہیں، لیکن اگلے بار خون کے کام کے لیے اپائنٹمنٹ لینا یقینی بنائیں۔
+[مریض] ٹھیک ہے۔ میں یہ کر سکتا ہوں۔ بہت شکریہ ڈاکٹر۔
+[ڈاکٹر] ہاں، بالکل۔ ٹھیک ہے، آئیے سامان لے لیتے ہیں اور آپ کے گھٹنے پر کام شروع کرتے ہیں۔
+[ڈاکٹر] سیال خواہش اور سٹیرائڈ انجیکشن کا طریقہ کار۔ خطرات، فوائد اور متبادل کی وضاحت کی گئی۔ سٹیرائڈ انجیکشن کے خطرات کی وضاحت کی گئی، بشمول، لیکن ان تک محدود نہیں: ہائپوپیگمنٹیشن، نرم بافتوں کا سنکنا، ٹینڈن کے پھٹنا، اور عارضی ہائپوگلیسینیا وغیرہ۔ زبانی رضامندی حاصل کی گئی۔ دایاں گھٹنا، اوہ، ام، بیرونی نقطہ نظر کے ذریعے پہنچا گیا جس میں پہلے صاف سیال کے 3 ملی لیٹر، پھر خون سے رنگا ہوا سیال تھا۔ پھر دایاں گھٹنا معیاری فیشن میں تیار کیا گیا۔ دائیں گھٹنے میں 80 ملی گرام ٹرائیمسینولون اور 1 ملی لیٹر لڈوکین کا انجیکشن لگایا گیا۔ طریقہ کار اچھی طرح سے برداشت کیا گیا، کوئی پیچیدگی نہیں ہوئی۔ طریقہ کار کے بعد کی ہدایات دی گئیں۔ مریض اپنے PCP کے ساتھ فالو اپ کرے گا۔ شکریہ۔</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+روماتائڈ آرتھرائٹس کا انتظام۔
+عارضی مرض کی تاریخ
+مسٹر نیلسن 72 سالہ مرد ہیں جو آج روماتائڈ آرتھرائٹس کے مسلسل انتظام کے لیے حاضر ہوئے۔ انہیں آخری بار 04/03/2021 کو دیکھا گیا تھا، جہاں انہیں دائیں گھٹنے میں سٹیرائڈ کا انجیکشن لگایا گیا تھا۔ انہیں دائیں گھٹنے میں درد اور سوجن کا تجربہ جاری ہے۔ درد کی سطح 10 میں سے 6 ہے۔ انہوں نے نوٹ کیا کہ جب وہ بیٹھنے کے بعد کھڑے ہوتے ہیں، تو انہیں "سمت تلاش کرنے" کے لیے ایک عصا استعمال کرنا پڑتی ہے۔ گزشتہ دورے میں دائیں گھٹنے میں لگایا گیا انجیکشن صرف چند ہفتوں کے لیے فائدہ مند تھا۔ مریض نے گزشتہ دورے کے بعد سے پورے دائیں پاؤں میں سوجن نوٹ کی۔ وہ عام طور پر سپورٹ ہوس پہنتے ہیں، جو کسی حد تک مدد کرتی ہے۔ انہوں نے جسمانی علاج (physical therapy) میں شرکت نہیں کی۔
+جسمانی معائنہ
+عضلاتی ہڈی کا نظام (Musculoskeletal)
+نیچلا دایاں عضو: سوجا ہوا دایاں گھٹنا، حدِ پیمائش (range of motion) میں معمولی کمی۔ جلد کو چھونے پر گرم محسوس ہوتی ہے۔ دائیں پاؤں کے نچلے حصے میں دباؤ ڈالنے پر گڑھے پڑ جاتے ہیں۔
+عمل (Procedure)
+مائع کی نکاسی اور سٹیرائڈ کا انجیکشن۔
+خطرات، فوائد اور متبادل طریقوں کے بارے میں وضاحت کی گئی۔ سٹیرائڈ انجیکشن کے خطرات کی وضاحت کی گئی، بشمول لیکن ان تک محدود نہیں، ہائپوپیگمنٹیشن، نرم بافتوں کا سکڑنا، ٹینڈن کے پھٹنے اور عارضی ہائپرگلیسیمیا۔ زبانی رضامندی حاصل کی گئی۔ دائیں گھٹنے تک पार्श्व (lateral) نقطہ نگاہ سے رسائی حاصل کی گئی، پہلے واضح مائع اور پھر خون آلود مائع نکالا گیا۔ پھر دائیں گھٹنے کو معیاری طریقے سے تیار کیا گیا۔ دائیں گھٹنے میں 80 ملی گرام ٹرائیامسینولون اور 1 ملی لیٹ کا لڈوکین انجیکٹ کیا گیا۔ طریقہ کار اچھی طرح سے برداشت کیا گیا اور کوئی پیچیدگی نہیں ہوئی۔ طریقہ کار کے بعد ہدایات دی گئیں۔
+تشخیص (Assessment)
+• روماتائڈ آرتھرائٹس کا انتظام۔
+• خطرناک دواؤں کا استعمال۔
+• دائیں گھٹنے میں درد۔
+• نچلے عضو میں گڑھے پڑنے والی edema۔
+منصوبہ (Plan)
+روماتائڈ آرتھرائٹس کا انتظام۔
+مریض روزانہ Xeljanz XR 11 mg جاری رکھیں گے۔ وہ روزانہ Celebrex 200 mg بھی جاری رکھیں گے۔
+خطرناک دواؤں کا استعمال۔
+مریض فی الحال Xeljanz نامی خطرناک دوا استعمال کر رہے ہیں۔ ہم ان کے CMP لیول چیک کریں گے اور ہر دو ماہ بعد وقتاً فوقتاً ان کی نگرانی کریں گے۔
+دائیں گھٹنے میں درد۔
+انہیں دائیں گھٹنے میں درد اور سوجن ہے، جس کی درد کی سطح 10 میں سے 6 ہے۔ آج کے معائنے میں، دائیں گھٹنا گرم رہتا ہے، جو مسلسل سوزش ہے۔ آج دائیں گھٹنے سے مائع نکالا گیا، اوپر طریقہ کار نوٹ دیکھیں۔ آج دائیں گھٹنے میں سٹیرائڈ کا انجیکشن لگایا گیا، اوپر طریقہ کار نوٹ دیکھیں۔ ہم دائیں گھٹنے کا x-ray کرانے کا انتظام کریں گے اور انہیں جسمانی علاج (physical therapy) کے لیے ریفر کریں گے۔
+نچلے عضو میں گڑھے پڑنے والی edema۔
+مریض نے گزشتہ دورے کے بعد سے پورے دائیں پاؤں میں سوجن نوٹ کی۔ وہ عام طور پر سپورٹ ہوس پہنتے ہیں، جو کسی حد تک مدد کرتی ہے۔ انہوں نے اپنے PCP سے رجوع نہیں کیا۔ ہم نے compression stockings، پاؤں کو بلند رکھنے اور کم نمک والی غذا پر تبادلہ خیال کیا۔ وہ مزید ہدایات کے لیے اپنے PCP سے رابطہ کریں گے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>c_aci_052</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>virtassist</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VA040</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[doctor] thanks , rachel . nice , nice to meet you .
+ [patient] yeah .
+ [doctor] um , as my nurse told you , we're using dax . so i'm just gon na tell dax a little bit about you .
+ [patient] mm-hmm .
+ [doctor] so rachel is a 48-year-old female here for shortness of breath . she has a history of depression , smoking , and chronic back pain . so tell me about this shortness of breath .
+ [patient] okay . so there are times when i'm either doing very , very mild exercises or just walking , even if i'm just walking up , you know , my driveway , i find myself palpitating a lot , and there's a little bit of shortness of breath .
+ [doctor] mm-hmm .
+ [patient] i do n't know if it's got to do with the back pain , you know , whether that gets triggered as well at the same time .
+ [doctor] right .
+ [patient] but definitely i feel it happens more often lately .
+ [doctor] okay . and anything else change recently ? like , have you changed lifestyle , like you're exercising more than you used to , having any allergies , anything like that ?
+ [patient] probably exercising more to get rid of the covid 15 .
+ [doctor] the covid 15 . yeah . now last time i saw you , you were smoking two packs a day . how much are you smoking now ?
+ [patient] um , it's gone down quite a bit because , yeah , we said we have to make some , you know , changes as you get older .
+ [doctor] yeah .
+ [patient] so i would say it's probably , um , maybe , maybe a couple ... probably a coup- i do n't know . probably once or day or something .
+ [doctor] just couple cigarettes a day ?
+ [patient] probably once a day , yeah .
+ [doctor] we're getting close .
+ [patient] yeah .
+ [doctor] that's awesome .
+ [patient] mm-hmm .
+ [doctor] that's great news . um , and then how's your depression doing ?
+ [patient] i have my moments .
+ [doctor] yeah .
+ [patient] there are some days when i feel , you know , i wake up and everything was great .
+ [doctor] uh- .
+ [patient] and then there are times , i do n't , i do n't know whether it's got to do with the weather or what else kind of triggers it .
+ [doctor] yeah .
+ [patient] there are some days when i feel extremely low .
+ [doctor] okay . and you had been taking the effexor for your depression . are you still taking that ?
+ [patient] yes , i am .
+ [doctor] okay , great . and then , um the chronic back pain , we've been giving you the gabapentin neurontin for that . is that helping control the pain ?
+ [patient] i think it is .
+ [doctor] yeah .
+ [patient] it is ... it's definitely , um , i feel better .
+ [doctor] uh- .
+ [patient] but it does come every now and then .
+ [doctor] right . what do you do when it's really bad ?
+ [patient] um , i try to just get as much rest as i can .
+ [doctor] okay . and you had talked about doing yoga . are you doing yoga anymore ?
+ [patient] i wish i said yes , but i have n't really made it a habit .
+ [doctor] okay . okay . well , um , you know , said ... you said you were coming in with shortness of breath , so we sent you to get some pulmonary function tests .
+ [patient] mm-hmm .
+ [doctor] so let's just look at those . hey , dragon , show me the pulmonary function tests . okay , so it looks like ... , it's interesting . it says that you might be having a little bit of asthma or , uh , copd . and if you are , we'll talk about that .
+ [patient] mm-hmm .
+ [doctor] let's look at our x-ray . hey , dragon , show me the most recent x-ray . okay , i said it wrong . hey , dragon , show me the most recent chest x-ray . okay , this is interesting . your ... kind of your diaphragm is a little bit flatter , and we'll see that in some , uh , copd , which happens with smokers often . so let's just do a quick physical exam . i know my nurse did the review of systems with you . is there anything else bothering you that we need to talk about today ?
+ [patient] no other issues .
+ [doctor] okay . great . let's do the exam . all right , so your physical exam looks pretty normal other than you've got kind of these mild wheezes in all your lung fields . and so i think you do have copd from your pulmonary function tests , your x-ray , and that . so i'm gon na diagnose you with copd . chronic obstructive pulmonary disease . it means you're not able to exhale appropriately .
+ [patient] mm-hmm .
+ [doctor] so we're gon na put you on a medicine called combivent . okay , you're gon na do two puffs twice a day . it's gon na help open up your lungs . it's an inhaler .
+ [patient] mm-hmm .
+ [doctor] i'm also gon na prescribe albuterol , which you use when you get really short of breath . it's like a rescue thing .
+ [patient] mm-hmm .
+ [doctor] um , and then i'm gon na prescribe some steroids to help , also some prednisone . so let me just order those .
+ [patient] okay .
+ [doctor] hey , dragon , order combivent , uh , two puffs twice a day . order albuterol , two puffs as needed . and order , uh , prednisone uh taper pack . okay , so and then it sounds like your depression's stable , so we're not gon na change anything . you're gon na keep taking the effexor . um , do yoga for depression and your back pain , so for your back pain , stay on the neurontin , and we just wo n't do anything different . any questions for me .
+ [patient] no , i think this is good . thank you .
+ [doctor] perfect . hey , dragon , finalize the note . why do n't you ...</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Shortness of breath.
+ HISTORY OF PRESENT ILLNESS
+ The patient is a 48-year-old female who presents for shortness of breath. She has a history of depression, smoking and chronic back pain.
+ The patient reports shortness of breath with mild exercise and walking. She also notes some palpitations at times. She is not sure if it is due to her back pain or not. The patient states she has been exercising more. She continues to smoke but has decreased from two packs a day down to a couple of cigarettes daily.
+ Regarding her depression, the patient feels that it is well managed on Effexor.
+ Regarding her chronic back pain, the patient has been taking Neurontin, which she states is helping control her pain. She states she tries to get as much rest as she can. She is no longer doing yoga as she has not made it a habit.
+ REVIEW OF SYSTEMS
+ â€¢ Cardiovascular: Endorses dyspnea on exertion. Endorses palpitations.
+ â€¢ Respiratory: Endorses shortness of breath.
+ â€¢ Musculoskeletal: Endorses back pain.
+ â€¢ Integumentary:
+ â€¢ Psychiatric: Endorses depression.
+ PHYSICAL EXAMINATION
+ â€¢ Respiratory: Mild wheezes bilaterally.
+ RESULTS
+ Pulmonary function test demonstrates mild asthma and the appearance of COPD.
+ X-ray of the chest demonstrates flattening of the diaphragm which is consistent with COPD.
+ ASSESSMENT AND PLAN
+ COPD.
+ â€¢ Medical Reasoning: The patient presents today with shortness of breath with exertion. Her pulmonary function tests suggest asthma or COPD and her most recent chest x-ray and physical examination today are also consistent with COPD.
+ â€¢ Patient Education and Counseling: I counseled the patient on the importance of smoking cessation.
+ â€¢ Medical Treatment: We will start the patient on Combivent, 2 puffs twice a day. I will also prescribe an albuterol inhaler, 2 puffs as needed, and a prednisone taper pack.
+ Depression.
+ â€¢ Medical Reasoning: It sounds like her depression is stable, so we will not change anything at this time.
+ â€¢ Patient Education and Counseling: She will keep taking the Effexor. I encouraged her to practice yoga for depression relief as well as her back pain.
+ Chronic back pain.
+ â€¢ Medical Reasoning: The patient says she is doing well on Neurontin with only occasional exacerbation of the pain.
+ â€¢ Medical Treatment: She can continue Neurontin as is. I also encouraged her to practice yoga for her back pain.
+ Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] شکریہ، راچیل۔ بہت خوشگوار ملاقات ہوئی۔
+[مریض] جی۔
+[ڈاکٹر] اوہ، جیسا کہ میری نرس نے آپ کو بتایا، ہم ڈی اے ایکس استعمال کر رہے ہیں۔ تو میں ڈی اے ایکس کو آپ کے بارے میں تھوڑا بتا دوں گا۔
+[مریض] ہمم۔
+[ڈاکٹر] تو راچیل 48 سالہ خاتون ہیں جو سانس کی قلت کی شکایت لے کر آئی ہیں۔ انہیں افسردگی، سگریت نوشی اور دائمی کمر درد کی تاریخ ہے۔ تو مجھے اس سانس کی قلت کے بارے میں بتائیں۔
+[مریض] ٹھیک ہے۔ تو ایسے اوقات ہوتے ہیں جب میں بہت ہلکی ورزش کر رہی ہوتی ہوں یا صرف چل رہی ہوتی ہوں، یہاں تک کہ اگر میں صرف اپنے لانگ ڈرائیو وے پر چل رہی ہوں، تو مجھے دل کی دھڑکن تیز ہونے اور سانس لینے میں تھوڑی مشکل محسوس ہوتی ہے۔
+[ڈاکٹر] ہمم۔
+[مریض] مجھے نہیں معلوم کہ کیا یہ کمر درد سے متعلق ہے، یعنی کیا وہ بھی اسی وقت شروع ہو جاتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] لیکن یقینی طور پر مجھے لگتا ہے کہ یہ حال ہی میں زیادہ بار ہو رہا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا حال ہی میں کوئی اور تبدیلی ہوئی ہے؟ جیسے، کیا آپ نے اپنی طرز زندگی بدلی ہے، جیسے کہ آپ پہلے سے زیادہ ورزش کر رہی ہیں، یا کوئی الرجی ہے، یا اس طرح کی کوئی چیز؟
+[مریض] شاید میں کووڈ 15 سے چھٹکارا پانے کے لیے زیادہ ورزش کر رہی ہوں۔
+[ڈاکٹر] کووڈ 15۔ جی۔ اب آخری بار جب میں نے آپ کو دیکھا تھا، تو آپ دن میں دو پیک سگریٹ پیتی تھیں۔ اب آپ کتنی پیتی ہیں؟
+[مریض] اوہ، یہ کافی کم ہو گئی ہے کیونکہ، جی، ہم نے کہا تھا کہ عمر کے ساتھ کچھ تبدیلیاں لانی ہیں۔
+[ڈاکٹر] جی۔
+[مریض] تو میں کہوں گی کہ شاید، شاید ایک یا دو... شاید ایک۔ مجھے نہیں معلوم۔ شاید دن میں ایک۔
+[ڈاکٹر] صرف دن میں دو سگریٹ؟
+[مریض] شاید دن میں ایک، جی۔
+[ڈاکٹر] ہم قریب پہنچ رہے ہیں۔
+[مریض] جی۔
+[ڈاکٹر] یہ بہت زبردست ہے۔
+[مریض] ہمم۔
+[ڈاکٹر] یہ بہت اچھی خبر ہے۔ اوہ، اور پھر آپ کی افسردگی کیسی چل رہی ہے؟
+[مریض] میرے کچھ لمحات ہوتے ہیں۔
+[ڈاکٹر] جی۔
+[مریض] کچھ دن ایسے ہوتے ہیں جب میں، آپ جانتے ہیں، میں جاگتی ہوں اور سب کچھ بہت اچھا ہوتا ہے۔
+[ڈاکٹر] اوہ۔
+[مریض] اور پھر ایسے اوقات ہوتے ہیں، مجھے نہیں معلوم کہ کیا یہ موسم سے متعلق ہے یا کسی اور چیز سے، جو اسے شروع کرتی ہے۔
+[ڈاکٹر] جی۔
+[مریض] کچھ دن ایسے ہوتے ہیں جب میں بہت زیادہ مایوس محسوس کرتی ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ اور آپ افسردگی کے لیے ایفیکسار لے رہی تھیں۔ کیا آپ اب بھی اسے لے رہی ہیں؟
+[مریض] جی، میں لے رہی ہوں۔
+[ڈاکٹر] ٹھیک ہے، بہت اچھا۔ اور پھر، اوہ، دائمی کمر درد، ہم آپ کو گیباپینٹین نیورونٹین دے رہے تھے۔ کیا یہ درد کو کنٹرول کرنے میں مدد کر رہا ہے؟
+[مریض] مجھے لگتا ہے کہ یہ مدد کر رہا ہے۔
+[ڈاکٹر] جی۔
+[مریض] یہ... یہ یقینی طور پر، اوہ، میں بہتر محسوس کرتی ہوں۔
+[ڈاکٹر] اوہ۔
+[مریض] لیکن یہ کبھی کبھار ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ جب یہ بہت زیادہ ہوتا ہے تو آپ کیا کرتی ہیں؟
+[مریض] اوہ، میں صرف اتنا آرام کرنے کی کوشش کرتی ہوں جتنا میں کر سکتی ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ اور آپ نے یوگا کرنے کے بارے میں بات کی تھی۔ کیا آپ اب بھی یوگا کر رہی ہیں؟
+[مریض] کاش میں ہاں کہہ سکتی، لیکن میں نے اسے عادت نہیں بنایا۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ تو، اوہ، آپ نے کہا کہ آپ سانس کی قلت کے ساتھ آئی ہیں، تو ہم نے آپ کو کچھ پلمونری فنکشن ٹیسٹ کروانے کے لیے بھیجا تھا۔
+[مریض] ہمم۔
+[ڈاکٹر] تو آئیے ان کو دیکھیں۔ ہی، ڈریگن، مجھے پلمونری فنکشن ٹیسٹ دکھاؤ۔ ٹھیک ہے، تو ایسا لگتا ہے... یہ دلچسپ ہے۔ یہ کہتا ہے کہ آپ کو شاید تھوڑی سی دمہ یا، اوہ، سی او پی ڈی ہو۔ اور اگر آپ کو ہے، تو ہم اس کے بارے میں بات کریں گے۔
+[مریض] ہمم۔
+[ڈاکٹر] آئیے اپنا ایکس رے دیکھیں۔ ہی، ڈریگن، مجھے حالیہ ترین ایکس رے دکھاؤ۔ اوہ، میں نے غلط کہا۔ ہی، ڈریگن، مجھے حالیہ ترین سینے کا ایکس رے دکھاؤ۔ ٹھیک ہے، یہ دلچسپ ہے۔ آپ کی... آپ کی ڈایافرام تھوڑی سی چپٹی ہے، اور ہم اسے کچھ، اوہ، سی او پی ڈی میں دیکھیں گے، جو اکثر سگریٹ نوشی کرنے والوں کو ہوتی ہے۔ تو آئیے ایک فوری جسمانی امتحان کریں۔ مجھے معلوم ہے کہ میری نرس نے آپ کے ساتھ سسٹم کا جائزہ لیا ہے۔ کیا کوئی اور چیز ہے جو آپ کو پریشان کر رہی ہے جس کے بارے میں ہمیں آج بات کرنے کی ضرورت ہے؟
+[مریض] کوئی اور مسئلہ نہیں ہے۔
+[ڈاکٹر] ٹھیک ہے۔ بہت اچھا۔ آئیے امتحان کریں۔ ٹھیک ہے، تو آپ کا جسمانی امتحان کافی عام لگتا ہے سوائے اس کے کہ آپ کے تمام پھیپھڑوں کے علاقوں میں ہلکی سی سائیلیں ہیں۔ اور تو مجھے لگتا ہے کہ آپ کو پلمونری فنکشن ٹیسٹ، آپ کے ایکس رے اور اس سے سی او پی ڈی ہے۔ تو میں آپ کو سی او پی ڈی کا تشخیص کر رہی ہوں۔ کرونیک آبسٹرکٹیو پلمونری ڈیزیز۔ اس کا مطلب ہے کہ آپ مناسب طریقے سے سانس چھوڑنے میں قاصر ہیں۔
+[مریض] ہمم۔
+[ڈاکٹر] تو ہم آپ کو ایک دوا تجویز کرنے جا رہے ہیں جسے کومبیوینٹ کہتے ہیں۔ ٹھیک ہے، آپ دن میں دو بار دو پف لیں گے۔ یہ آپ کے پھیپھڑوں کو کھولنے میں مدد کرے گا۔ یہ ایک ان ہیلر ہے۔
+[مریض] ہمم۔
+[ڈاکٹر] میں آپ کو البیوٹیرول بھی تجویز کرنے جا رہی ہوں، جسے آپ تب استعمال کریں گے جب آپ کو بہت زیادہ سانس لینے میں مشکل ہو گی۔ یہ ایک بچاؤ کی طرح ہے۔
+[مریض] ہمم۔
+[ڈاکٹر] اوہ، اور پھر میں کچھ سٹیرائڈز تجویز کرنے جا رہی ہوں جو مدد کریں، کچھ پریڈنسون بھی۔ تو آئیے انہیں آرڈر کر لیں۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ہی، ڈریگن، کومبیوینٹ آرڈر کریں، اوہ، دن میں دو بار دو پف۔ البیوٹیرول آرڈر کریں، ضرورت کے مطابق دو پف۔ اور پریڈنسون ٹیپر پیک آرڈر کریں۔ ٹھیک ہے، تو اور پھر ایسا لگتا ہے کہ آپ کی افسردگی مستحکم ہے، تو ہم کچھ بھی نہیں بدلیں گے۔ آپ ایفیکسار لینا جاری رکھیں گے۔ اوہ، افسردگی اور آپ کے کمر درد کے لیے یوگا کریں، تو آپ کے کمر درد کے لیے، نیورونٹین پر رہیں، اور ہم کچھ بھی مختلف نہیں کریں گے۔ کیا آپ کے کوئی سوالات ہیں؟
+[مریض] نہیں، مجھے لگتا ہے کہ یہ ٹھیک ہے۔ شکریہ۔
+[ڈاکٹر] بہت اچھا۔ ہی، ڈریگن، نوٹ کو حتمی شکل دیں۔ کیوں نہ آپ...</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+سانس کی تنگی۔
+عارضی مرض کی تاریخ
+مریضہ 48 سالہ خاتون ہیں جو سانس کی تنگی کی شکایت لے کر آئی ہیں۔ انہیں افسردگی، سگریٹ نوشی اور دائمی کمر درد کی تاریخ ہے۔
+مریضہ ہلکی ورزش اور چلنے پھرنے کے دوران سانس کی تنگی کی شکایت کرتی ہیں۔ وہ کبھی کبھار دل کی دھڑکن تیز ہونے کی بھی شکایت کرتی ہیں۔ انہیں یقین نہیں ہے کہ یہ ان کے کمر درد کی وجہ سے ہے یا نہیں۔ مریضہ کا کہنا ہے کہ وہ زیادہ ورزش کر رہی ہیں۔ وہ سگریٹ نوشی جاری رکھے ہوئے ہیں لیکن روزانہ دو پیکٹ سے کم کر کے چند سگریٹ تک محدود کر دی ہے۔
+اپنی افسردگی کے حوالے سے، مریضہ کا کہنا ہے کہ وہ Effexor پر اچھی طرح سے کنٹرول پا رہی ہیں۔
+اپنی دائمی کمر درد کے حوالے سے، مریضہ Neurontin لے رہی ہیں، جو ان کے خیال میں ان کے درد کو کنٹرول کرنے میں مدد کر رہی ہے۔ وہ کہتی ہیں کہ وہ جتنا ہو سکے اتنا آرام کرنے کی کوشش کرتی ہیں۔ وہ اب یوگا نہیں کرتیں کیونکہ انہوں نے اسے عادت نہیں بنایا۔
+جسمانی جائزہ
+• قلبی و عروقی: ورزش پر سانس کی تنگی کی تصدیق ہوئی۔ دل کی دھڑکن تیز ہونے کی تصدیق ہوئی۔
+• تنفسی: سانس کی تنگی کی تصدیق ہوئی۔
+• عضلاتی ہڈی: کمر درد کی تصدیق ہوئی۔
+• جلد:
+• ذہنی: افسردگی کی تصدیق ہوئی۔
+جسمانی معائنہ
+• تنفسی: دونوں جانب ہلکی سی وزوز کی آواز۔
+نتائج
+پلمونری فنکشن ٹیسٹ سے ہلکی دمہ اور COPD کی موجودگی کا پتہ چلتا ہے۔
+سینے کا X-ray ڈایافرامم کی چپٹی پن کو ظاہر کرتا ہے جو COPD کے ساتھ مطابقت رکھتا ہے۔
+تشخیص اور منصوبہ
+COPD۔
+• طبی منطق: مریضہ آج سانس کی تنگی کے ساتھ آئی ہیں۔ ان کے پلمونری فنکشن ٹیسٹ دمہ یا COPD کی نشاندہی کرتے ہیں اور آج کا سینے کا X-ray اور جسمانی معائنہ بھی COPD کے ساتھ مطابقت رکھتا ہے۔
+• مریض کی تعلیم اور مشورہ: میں نے مریض کو سگریٹ نوشی چھوڑنے کے اہمیت کے بارے میں مشورہ دیا۔
+• طبی علاج: ہم مریض کو Combivent، دن میں دو بار 2 پف سے شروع کریں گے۔ میں ایک albuterol inhaler، ضرورت پڑنے پر 2 پف، اور prednisone taper pack بھی تجویز کروں گا۔
+افسردگی۔
+• طبی منطق: ایسا لگتا ہے کہ ان کی افسردگی مستحکم ہے، اس لیے ہم اس وقت کچھ بھی نہیں بدلیں گے۔
+• مریض کی تعلیم اور مشورہ: وہ Effexor لینا جاری رکھیں گی۔ میں نے انہیں افسردگی اور کمر درد سے نجات کے لیے یوگا کرنے کی بھی ترغیب دی۔
+دائمی کمر درد۔
+• طبی منطق: مریضہ کا کہنا ہے کہ وہ Neurontin کے ساتھ بہتر کر رہی ہیں اور درد میں صرف کبھی کبھار اضافہ ہوتا ہے۔
+• طبی علاج: وہ Neurontin کو جاری رکھ سکتی ہیں۔ میں نے انہیں کمر درد کے لیے یوگا کرنے کی بھی ترغیب دی۔
+مریض کی رضامندی: مریض تجویز کردہ طبی علاج کے منصوبے کو سمجھتا ہے اور اس سے اتفاق کرتا ہے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>c_aci_053</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ACI027</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[doctor] hey gabriel i'm doctor scott good to see you today i know you've heard about dax is it okay if i tell dax a little bit about you
+ [patient] sure
+ [doctor] okay so gabriel is a 43 -year-old male today here for back pain evaluation and also has a past medical history of diabetes high blood pressure and high cholesterol so gabriel tell me what's going on with your back
+ [patient] well i was working in the yard and you know bent over to pick something up and i got this pain and you know across the lower part of my back and then it went down my left leg and you know it's been going on for about four days and just does n't seem to be getting any better
+ [doctor] okay are you a big gardener or this is something that you just started working in the yard
+ [patient] yeah i know my wife held a gun to my head make me go out there work in the yard and carry some stuff around it's not my not my first choice but
+ [doctor] sure sure
+ [patient] but that day i i lost the i lost the argument
+ [doctor] yeah yeah that happens to all of this so when this back pain happened so it was basically you were lifting you were bending down to lift something up and you had the sharp pain going down your right leg you said
+ [patient] left leg
+ [doctor] left leg okay got it sorry and any weakness or numbness in your legs or just the pain mostly
+ [patient] in in certain positions i get some tingling but no mostly just pain
+ [doctor] okay and any loss of bowel or bladder function at all or anything like that
+ [patient] no
+ [doctor] okay and have you had any back surgeries or back problems in the past or this is kind of the first time
+ [patient] no surgeries you know i've i've had back pain occasionally over the years
+ [doctor] okay have you had any any have you tried anything for pain for this have you tried any any medications at all
+ [patient] i've had ibuprofen it it helped some
+ [doctor] okay got it alright well i'll i'll examine you in a second but before we do that let's talk about some of the other conditions that we're kinda following you for i'm looking at your problem list now and you've got a history of diabetes and you're on metformin five hundred milligram twice a day and your how are you doing with your blood sugars and your and your diet and exercise
+ [patient] yeah i i check my sugar two or three times a week most of the time it's in that one twenty to one forty range
+ [doctor] okay
+ [patient] yeah i take my medicine okay my diet is alright you know i could be fifteen pounds lighter that would be alright but
+ [doctor] sure
+ [patient] i i i think the sugar has been okay
+ [doctor] okay we checked your hemoglobin a1c last time i'm looking at your records in epic and it showed that it was you know seven . one so it's it's it's good but it could be better any you know we talked about it controlling your diet or improving your diet and trying to have a balanced meal and not eating some of these sweets and high sugar items how is that going i know you had talked about your wife being a great cook and making cookies and that's hard to stay away from obviously how are things going with that
+ [patient] yeah she still makes cookies and i still eat them but you know we are trying to trying to do better trying to stay away from more of those carbs and focus on you know less carby less sweet stuff
+ [doctor] okay alright yeah that's always a struggle i certainly understand but you know really important with your diabetes just to prevent some of the complications like kidney failure and eye problems and just keep your sugar under balance so i'll order another hemoglobin a1c today we'll check that again today and and you know just reemphasizing the controlling your diet and exercise is super important and then we'll have those results back we'll we'll see if we need to make any modifications okay
+ [patient] okay
+ [doctor] for your high blood pressure your blood pressure in the clinic looks pretty good it's about one twenty over seventy right now we have you on norvasc five milligrams once a day how are things going with that are you are you checking that periodically or any issues with that at all
+ [patient] yeah i guess i check it maybe once a week or two or three times a month and it it the vast majority of the time when i check it it's good usually either that one twenty to one thirty over seventy to eighty range i i think the blood pressure's okay
+ [doctor] okay
+ [patient] i have n't had any real problems there i i have had some some swelling in my ankles though
+ [doctor] okay is that new or is that been going on for a while
+ [patient] well it it started maybe i do n't know a month or two after i started the norvasc
+ [doctor] okay
+ [patient] and i was just wondering if the two might be related
+ [doctor] yeah i mean certainly it could be it is you know sometimes that medication can cause that so i'll i'll examine you in a second and see if we need to make any modifications okay
+ [patient] okay
+ [doctor] alright so and your anything else bothering you today
+ [patient] no i'm we're doing okay i think
+ [doctor] so let me examine you for a second i'm gon na go ahead and gabriel i'm gon na do my magic exam now let's pretend i i'm just gon na verbalize some of my findings as i do my exam and so
+ [patient] these are like my video visit exams
+ [doctor] exactly so your neck exam has no jvd there is no bruits that i can hear your lung exam no rales no wheezing on your heart exam you do have a two over six systolic ejection murmur you had that in the past so i'm not too worried about that otherwise regular rate and rhythm on your heart exam on your on your on your belly exam is nice and soft on your back exam you do have some tenderness on the left paraspinal area right where i'm pressing right there your straight leg raise test is negative your reflexes are normal you have some just some tenderness in the lower back in the paraspinal area of your back when i palpate there otherwise your neurological exam is normal on your extremity exam you do have this one plus nonpitting edema of your lower extremities which is a little bit of swelling in your ankles no calf tenderness negative homans sign no signs of blood clot that's what that means so let me just review what you know explain what all this means so the back pain the first problem that you're here today for i think this is more of a muscular sprain i'm gon na recommend we start you on some anti-inflammatory naprosyn five hundred five hundred milligrams twice a day and flexeril ten milligrams twice a day as well i'm gon na refer you to for for physical therapy to help strengthen some of the muscles in your lower back i do n't think you need an x-ray at this stage why do n't we start with physical therapy and the muscle relaxers and the pain medicines if it does n't get better then we can get an x-ray but right now i would start with that if that's okay with you any questions about that
+ [patient] no
+ [doctor] okay for the diabetes the the second problem that we talked about today i'm gon na order another hemoglobin a1c continue the metformin five hundred milligrams twice a day why do n't we have you come back in about two weeks and we should have some of the results back and we can discuss if we need to make any modifications for that but right now we will continue the course and we will go from there okay for the high blood pressure you do have this one plus edema in your legs i'm gon na go ahead and order some blood work today i'm gon na go ahead and stop the norvasc and we'll put you on some hydrochlorothiazide ten milligrams once a day and if that does n't get if the swelling does n't go away i'm gon na do some more testing for right now let's get some sort off with some cbc and a bmp i'm gon na check your kidney function i'm gon na get another ekg and also i'm gon na get a chest x-ray and we'll go from there but hopefully this will go away once we stop this medication since it started around that time okay okay and i think that's it anything else we forgot about do you need refills for anything
+ [patient] no i i think i'm okay you gave me a year's worth of refills last time we were together
+ [doctor] okay sounds great alright thanks gabriel good seeing you again
+ [patient] good to see you thanks</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Back pain evaluation.
+ MEDICAL HISTORY
+ The patient has a history of diabetes, hypertension, and high cholesterol.
+ SURGICAL HISTORY
+ He denies previous back surgeries.
+ MEDICATIONS
+ The patient currently utilizes metformin 500 mg twice daily and Norvasc.
+ REVIEW OF SYSTEMS
+ Cardiovascular: Reports ankle swelling.
+ Musculoskeletal: Reports lower back pain.
+ Neurological: Reports tingling in left leg. Denies weakness or numbness in legs, or loss of bowl or bladder function.
+ PHYSICAL EXAM
+ Neurological
+ - Orientation: Alert and oriented x3. Cranial nerves grossly intact. Normal gait.
+ Neck
+ - General Examination: No JVD. No bruits.
+ Respiratory
+ - Auscultation of Lungs: No wheezes, rales.
+ Cardiovascular
+ - Auscultation of Heart: Regular rate and rhythm. 2/6 systolic ejection murmur. Otherwise, regular rate and rhythm.
+ Musculoskeletal
+ - Examination: Tenderness on the left paraspinal area. Straight leg raise test is negative. Reflexes are normal. 1+ nonpitting edema of lower extremities. No calf tenderness. Negative Homan's sign.
+ ASSESSMENT AND PLAN
+ 1. Lower back pain.
+ - Medical Reasoning: I believe this is more of a muscular sprain.
+ - Patient Education and Counseling: We discussed treatment options today.
+ - Medical Treatment: I am going to start him on Naprosyn 500 mg twice a day and Flexeril 10 mg twice a day. I will refer him for physical therapy to help strengthen some of the muscles in his lower back.
+ - Additional Testing: I do not think he needs an x-ray at this stage, however if he does not improve, we will order one for further evaluation.
+ 2. Diabetes.
+ - Medical Reasoning: His most recent A1c was 7.1 and his blood sugar levels are typically between 120-140.
+ - Patient Education and Counseling: We discussed treatment options today.
+ - Medical Treatment: He will continue the metformin 500 mg twice a day.
+ - Additional Testing: I am going to order another hemoglobin A1c.
+ 3. Hypertension.
+ - Medical Reasoning: He does have 1+ edema in his legs.
+ - Patient Education and Counseling: We discussed treatment options today. I explained that his edema is likely caused by the Norvasc.
+ - Medical Treatment: The patient will discontinue the use of Norvasc and we will start him on hydrochlorothiazide 10 mg once a day.
+ - Additional Testing: I will order a CBC and BMP. Additionally, I will order a repeat EKG, as well as a chest x-ray.
+ Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.
+ INSTRUCTIONS
+ The patient will follow up in 2 weeks.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>train_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی گبریل، میں ڈاکٹر سکاٹ ہوں۔ آپ سے آج مل کر خوشی ہوئی۔ مجھے معلوم ہے کہ آپ نے ڈی اے ایکس کے بارے میں سنا ہوگا۔ کیا میں ڈی اے ایکس کو آپ کے بارے میں کچھ بتا سکتا ہوں؟
+[مریض] ضرور۔
+[ڈاکٹر] ٹھیک ہے، تو گبریل 43 سالہ مرد ہیں، جو آج کمر درد کی تشخیص کے لیے آئے ہیں اور ان کی طبی تاریخ میں ذیابیطس، بلند فشار خون اور بلند کولیسٹرول بھی شامل ہے۔ تو گبریل، مجھے بتائیں کہ آپ کی کمر میں کیا ہو رہا ہے؟
+[مریض] اچھا، میں باغ میں کام کر رہا تھا اور آپ جانتے ہیں، کسی چیز کو اٹھانے کے لیے جھکا اور مجھے یہ درد ہوا اور آپ جانتے ہیں، میری کمر کے نچلے حصے میں اور پھر یہ میرے بائیں پاؤں میں چلا گیا اور آپ جانتے ہیں، یہ تقریباً چار دنوں سے ہو رہا ہے اور ایسا نہیں لگ رہا کہ یہ بہتر ہو رہا ہے۔
+[ڈاکٹر] ٹھیک ہے، کیا آپ ایک بڑے باغبان ہیں یا یہ کچھ ایسا ہے جو آپ نے ابھی باغ میں کام کرنا شروع کیا ہے؟
+[مریض] ہاں، مجھے معلوم ہے کہ میری بیوی نے میری طرف گن تانی کی تاکہ مجھے وہاں کام کرنے اور کچھ چیزیں اٹھانے کے لیے مجبور کیا جا سکے۔ یہ میری پہلی ترجیح نہیں ہے، لیکن…
+[ڈاکٹر] ضرور، ضرور۔
+[مریض] لیکن اس دن میں نے میں نے بحث ہار دی۔
+[ڈاکٹر] ہاں، ہاں، یہ سب کے ساتھ ہوتا ہے۔ تو جب یہ کمر درد شروع ہوا، تو بنیادی طور پر آپ کچھ اٹھا رہے تھے، آپ کسی چیز کو اٹھانے کے لیے جھک رہے تھے اور آپ کو درد آپ کے دائیں پاؤں میں ہو رہا تھا، آپ نے کہا۔
+[مریض] بائیں پاؤں۔
+[ڈاکٹر] بائیں پاؤں، ٹھیک ہے، معاف کیجیے گا۔ اور آپ کے پاؤں میں کوئی کمزوری یا سن numbness ہے یا زیادہ تر درد ہے؟
+[مریض] کچھ خاص پوزیشنوں میں مجھے کچھ جھنجھناہٹ ہوتی ہے لیکن زیادہ تر صرف درد ہے۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ کو آنت یا مثانے کے فعل میں کوئی کمی ہوئی ہے یا کوئی ایسی چیز؟
+[مریض] نہیں
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ نے پہلے کبھی کمر کی سرجری کروائی ہے یا کمر کی کوئی پرابلم ہوئی ہے یا یہ پہلی بار ہے؟
+[مریض] کوئی سرجری نہیں، آپ جانتے ہیں، مجھے سالوں سے کبھی کبھار کمر درد ہوتا رہا ہے۔
+[ڈاکٹر] ٹھیک ہے، کیا آپ نے درد کے لیے کچھ بھی کوشش کی ہے؟ کیا آپ نے کوئی دوا لی ہے؟
+[مریض] میں نے آئبوپروفین لی ہے، یہ کچھ مدد کرتی ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اچھا، میں آپ کا معائنہ کروں گا، لیکن اس سے پہلے، آئیے ان دیگر حالات کے بارے میں بات کرتے ہیں جن کی ہم نگرانی کر رہے ہیں۔ میں آپ کی پرابلم لسٹ دیکھ رہا ہوں اور آپ کو ذیابیطس کی تاریخ ہے اور آپ میٹفورمین 500 ملی گرام روزانہ دو بار لے رہے ہیں اور آپ اپنے بلڈ شوگر اور اپنی غذا اور ورزش کے ساتھ کیسے ہیں؟
+[مریض] ہاں، میں اپنا شوگر ہفتے میں دو یا تین بار چیک کرتا ہوں، زیادہ تر یہ ایک سو بیس سے ایک سو چالیس کی حد میں ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] ہاں، میں اپنی دوا لیتا ہوں۔ میری غذا ٹھیک ہے، آپ جانتے ہیں، میں پندرہ پاؤنڈ ہلکا ہو سکتا تھا، یہ ٹھیک ہو جائے گا، لیکن…
+[ڈاکٹر] ضرور۔
+[مریض] مجھے لگتا ہے کہ شوگر ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے، ہم نے آخری بار آپ کا ہیموگلوبن A1C چیک کیا تھا، میں آپ کے ریکارڈ کو ایپک میں دیکھ رہا ہوں اور یہ ظاہر ہوا کہ یہ سات نقطہ ایک تھا، تو یہ اچھا ہے، لیکن یہ بہتر ہو سکتا ہے۔ ہم نے آپ کی غذا کو کنٹرول کرنے یا اپنی غذا کو بہتر بنانے اور متوازن کھانا کھانے اور ان میٹھی اور زیادہ شوگر والی چیزیں کھانے سے بچنے کے بارے میں بات کی تھی۔ یہ کیسے چل رہا ہے؟ مجھے معلوم ہے کہ آپ نے اپنی بیوی کے بارے میں بات کی تھی جو ایک بہترین باورچی ہے اور ککیاں بناتی ہے اور واضح طور پر ان سے دور رہنا مشکل ہے، اس کے ساتھ کیا ہو رہا ہے؟
+[مریض] ہاں، وہ ابھی بھی ککیاں بناتی ہے اور میں انہیں کھاتا ہوں، لیکن، آپ جانتے ہیں، ہم بہتر کرنے کی کوشش کر رہے ہیں، زیادہ کاربوہائیڈریٹ سے بچنے کی کوشش کر رہے ہیں اور کم کاربوہائیڈریٹ اور کم میٹھی چیزوں پر توجہ مرکوز کر رہے ہیں۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، ہاں، یہ ہمیشہ ایک جدوجہد ہوتی ہے، میں یقینی طور پر سمجھتا ہوں، لیکن آپ کے ذیابیطس کے ساتھ بہت اہم ہے تاکہ گردے کی ناکامی اور آنکھوں کی پرابلمز جیسی کچھ پیچیدگیوں کو روکا جا سکے اور آپ کے شوگر کو متوازن رکھا جا سکے۔ میں آج ایک اور ہیموگلوبن A1C کا آرڈر دوں گا، ہم اسے آج ہی دوبارہ چیک کریں گے اور ہم دیکھیں گے کہ کیا ہمیں کوئی تبدیلی کرنے کی ضرورت ہے، ٹھیک ہے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] آپ کے بلند فشار خون کے لیے، کلینک میں آپ کا بلڈ پریشر کافی اچھا لگ رہا ہے، یہ ابھی تقریباً ایک سو بیس اوور ستر ہے۔ ہم آپ کو Norvasc 5 ملی گرام روزانہ ایک بار دے رہے ہیں۔ اس کے ساتھ آپ کیسے ہیں؟ کیا آپ اسے وقتاً فوقتاً چیک کر رہے ہیں یا اس میں کوئی مسئلہ ہے؟
+[مریض] ہاں، مجھے لگتا ہے کہ میں اسے ہفتے میں ایک بار یا دو یا تین بار مہینے میں چیک کرتا ہوں اور زیادہ تر وقت جب میں اسے چیک کرتا ہوں تو یہ اچھا ہوتا ہے، عام طور پر یہ ایک سو بیس سے ایک سو تیس اوور ستر سے اسی کی حد میں ہوتا ہے۔ مجھے لگتا ہے کہ بلڈ پریشر ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] مجھے اس میں کوئی خاص پرابلم نہیں ہوئی ہے، لیکن میرے پاؤں میں کچھ سوجن ہوئی ہے۔
+[ڈاکٹر] ٹھیک ہے، کیا یہ نیا ہے یا یہ کچھ عرصے سے ہو رہا ہے؟
+[مریض] ٹھیک ہے، یہ Norvasc شروع کرنے کے ایک ماہ یا دو ماہ بعد شروع ہوا تھا۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] اور میں سوچ رہا تھا کہ کیا یہ دونوں چیزیں ایک سے جڑی ہو سکتی ہیں۔
+[ڈاکٹر] ہاں، اس کا امکان ہے۔ یہ، آپ جانتے ہیں، کبھی کبھی یہ دوا اس کا سبب بن سکتی ہے، تو میں آپ کا معائنہ کروں گا اور دیکھوں گا کہ کیا ہمیں کوئی تبدیلی کرنے کی ضرورت ہے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے، تو اور کچھ پریشان کر رہا ہے آپ کو آج؟
+[مریض] نہیں، میں ٹھیک ہوں۔
+[ڈاکٹر] تو آئیے میں آپ کا معائنہ کروں، میں آگے بڑھ کر گبریل، میں اپنا جادوئی معائنہ کروں گا اور میں اپنے معائنے کے دوران اپنی کچھ دریافتوں کو بیان کروں گا۔
+[مریض] یہ میری ویڈیو وزٹ کے معائنے کی طرح ہیں۔
+[ڈاکٹر] بالکل، آپ کی گردن کا معائنہ میں کوئی JVD نہیں ہے، میں کوئی شور نہیں سن سکتا، آپ کے پھیپھڑوں کا معائنہ کوئی رالیں نہیں، کوئی وِزنگ نہیں، آپ کے دل کے معائنے پر آپ کو دو اوور چھ سسٹولک ایجیکشن مرمر ہے، آپ کو پہلے بھی یہ تھا، اس لیے میں اس کی زیادہ فکر نہیں کرتا، ورنہ آپ کے دل کی شرح اور تال ٹھیک ہے۔ آپ کے پیٹ کا معائنہ اچھا اور نرم ہے، آپ کی کمر کے معائنے پر آپ کو بائیں پاراسپائنل علاقے میں کچھ درد ہے، جہاں میں دب رہا ہوں، آپ کا سیدھی ٹانگ اٹھانے کا ٹیسٹ منفی ہے، آپ کی ریفلیکسز نارمل ہیں، آپ کو صرف کمر کے نچلے حصے میں کچھ درد ہے جب میں وہاں دباتا ہوں، ورنہ آپ کا نیورولوجیکل معائنہ نارمل ہے۔ آپ کے جسم کے معائنے پر آپ کو اپنے نچلے جسم میں ایک پلس غیر پیٹنگ edema ہے، جو آپ کے ٹخنوں میں تھوڑی سی سوجن ہے، کوئی بچھڑا کی کوفت نہیں، منفی ہومنز کا نشان، جو اس کا مطلب ہے کہ خون کا جم نہیں ہے، تو آئیے میں جو کچھ جانتے ہیں اسے بیان کروں، آپ کی کمر درد، جو آپ آج کے لیے یہاں آئے ہیں، مجھے لگتا ہے کہ یہ زیادہ تر ایک عضلاتی موچ ہے، میں آپ کو کچھ اینٹی انفلامیٹری، Naprosyn 500، 500 ملی گرام روزانہ دو بار اور Flexeril 10 ملی گرام روزانہ دو بار شروع کرنے کی سفارش کروں گا، میں آپ کو جسمانی علاج کے لیے بھیجوں گا تاکہ آپ اپنی کمر کے نچلے حصے میں کچھ عضلات کو مضبوط کرنے میں مدد مل سکے۔ مجھے نہیں لگتا کہ آپ کو اس مرحلے پر ایکس رے کی ضرورت ہے، کیوں نہ ہم جسمانی علاج اور عضلات کے آرام دہ اور درد کی دوائیوں کے ساتھ شروع کریں، اگر یہ بہتر نہیں ہوتا ہے تو ہم ایکس رے کروا سکتے ہیں، لیکن ابھی میں اس کے ساتھ شروع کروں گا، اگر آپ کو اس کے بارے میں کوئی سوال ہے؟
+[مریض] نہیں۔
+[ڈاکٹر] ٹھیک ہے، ذیابیطس کے لیے، دوسری پرابلم جس کے بارے میں ہم نے آج بات کی، میں ایک اور ہیموگلوبن A1C کا آرڈر دوں گا، میٹفورمین 500 ملی گرام روزانہ دو بار جاری رکھیں، کیوں نہ ہم آپ کو تقریباً دو ہفتوں میں واپس آنے دیں اور ہمیں کچھ نتائج مل جائیں گے اور ہم اس پر تبادلہ خیال کر سکتے ہیں کہ کیا ہمیں کوئی تبدیلی کرنے کی ضرورت ہے، لیکن ابھی ہم اس کورس کو جاری رکھیں گے اور وہاں سے جائیں گے۔ ٹھیک ہے، بلند فشار خون کے لیے، آپ کو اپنے پاؤں میں ایک پلس edema ہے، میں آج کچھ خون کا کام کرنے جا رہا ہوں، میں Norvasc کو روکنے جا رہا ہوں اور ہم آپ کو Hydrochlorothiazide 10 ملی گرام روزانہ ایک بار دیں گے اور اگر اس سے سوجن دور نہیں ہوتی ہے تو میں مزید جانچ کروں گا، ابھی کے لیے، آئیے کچھ CBC اور BMP حاصل کریں، میں آپ کے گردے کے فنکشن کی جانچ کروں گا، میں ایک اور ECG اور ایک سینے کا ایکس رے بھی حاصل کروں گا اور وہاں سے جائیں گے، لیکن امید ہے کہ یہ دوا بند کرنے کے بعد دور ہو جائے گی، کیونکہ یہ اس وقت شروع ہوا تھا۔ ٹھیک ہے، ٹھیک ہے، اور میں سوچتا ہوں کہ ہم نے سب کچھ بھول گئے، کیا آپ کو کسی چیز کے لیے ریفل کی ضرورت ہے؟
+[مریض] نہیں۔ مجھے لگتا ہے کہ میں ٹھیک ہوں، آپ نے ہمیں آخری بار ملنے پر ایک سال کی ریفل دی تھی۔
+[ڈاکٹر] ٹھیک ہے، بہت اچھا، ٹھیک ہے، گبریل، آپ کو دوبارہ دیکھ کر خوشی ہوئی۔
+[مریض] آپ کو دیکھ کر خوشی ہوئی۔ شکریہ۔</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+کمر درد کی تشخیص کے لیے معائنہ۔
+طبی تاریخ
+مریض کو ذیابیطس، بلند فشار خون اور کولیسٹرول کی زیادتی کی تاریخ ہے۔
+جراحی کی تاریخ
+انہوں نے پہلے کبھی کمر کی سرجری کی تردید کی ہے۔
+دوائیاں
+مریض فی الحال میٹفورمین 500 ملی گرام روزانہ دو بار اور نورواسک استعمال کر رہے ہیں۔
+اعضاء کا جائزہ
+قلبی و عروقی: ٹخنوں میں سوجن کی شکایت۔
+عضلاتی ہڈی: کمر کے نچلے حصے میں درد کی شکایت۔
+اعصابی: بائیں پاؤں میں جھنجھناہٹ کی شکایت۔ پاؤں میں کمزوری یا سن numbnessی کی تردید، یا آنت یا مثانے کے فعل کا نقصان۔
+جسمانی معائنہ
+اعصابی
+- واقفیت: ہوش میں اور x3 واقف۔ کرانیئل اعصاب نمایاں طور پر سالم۔ معمول کی چال۔
+گردن
+- عمومی معائنہ: کوئی JVD نہیں۔ کوئی برویٹس نہیں۔
+تنفس
+- پھیپھڑوں کا سینکنا: کوئی وھیز، رائل نہیں۔
+قلبی و عروقی
+- دل کی سینکنا: باقاعدہ شرح اور تال۔ 2/6 سسٹولک اخراج کی مرمور۔ بصورت دیگر، باقاعدہ شرح اور تال۔
+عضلاتی ہڈی
+- معائنہ: بائیں پاراسپائنل علاقے میں حساسیت۔ سیدھی ٹانگ اٹھانے کا ٹیسٹ منفی ہے۔ ریفلیکسز معمول ہیں۔ نچلے اعضاء کی 1+ غیر پیٹنگ edema۔ کوئی بچھڑا کی حساسیت نہیں۔ منفی ہومنز کا نشان۔
+تشخیص اور منصوبہ
+1. کمر کے نچلے حصے میں درد۔
+   - طبی استدلال: مجھے یقین ہے کہ یہ زیادہ تر عضلاتی موچ ہے۔
+   - مریض کی تعلیم اور مشورہ: آج ہم نے علاج کے اختیارات پر تبادلہ خیال کیا۔
+   - طبی علاج: میں اسے نیپروسین 500 ملی گرام روزانہ دو بار اور فلیکسرل 10 ملی گرام روزانہ دو بار سے شروع کروں گا۔ میں اسے جسمانی علاج کے لیے ریفر کروں گا تاکہ اس کی کمر کے نچلے حصے میں کچھ عضلات کو مضبوط بنانے میں مدد مل سکے۔
+   - اضافی جانچ: مجھے نہیں لگتا کہ اسے اس مرحلے پر ایکس رے کی ضرورت ہے، تاہم اگر اس کی حالت میں بہتری نہیں آتی ہے، تو ہم مزید تشخیص کے لیے ایک آرڈر کریں گے۔
+2. ذیابیطس۔
+   - طبی استدلال: اس کا حالیہ A1c 7.1 تھا اور اس کی بلڈ شوگر کی سطح عام طور پر 120-140 کے درمیان ہوتی ہے۔
+   - مریض کی تعلیم اور مشورہ: آج ہم نے علاج کے اختیارات پر تبادلہ خیال کیا۔
+   - طبی علاج: وہ میٹفورمین 500 ملی گرام روزانہ دو بار جاری رکھیں گے۔
+   - اضافی جانچ: میں ایک اور ہیموگلوبن A1c کا آرڈر کروں گا۔
+3. بلند فشار خون۔
+   - طبی استدلال: اس کے پاؤں میں 1+ edema ہے۔
+   - مریض کی تعلیم اور مشورہ: آج ہم نے علاج کے اختیارات پر تبادلہ خیال کیا۔ میں نے وضاحت کی کہ اس کی edema کا سبب نورواسک ہے۔
+   - طبی علاج: مریض نورواسک کا استعمال بند کر دے گا اور ہم اسے ہائیڈروکلوروthiazide 10 ملی گرام روزانہ ایک بار سے شروع کریں گے۔
+   - اضافی جانچ: میں CBC اور BMP کا آرڈر کروں گا۔ اس کے علاوہ، میں ایک ریپیٹ EKG کے ساتھ ساتھ ایک سینے کا ایکس رے بھی آرڈر کروں گا۔
+مریض کے معاہدے: مریض تجویز کردہ طبی علاج کے منصوبے کو سمجھتا ہے اور اس سے اتفاق کرتا ہے۔
+ہدایات
+مریض 2 ہفتوں میں فالو اپ کرے گا۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>c_aci_054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>virtassist</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VA022</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[doctor] hi , ms. thompson . i'm dr. moore . how are you ?
+[patient] hi , dr. moore .
+[doctor] hi .
+[patient] i'm doing okay except for my knee .
+[doctor] all right , hey , dragon , ms. thompson is a 43 year old female here for right knee pain . so tell me what happened with your knee ?
+[patient] well , i was , um , trying to change a light bulb , and i was up on a ladder and i kinda had a little bit of a stumble and kinda twisted my knee as i was trying to catch my fall .
+[doctor] okay . and did you injure yourself any place else ?
+[patient] no , no . it just seems to be the knee .
+[doctor] all right . and when did this happen ?
+[patient] it was yesterday .
+[doctor] all right . and , uh , where does it hurt mostly ?
+[patient] it hurts like in , in , in the inside of my knee .
+[doctor] okay .
+[patient] right here .
+[doctor] all right . and anything make it better or worse ?
+[patient] i have been putting ice on it , uh , and i've been taking ibuprofen , but it does n't seem to help much .
+[doctor] okay . so it sounds like you fell a couple days ago , and you've hurt something inside of your right knee .
+[patient] mm-hmm .
+[doctor] and you've been taking a little bit of ice , uh , putting some ice on it , and has n't really helped and some ibuprofen . is that right ?
+[patient] that's right . yeah .
+[doctor] okay , let's review your past history for a second . it looks like , uh , do you have any other past medical history ?
+[patient] uh , afib .
+[doctor] okay , and are you taking any medications for that ?
+[patient] yeah , i am . um , begins with a d.
+[doctor] uh , digoxin ?
+[patient] that's it . yeah , that's it .
+[doctor] okay , all right . how about any surgeries in the past ?
+[patient] i have had a nose job .
+[doctor] all right . um , let's do your exam , okay ? so is it tender ... where is it mostly tender right now ?
+[patient] right on the inside of my knee . right here .
+[doctor] all right , so if i bend your knee forward , does that seem to hurt ?
+[patient] yes , that hurts .
+[doctor] all right , how about if i twist it a little bit that way .
+[patient] that hurts a lot .
+[doctor] okay , okay . and how about down here ? do you feel me touch you down here ?
+[patient] yes .
+[doctor] all right . any other pain down here in your calves ?
+[patient] no .
+[doctor] no , okay . so on exam you do have some tenderness over the medial portion of your knee over the medial meniscus area . uh , there is no , uh , there is a little bit of tenderness when i flex your , uh , when i , uh , uh , do some valgus stressing on your , on your leg . um , you have normal sensation . so let's take a look at your x-rays .
+[patient] okay .
+[doctor] okay . hey dragon , show me the x-rays . so looking at the x-ray , um , of your left knee , uh , it appears to be there's no fractures there right now . i do n't see any , uh , there's a little bit of , uh , fluid , uh , but there is no , uh , there's no , um , fracture or there's no dislocation . everything else seems to be lined up properly , okay ?
+[patient] okay .
+[doctor] so in summary after my exam , uh , looking at your knee , uh , on the x-ray and your exam , you have some tenderness over the medial meniscus , so i think you have probably an acute medial meniscus sprain right now or strain . uh , at this point , my recommendation would be to put you in a knee brace , uh , and we'll go ahead and have you use some crutches temporarily for the next couple days . we'll have you come back in about a week and see how you're doing , and if it's not better , we'll get an mri at that time .
+[patient] okay .
+[doctor] i'm going to recommend we give you some motrin , 800 milligrams . uh , you can take it about every six hours , uh , with food . uh , and we'll give you about a two week supply .
+[patient] okay .
+[doctor] okay . uh , do you have any questions ?
+[patient] no , i think i'm good .
+[doctor] all right . hey , dragon , order the medications and procedures discussed , and finalize the report . okay , come with me and we'll get you checked out .</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CC:
+Right knee pain.
+HPI:
+Ms. Thompson is a 43-year-old female who presents today for an evaluation of right knee pain. She states she was trying to change a lightbulb on a ladder, and she twisted her knee when she stumbled and caught herself from falling yesterday. She has been applying ice and taking Ibuprofen without relief.
+CURRENT MEDICATIONS:
+Ibuprofen, digoxin.
+PAST MEDICAL HISTORY:
+Atrial fibrillation.
+PAST SURGICAL HISTORY:
+Rhinoplasty.
+EXAM
+Examination of the right knee shows pain with flexion. Tenderness over the medial joint line. No pain in the calf. Pain with valgus stress. Sensation is intact.
+RESULTS
+X-rays of the right knee show no obvious signs of acute fracture or dislocation. Mild effusion is noted.
+IMPRESSION
+Right knee acute medial meniscus sprain.
+PLAN
+At this point, I discussed the diagnosis and treatment options with the patient. I have recommended a knee brace. She will take Motrin 800 mg, every 6 hours with food, for two weeks. She will use crutches for the next couple of days. She will follow up with me in 1 week for a repeat evaluation. If she is not better at that time, we will obtain an MRI. All questions were answered.
+</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہیلو، مسز تھامسن۔ میں ڈاکٹر مور ہوں۔ آپ کیسی ہیں؟
+[مریض] ہیلو، ڈاکٹر مور۔
+[ڈاکٹر] ہیلو۔
+[مریض] میں ٹھیک ہوں، صرف میرے گھٹنے میں مسئلہ ہے۔
+[ڈاکٹر] ٹھیک ہے۔ سنیں، ڈریگن، مسز تھامسن 43 سالہ خاتون ہیں جو دائیں گھٹنے کے درد کی شکایت لے کر آئی ہیں۔ تو مجھے بتائیں آپ کے گھٹنے کے ساتھ کیا ہوا؟
+[مریض] اچھا، میں، ہمم، بلب بدلنے کی کوشش کر رہی تھی، اور میں سیڑھی پر کھڑی تھی اور میرا تھوڑا سا پاؤں لڑکھڑا گیا اور گرنے سے بچنے کی کوشش کرتے ہوئے میرا گھٹنا مڑ گیا۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ کو کسی اور جگہ کوئی چوٹ لگی ہے؟
+[مریض] نہیں، نہیں، صرف گھٹنا ہی دکھ رہا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور یہ کب ہوا؟
+[مریض] یہ کل ہوا۔
+[ڈاکٹر] ٹھیک ہے۔ اور، اوہ، زیادہ درد کہاں ہے؟
+[مریض] درد میرے گھٹنے کے اندرونی حصے میں ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] یہاں۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا چیز درد کو بہتر یا بدتر کرتی ہے؟
+[مریض] میں اس پر برف ڈال رہی ہوں، اوہ، اور میں ایبوپروفین بھی لے رہی ہوں، لیکن اس سے زیادہ فرق نہیں پڑ رہا۔
+[ڈاکٹر] ٹھیک ہے۔ تو ایسا لگتا ہے کہ آپ کو کچھ دن پہلے گرنے سے چوٹ لگی ہے، اور آپ کے دائیں گھٹنے کے اندر کچھ چوٹ لگی ہے۔
+[مریض] ہمم۔
+[ڈاکٹر] اور آپ نے تھوڑی برف ڈالی ہے، اوہ، کچھ برف لگائی ہے، اور اس سے کوئی خاص فرق نہیں پڑا اور کچھ ایبوپروفین۔ کیا یہ درست ہے؟
+[مریض] ہاں، بالکل۔
+[ڈاکٹر] ٹھیک ہے۔ اچھا، آئیے آپ کی طبی تاریخ پر ایک نظر ڈالیں۔ ایسا لگتا ہے، اوہ، کیا آپ کو کوئی اور طبی مسئلہ ہے؟
+[مریض] اوہ، اے فیب۔ (Atrial Fibrillation)
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ اس کے لیے کوئی دوا لے رہی ہیں؟
+[مریض] ہاں، میں لے رہی ہوں۔ ہمم، جو ڈی سے شروع ہوتی ہے۔
+[ڈاکٹر] اوہ، ڈیجیٹالیس؟ (Digoxin)
+[مریض] ہاں، وہی۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ ماضی میں کوئی سرجری ہوئی ہے؟
+[مریض] میں نے اپنی ناک کی سرجری کروائی ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ہمم، آئیے آپ کا معائنہ کریں۔ تو کیا یہ درد محسوس ہوتا ہے... ابھی زیادہ درد کہاں ہے؟
+[مریض] میرے گھٹنے کے اندرونی حصے میں۔ یہاں۔
+[ڈاکٹر] ٹھیک ہے، تو اگر میں آپ کا گھٹنا آگے کی طرف موڑوں تو کیا درد محسوس ہوتا ہے؟
+[مریض] ہاں، درد ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اگر میں اسے تھوڑا سا اس طرف موڑوں تو؟
+[مریض] بہت درد ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور یہاں نیچے؟ کیا آپ کو مجھے یہاں چھوتے ہوئے محسوس ہو رہا ہے؟
+[مریض] ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ کیا آپ کو پنڈلیوں میں کوئی اور درد ہے؟
+[مریض] نہیں.
+[ڈاکٹر] نہیں۔ ٹھیک ہے۔ تو معائنے میں، آپ کو گھٹنے کے اندرونی حصے میں، میڈیل مینیسکس کے علاقے میں کچھ درد ہے۔ اوہ، کوئی، اوہ، آپ کا گھٹنا موڑنے پر، اوہ، آپ کے پاؤں پر کچھ ویلگس اسٹریسنگ کرنے پر تھوڑا سا درد ہے۔ آپ کی حس عام ہے۔ تو آئیے آپ کی ایکس رے دیکھیں۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ہی، ڈریگن، مجھے ایکس رے دکھائیں۔ تو ایکس رے دیکھ رہے ہیں، اوہ، آپ کے بائیں گھٹنے کا، اوہ، ایسا لگتا ہے کہ ابھی کوئی فریکچر نہیں ہے۔ میں کوئی، اوہ، تھوڑی سی، اوہ، سیال دیکھ رہا ہوں، اوہ، لیکن کوئی، اوہ، کوئی فریکچر یا کوئی dislocation نہیں ہے۔ باقی سب کچھ صحیح طریقے سے لگ رہا ہے، ٹھیک ہے؟
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] تو خلاصہ یہ ہے کہ میرے معائنے کے بعد، اوہ، آپ کے گھٹنے کو دیکھ کر، اوہ، ایکس رے اور آپ کے معائنے پر، آپ کو میڈیل مینیسکس میں کچھ درد ہے، تو مجھے لگتا ہے کہ آپ کو ابھی ایک ایکوٹ میڈیل مینیسکس اسپرین یا اسٹرین ہے۔ اوہ، اس وقت، میری سفارش یہ ہوگی کہ آپ کو گھٹنے کے برےس میں رکھا جائے، اوہ، اور ہم آپ کو اگلے چند دنوں کے لیے عارضی طور پر کچھ کرچز استعمال کرنے دیں گے۔ ہم آپ کو تقریباً ایک ہفتے بعد دیکھنے کے لیے بلا لیں گے اور دیکھیں کہ آپ کیسی جا رہی ہیں، اور اگر یہ بہتر نہیں ہوتی ہے، تو ہم اس وقت ایم آر آئی کروا لیں گے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] میں تجویز کروں گا کہ ہم آپ کو موٹرین، 800 ملی گرام دیں۔ اوہ، آپ اسے تقریباً ہر چھ گھنٹے بعد، اوہ، کھانے کے ساتھ لے سکتی ہیں۔ اوہ، اور ہم آپ کو دو ہفتوں کی سپلائی دیں گے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، کیا آپ کے کوئی سوالات ہیں؟
+[مریض] نہیں، مجھے لگتا ہے کہ میں ٹھیک ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ ہی، ڈریگن، تجویز کردہ دوائیں اور طریقہ کار ترتیب دیں، اور رپورٹ کو حتمی شکل دیں۔ ٹھیک ہے، میرے ساتھ آئیں اور ہم آپ کو چیک آؤٹ کروا لیں گے۔</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>دائیں گھٹنے میں درد۔
+تاریخچہ:
+محترمہ تھامسن 43 سالہ خاتون ہیں جو آج دائیں گھٹنے کے درد کے لیے معائنے کے لیے پیش ہوئی ہیں۔ انہوں نے بیان کیا کہ وہ بلب تبدیل کرنے کے لیے سیڑھی پر کھڑی تھیں، اور جب وہ لڑکھڑا گئیں اور گرنے سے بچنے کی کوشش کی تو ان کا گھٹنا مڑ گیا۔ انہوں نے درد سے راحت کے لیے برف لگائی اور Ibuprofen استعمال کی، لیکن کوئی فائدہ نہیں ہوا۔
+موجودہ دوائیں:
+Ibuprofen، digoxin۔
+گزشتہ طبی تاریخ:
+Atrial fibrillation۔
+گزشتہ سرجری کی تاریخ:
+Rhinoplasty۔
+معائنہ:
+دائیں گھٹنے کے معائنے سے پتہ چلتا ہے کہ flexion پر درد ہے۔ medial joint line پر حساسیت۔ پنڈلی میں کوئی درد نہیں۔ valgus stress پر درد۔ حس درست ہے۔
+نتائج:
+دائیں گھٹنے کے X-rays میں کسی واضح acute fracture یا dislocation کے نشان نہیں ہیں۔ ہلکی effusion نوٹ کی گئی۔
+تاثر:
+دائیں گھٹنے میں acute medial meniscus sprain۔
+منصوبہ:
+اس وقت، میں نے مریض کے ساتھ تشخیص اور علاج کے اختیارات پر تبادلہ خیال کیا۔ میں نے گھٹنے کے لیے brace تجویز کی ہے۔ وہ Motrin 800 mg، ہر 6 گھنٹے بعد کھانے کے ساتھ، دو ہفتوں تک لیں گی۔ وہ اگلے چند دنوں تک کرچز استعمال کریں گی۔ وہ ایک ہفتے میں دوبارہ معائنے کے لیے مجھ سے ملیں گی۔ اگر اس وقت تک ان کی حالت بہتر نہیں ہوتی ہے، تو ہم MRI کرائیں گے۔ تمام سوالات کے جوابات دئیے گئے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>c_aci_055</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ACI093</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[doctor] hi jeremy how are you
+ [patient] i'm really good thank you how are you
+ [doctor] i'm okay the the medical assistant told me that you had this ulcer on your foot that's been there for a couple of weeks
+ [patient] yes
+ [doctor] going away
+ [patient] yeah it's been there gosh it's like six or so weeks right now and it's and it's on my right foot and it's just yeah it's just not going away i'm not sure if it maybe even gotten a little worse from when i first noticed it
+ [doctor] okay and how long did you say it's going on for
+ [patient] probably about
+ [doctor] six eight weeks maybe
+ [patient] okay and do you have any pain in your foot no no no pain at all okay now i know that you're a diabetic and you are on some insulin have your sugars been running okay yeah they have been running
+ [doctor] okay
+ [patient] you know on the most part they seem to be running a little higher than normal
+ [doctor] your sugars are running higher than normal okay do you recall what your last hemoglobin a1c was was it above nine
+ [patient] yes it it it definitely was higher than nine
+ [doctor] okay alright now what do you think caused this ulcer were you wearing some tight fitting shoes or did you have some trauma to your foot or
+ [patient] yeah i was you know i think initially i'm you know i was out in the backyard you know kind of you know doing some work and you know i know i you know i could've stepped on a nail or you know there was some other work but you know i'm always outside so i do n't know if that kind of led to anything or caused anything
+ [doctor] okay alright and have you had any fever or chills
+ [patient] no no no fever or chills you know i kinda you know get headaches pretty often i do n't know if that you know i do n't know if that's a stress or but you know always have like the tension headaches in the front
+ [doctor] okay and do you have do you have neuropathy where you get like numbing and tingling in your feet
+ [patient] occasionally yeah occasionally especially when it's like colder outside
+ [doctor] mm-hmm kinda feels like it takes a little longer to
+ [patient] warm up but yeah i kinda have some sensation in in all my extremities
+ [doctor] okay alright and then are you are you a smoker or did you smoke
+ [patient] i did back you know kind of years ago i did but yeah i have n't smoked anything in in good number of years
+ [doctor] okay alright when did you stop smoking
+ [patient] couple years ago maybe four or so years ago
+ [doctor] okay alright and how many packs a day would you smoke
+ [patient] gosh back then yeah was at least two
+ [doctor] okay alright how many years did you smoke for like twenty
+ [patient] yeah at least twenty yeah twenty plus years
+ [doctor] okay alright now any other symptoms do you have any problems when you walk down the street do you get any pain in your calves at all when you walk
+ [patient] no no no no pain you know just kind of you know it's just i know that it's there
+ [doctor] okay and you said you're active you're out in the yard and things like that do you go on long walks at all or no
+ [patient] no no you know it's you know i just kinda feel like i've been just trying to take it easy lately
+ [doctor] mm-hmm
+ [patient] but yeah most most of the stuff i've been doing is just kind of hanging around the house
+ [doctor] okay alright so we talked a little bit about your diabetes let's talk about your heart disease now your heart disease you had a heart attack in twenty eighteen we put a stent into your right coronary artery you're still taking your medications for that you're still on your aspirin
+ [patient] i am yes yeah i do the baby aspirin every day
+ [doctor] okay alright and any chest pain or shortness of breath or anything like that no no yeah no nothing more than yeah i would n't attribute anything
+ [patient] okay and do you have a podiatrist for your yearly foot exams
+ [doctor] no i i i do n't okay alright alright well let's go ahead i wan na just do a quick physical exam i'm just gon na be calling out some of my exam findings so your vital signs here in the office you do n't have any fever so that's good your blood pressure is great it's like one twenty seven over eighty and your heart rate is nice and slow in the sixties on your neck exam i do n't appreciate any jugular venous distention or any carotid bruits on your lung exam your lungs are clear to auscultation bilaterally on your heart exam you do have a two out of six systolic ejection murmur heard at the left base and on your lower extremity exam i do n't appreciate any palpable dorsalis pedis or posterior tibial pulses there is a two by three centimeter ulcerated lesion on the right lateral foot near the fifth metacarpal metatarsophalangeal joint there is no associated cellulitis does it hurt when i press here
+ [patient] no
+ [doctor] there is no pain to palpation of the right foot there is associated granulation tissue and some slight purulent discharge from the wound okay so what does all that mean that just means that you have this ulcer that's you know fairly sizable with i think we need to do some good wound care on it let's talk a little bit about my assessment and plan so you know i you have a nonhealing ulcer of your right foot so we need to do some studies on you to see if you have an adequate blood supply to heal this foot wound and since you since you probably do n't because of your diabetes you're here in a vascular surgeon's office we may have to go ahead and talk about being able to open up some of your arteries to improve the blood supply to your foot so that might mean getting a stent to one of your arteries in your legs to open up the blood supply it might mean mean that we might have to do some bypass surgery to to improve the blood supply to your foot in order to heal that that wound i do think that you'll be able to heal it i do n't think that we need to do anything drastic i want you to continue with your aspirin because that will help
+ [patient] any questions
+ [doctor] yeah i mean is this do we have to do any more tests or anything what are you we're gon na do an arterial ultrasound i'm going to go ahead and order an arterial ultrasound of your lower extremities to see what the blood supply is like and then i'm gon na go ahead and order a podiatry consult because i want them to see this wound and improve the wound care that you're doing and then for your next problem your diabetes i wan na go ahead and talk to your primary care physician we need to get your diabetes better controlled because that impacts your wound healing as well okay
+ [patient] sure
+ [doctor] sure understood alright and for your last issue your coronary artery disease continue with your statin and i will talk to your cardiologist in case you need a procedure to see if you're cleared from a medical standpoint okay
+ [patient] okay perfect
+ [doctor] alright
+ [patient] perfect thank you so much
+ [doctor] okay bye</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Right foot ulcer.
+ HISTORY OF PRESENT ILLNESS
+ Jeremy Roberts is a 79-year-old male who presents today for evaluation of a right foot ulcer. He reports an ulcer on his right foot has been present for approximately 6 to 8 weeks. He first noticed the ulcer after working outside. There is no associated pain, however, he feels the ulcer may have worsened from when he first noticed it. He denies experiencing any fevers or chills. He does however experience tension headaches quite frequently. He denies any pain in his calves when he walks. At this time the patient does not have a podiatrist for yearly foot exams.
+ He is a diabetic and takes insulin. His blood sugar has been running higher than normal and his last hemoglobin A1c was higher than 9. Occasionally he will also experience numbness and tingling in his feet, especially with colder weather.
+ In terms of his heart disease, the patient sustained a heart attack in 2018 and underwent stent placement at the right coronary artery. He is currently taking aspirin 81 mg daily. He denies chest pain or shortness of breath.
+ MEDICAL HISTORY
+ Patient reports history of diabetes and heart disease. He sustained a heart attack in 2018.
+ SURGICAL HISTORY
+ Patient reports undergoing stent placement at the right coronary artery.
+ SOCIAL HISTORY
+ Patient reports he is a former smoker. He previously smoked 2 packs a day for 20 years and was able to stop smoking approximately 4 years ago. Currently he is not very active but he does work around the house.
+ MEDICATIONS
+ Patient reports taking aspirin 81 mg daily and insulin.
+ REVIEW OF SYSTEMS
+ Constitutional: Denies fevers and chills.
+ Cardiovascular: Denies chest pain.
+ Respiratory: Denies dyspnea.
+ Skin: Patient reports right foot ulcer.
+ Neurological: Patient reports headaches and numbness and tingling in feet.
+ VITALS
+ No fever.
+ Blood pressure: 127/80
+ Heart rate: 60s
+ PHYSICAL EXAM
+ CV: 2/6 systolic ejection murmur heard at the left base.
+ RESPIRATORY: Clear to auscultation bilaterally
+ NECK: No jugular venous distention or carotid bruits
+ MSK: Examination of the right lower extremity: No palpable dorsalis pedis or posterior tibial pulses. There is a 2 x 3 cm ulcerated lesion on the right lateral foot near the 5th metacarpal metatarsophalangeal joint. No associated cellulitis. No pain to palpation of the right foot. There is associated granulation tissue and some slight purulent discharge from the wound.
+ ASSESSMENT
+ 1. Non-healing ulcer, right foot
+ 2. Diabetes
+ 3. Coronary artery disease
+ PLAN
+ After reviewing the patient's examination findings today, I have had a lengthy discussion with the patient in regards to his current symptoms. We discussed that his right foot ulcer is fairly sizable and will require wound care. I advised him that the ulcer does not appear to be healing and that further studies will be needed to assess if he has adequate blood supply to heal his foot wound. He was advised that due to his diabetes it is possible surgical intervention such as stent placement or bypass surgery may be required to improve his blood supply. I also advised him that I believe we will be able to heal his wound. At this time, I have recommended continued wound care and for him to also continue taking aspirin 81 mg daily. We will order an arterial ultrasound of the lower extremities. He will also be referred to podiatry for a consult.
+ Regarding his diabetes, this appears to be unstable as the patient reports his last hemoglobin a1c was greater than 9 and is now experiencing a non-healing right foot ulcer. We discussed the importance of blood sugar control as this will impact his wound healing. At this time, I have recommended that he follow-up with his primary care physician for further care.
+ The patient's coronary artery disease is currently stable. It is recommended that he continue to take his statin as prescribed. I will contact his cardiologist for medical clearance should surgical intervention be required for his non-healing right foot ulcer.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>train_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی جیرمی، آپ کیسے ہیں؟
+[مریض] میں بہت اچھا ہوں، شکریہ۔ آپ کیسے ہیں؟
+[ڈاکٹر] میں ٹھیک ہوں۔ میڈیکل اسسٹنٹ نے مجھے بتایا کہ آپ کے پاؤں پر ایک السر ہے جو کہ کچھ ہفتوں سے موجود ہے۔
+[مریض] جی ہاں۔
+[ڈاکٹر] کیا یہ ٹھیک ہو رہا ہے؟
+[مریض] جی ہاں، یہ تقریباً چھ ہفتے ہو گئے ہیں اور یہ میرے دائیں پاؤں پر ہے اور یہ... جی ہاں، یہ ٹھیک نہیں ہو رہا۔ مجھے لگتا ہے کہ یہ پہلے سے تھوڑا سا بدتر ہو گیا ہے۔
+[ڈاکٹر] ٹھیک ہے، اور آپ نے کہا کہ یہ کتنے عرصے سے ہے؟
+[مریض] شاید تقریباً...
+[ڈاکٹر] چھ، آٹھ ہفتے شاید؟
+[مریض] ٹھیک ہے۔ اور کیا آپ کے پاؤں میں کوئی درد ہے؟ نہیں۔ بالکل نہیں۔ ٹھیک ہے۔ مجھے معلوم ہے کہ آپ کو ذیابیطس ہے اور آپ کچھ انسولین لے رہے ہیں۔ کیا آپ کی شوگر لیول ٹھیک چل رہی ہے؟
+[مریض] جی ہاں، وہ چل رہی ہیں۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] زیادہ تر، وہ عام سے تھوڑی زیادہ لگ رہی ہیں۔
+[ڈاکٹر] آپ کی شوگر عام سے زیادہ چل رہی ہے۔ ٹھیک ہے۔ کیا آپ کو یاد ہے کہ آپ کا آخری ہیموگلوبن A1C کیا تھا؟ کیا یہ نو سے زیادہ تھا؟
+[مریض] جی ہاں، یہ یقینی طور پر نو سے زیادہ تھا۔
+[ڈاکٹر] ٹھیک ہے۔ اب، آپ کے خیال میں اس السر کی وجہ کیا ہوئی؟ کیا آپ تنگ جوتے پہن رہے تھے یا آپ کے پاؤں کو کوئی چوٹ لگی تھی؟
+[مریض] جی ہاں، میں آپ کو بتاؤں، مجھے لگتا ہے کہ شروع میں، میں آپ کے گھر کے پیچھے کام کر رہا تھا اور مجھے معلوم ہے کہ میں شاید کسی کیل پر قدم رکھ سکتا ہوں یا وہاں کچھ اور کام ہو سکتا ہے، لیکن میں ہمیشہ باہر رہتا ہوں، اس لیے مجھے نہیں معلوم کہ آیا اس سے کوئی چیز ہوئی یا نہیں۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ کو بخار یا ٹھنڈ لگ رہی ہے؟
+[مریض] نہیں۔ بالکل نہیں۔ مجھے اکثر سر درد ہوتا ہے، لیکن مجھے نہیں معلوم کہ یہ تناؤ کی وجہ سے ہے یا نہیں۔ مجھے ہمیشہ سامنے کے حصے میں دباؤ والا سر درد رہتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ کو نیوروپیتھی ہے، جہاں آپ کے پاؤں میں سن ہونے اور جھنجھناہٹ ہوتی ہے؟
+[مریض] کبھی کبھار، ہاں، خاص طور پر جب باہر زیادہ سردی ہوتی ہے۔
+[ڈاکٹر] ہممم۔ ایسا لگتا ہے کہ اسے گرم ہونے میں تھوڑا زیادہ وقت لگتا ہے۔ لیکن ہاں، میرے تمام اعضاء میں کچھ احساس ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ سگریٹ نوشی کرتے ہیں یا سگریٹ نوشی چھوڑ چکے ہیں؟
+[مریض] میں نے کچھ سال پہلے چھوڑ دی تھی۔ لیکن ہاں، میں نے کئی سالوں سے کچھ بھی نہیں نوشی کی ہے۔
+[ڈاکٹر] ٹھیک ہے۔ آپ نے سگریٹ نوشی کب چھوڑ دی؟
+[مریض] شاید دو یا تین سال پہلے۔
+[ڈاکٹر] ٹھیک ہے۔ آپ ایک دن میں کتنے پیکٹ سگریٹ نوشی کرتے تھے؟
+[مریض] اوہ، اس وقت کم سے کم دو۔
+[ڈاکٹر] ٹھیک ہے۔ آپ کتنے سالوں سے سگریٹ نوشی کرتے تھے؟ تقریباً بیس سال؟
+[مریض] جی ہاں، کم سے کم بیس سال، ہاں بیس سال سے زیادہ۔
+[ڈاکٹر] ٹھیک ہے۔ اب، کوئی اور علامات ہیں؟ کیا آپ کو سڑک پر چلتے ہوئے کوئی مسئلہ ہے؟ کیا آپ کو چلتے وقت اپنی پنڈلیوں میں کوئی درد ہوتا ہے؟
+[مریض] نہیں۔ بالکل نہیں۔ مجھے صرف یہ معلوم ہے کہ یہ موجود ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور آپ نے کہا کہ آپ سرگرم ہیں، آپ گھر کے پیچھے کام کر رہے ہیں، کیا آپ لمبے لمبے چکر لگاتے ہیں؟
+[مریض] نہیں۔ بالکل نہیں۔ میں صرف آرام کرنے کی کوشش کر رہا ہوں۔
+[ڈاکٹر] ہممم۔
+[مریض] لیکن ہاں، میں زیادہ تر گھر میں ہی وقت گزار رہا ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ تو ہم نے آپ کی ذیابیطس کے بارے میں تھوڑی بات کی، اب آپ کے دل کی بیماری کے بارے میں بات کرتے ہیں۔ آپ کو 2018 میں ہارٹ اٹیک آیا تھا، ہم نے آپ کی دائیں کورونری آرٹری میں سٹنٹ ڈالا تھا۔ آپ اب بھی اس کی دوائیں لے رہے ہیں، آپ اب بھی اپنی اسپرین لے رہے ہیں۔
+[مریض] جی ہاں، میں روزانہ بیبی اسپرین لیتا ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ کو سینے میں درد یا سانس لینے میں کوئی مشکل ہو رہی ہے؟ نہیں۔ بالکل نہیں۔
+[مریض] ٹھیک ہے۔ اور کیا آپ اپنے سالانہ پاؤں کے معائنات کے لیے کسی پوڈیاٹرسٹ کے پاس جاتے ہیں؟
+[ڈاکٹر] نہیں۔ میں نہیں جاتا۔ ٹھیک ہے۔ ٹھیک ہے، تو چلیں، میں ایک فوری جسمانی معائنہ کرنا چاہتا ہوں۔ میں اپنے معائنہ کے نتائج بتاتا رہوں گا۔ آپ کے وائٹل سائنز یہاں دفتر میں، آپ کو کوئی بخار نہیں ہے، یہ اچھی بات ہے۔ آپ کا بلڈ پریشر بہت اچھا ہے، یہ 127/80 ہے، اور آپ کی دل کی دھڑکن 60 کی دہائی میں اچھی اور سست ہے۔ آپ کی گردن کے معائنے میں، مجھے جگر وینس ڈسٹینشن یا کیروٹڈ برویٹس نظر نہیں آرہی ہیں۔ آپ کے پھیپھڑوں کے معائنے میں، آپ کے پھیپھڑے دونوں طرف سننے پر صاف ہیں۔ آپ کے دل کے معائنے میں، آپ کو بائیں جانب دو میں سے چھ سسٹولک ایجیکشن مرمر سنائی دے رہا ہے۔ آپ کے نچلے اعضاء کے معائنے میں، مجھے ڈورسلس پیڈس یا پوسٹیریئر ٹیبیئل نبض محسوس نہیں ہو رہی ہے۔ دائیں پاؤں کے بیرونی حصے پر، پانچویں میٹا کارپل میٹاٹارسوفلانجیل جوائنٹ کے قریب دو سینٹی میٹر کا السر ہے۔ اس کے ساتھ سیلولائٹس نہیں ہے۔ کیا جب میں یہاں دباتا ہوں تو درد ہوتا ہے؟
+[مریض] نہیں۔
+[ڈاکٹر] دائیں پاؤں کو چھونے پر کوئی درد نہیں ہے۔ زخم سے گرینولیشن ٹشو اور تھوڑا سا پیورولینٹ ڈسچارج ہے۔ ٹھیک ہے، اس کا کیا مطلب ہے؟ اس کا مطلب ہے کہ آپ کو یہ السر ہے جو کہ کافی بڑا ہے اور مجھے لگتا ہے کہ ہمیں اس کی اچھی زخم کی دیکھ بھال کرنے کی ضرورت ہے۔ آئیے میرے تشخیص اور منصوبہ کے بارے میں تھوڑی بات کرتے ہیں۔ آپ کو آپ کے دائیں پاؤں کا ایک ایسا السر ہے جو ٹھیک نہیں ہو رہا ہے، اس لیے ہمیں کچھ مطالعات کرنے کی ضرورت ہے تاکہ یہ دیکھا جا سکے کہ اس پاؤں کے زخم کو ٹھیک کرنے کے لیے آپ کے پاس کافی خون کی سپلائی ہے یا نہیں۔ اور چونکہ آپ کو ذیابیطس ہے، آپ ایک عروقی سرجن کے دفتر میں ہیں، ہمیں آپ کی شریانوں کو کھولنے کے بارے میں بات کرنے کی ضرورت ہو سکتی ہے تاکہ آپ کے پاؤں میں خون کی سپلائی بہتر ہو سکے۔ اس کا مطلب یہ ہو سکتا ہے کہ آپ کی ٹانگوں میں سے کسی ایک شریان میں سٹنٹ لگایا جائے تاکہ خون کی سپلائی کھل سکے۔ اس کا مطلب یہ بھی ہو سکتا ہے کہ ہمیں آپ کے پاؤں میں خون کی سپلائی کو بہتر بنانے کے لیے بائی پاس سرجری کرنی پڑے۔ مجھے لگتا ہے کہ آپ اس کو ٹھیک کر سکتے ہیں۔ مجھے نہیں لگتا کہ ہمیں کوئی سخت قدم اٹھانے کی ضرورت ہے۔ میں چاہتا ہوں کہ آپ اپنی اسپرین جاری رکھیں کیونکہ یہ مددگار ثابت ہوگی۔
+[مریض] کیا کوئی سوال ہے؟
+[ڈاکٹر] جی ہاں، کیا ہمیں مزید کوئی ٹیسٹ کروانے کی ضرورت ہے؟ ہم کیا کرنے والے ہیں؟
+[ڈاکٹر] ہم ایک آرٹیریل الٹراساؤنڈ کریں گے۔ میں آپ کے نچلے اعضاء کا آرٹیریل الٹراساؤنڈ کرنے کا حکم دوں گا تاکہ یہ دیکھا جا سکے کہ خون کی سپلائی کیسی ہے۔ اور پھر میں پوڈیاٹری کنسلٹیشن کا آرڈر دوں گا کیونکہ میں چاہتا ہوں کہ وہ اس زخم کو دیکھیں اور آپ کی زخم کی دیکھ بھال کو بہتر بنائیں۔ اور آپ کی ذیابیطس کے لیے، میں آپ کے پرائمری کیئر فزیشن سے بات کرنا چاہتا ہوں، ہمیں آپ کی ذیابیطس کو بہتر کنٹرول کرنے کی ضرورت ہے کیونکہ یہ آپ کے زخم کی بحالی کو بھی متاثر کرتا ہے۔ ٹھیک ہے؟
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ سمجھ گئے؟ اور آپ کے آخری مسئلے، آپ کی کورونری آرٹری کی بیماری کے لیے، اپنی اسٹٹین جاری رکھیں اور میں آپ کے کارڈولوجسٹ سے بات کروں گا تاکہ یہ دیکھا جا سکے کہ آیا آپ کو کسی طریقہ کار کی ضرورت ہے اور یہ دیکھا جا سکے کہ آپ طبی طور پر کلیئر ہیں۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] بہت شکریہ۔
+[ڈاکٹر] ٹھیک ہے۔ الوداع۔</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+دائیں پاؤں کا السر۔
+عارضی مرض کی تاریخ
+جیرمی رابرٹس 79 سالہ مرد ہیں جو آج دائیں پاؤں کے السر کے جائزے کے لیے حاضر ہوئے۔ انہوں نے بتایا کہ ان کے دائیں پاؤں پر تقریباً 6 سے 8 ہفتوں سے السر موجود ہے۔ انہوں نے پہلی بار یہ السر باہر کام کرنے کے بعد دیکھا۔ اس کے ساتھ کوئی درد نہیں ہے، تاہم، انہیں لگتا ہے کہ یہ السر پہلے دیکھنے کے وقت کے مقابلے میں بڑھ گیا ہے۔ انہوں نے بخار یا ٹھنڈک محسوس کرنے سے انکار کیا ہے۔ تاہم، انہیں اکثر کشیدگی کے سر درد ہوتے رہتے ہیں۔ انہوں نے چلتے وقت اپنے پنڈلیوں میں کسی قسم کا درد محسوس کرنے سے انکار کیا۔ اس وقت مریض کو سالانہ پاؤں کے معائنے کے لیے کوئی پوڈیاٹرسٹ نہیں ہے۔
+وہ ذیابیطس کے مریض ہیں اور انسولین لیتے ہیں۔ ان کا بلڈ شوگر معمول سے زیادہ چل رہا ہے اور ان کا آخری ہیموگلوبن A1c 9 سے زیادہ تھا۔ کبھی کبھار انہیں اپنے پاؤں میں سن numbness اور tingling بھی محسوس ہوتی ہے، خاص طور پر سرد موسم میں۔
+ان کے دل کی بیماری کے حوالے سے، مریض کو 2018 میں ہارٹ اٹیک آیا تھا اور دائیں کورونری آرٹری میں سٹنٹ لگایا گیا تھا۔ وہ فی الحال روزانہ 81 ملی گرام ایسپرین لے رہے ہیں۔ انہوں نے سینے میں درد یا سانس کی قلت سے انکار کیا۔
+طبی تاریخ
+مریض ذیابیطس اور دل کی بیماری کی تاریخ بیان کرتا ہے۔ انہیں 2018 میں ہارٹ اٹیک آیا تھا۔
+جراحی کی تاریخ
+مریض نے بتایا کہ دائیں کورونری آرٹری میں سٹنٹ لگایا گیا تھا۔
+سماجی تاریخ
+مریض نے بتایا کہ وہ سابق سگریٹ نوش ہیں۔ انہوں نے پہلے 20 سال تک دن میں 2 پیک سگریٹ پی اور تقریباً 4 سال پہلے سگریٹ نوشی چھوڑ دی تھی۔ فی الحال وہ زیادہ فعال نہیں ہیں لیکن وہ گھر کے آس پاس کام کرتے ہیں۔
+دوائیاں
+مریض نے بتایا کہ وہ روزانہ 81 ملی گرام ایسپرین اور انسولین لے رہے ہیں۔
+جسمانی جائزہ
+Constitutional: بخار اور ٹھنڈک سے انکار۔
+Cardiovascular: بائیں بیس پر 2/6 systolic ejection murmur سنا گیا۔
+Respiratory: دونوں طرف سے سننے پر صاف۔
+Neck: کوئی jugular venous distention یا carotid bruits نہیں۔
+MSK: دائیں زیریں عضو کا معائنہ: dorsalis pedis یا posterior tibial pulses محسوس نہیں ہو رہے۔ دائیں پاؤں کے بیرونی حصے پر 5th metacarpal metatarsophalangeal joint کے قریب 2 x 3 سینٹی میٹر کا السر ہے۔ کوئی cellulitis نہیں ہے۔ دائیں پاؤں کو چھونے پر کوئی درد نہیں۔ زخم سے granulation tissue اور کچھ ہلکا purulent discharge ہے۔
+تشخیص
+1. غیر صحتمند السر، دائیں پاؤں
+2. ذیابیطس
+3. کورونری آرٹری بیماری
+علاج کی منصوبہ بندی
+آج مریض کے معائنہ کے نتائج کا جائزہ لینے کے بعد، میں نے اس کے حالیہ علامات کے حوالے سے مریض کے ساتھ لمبی گفتگو کی ہے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ ان کا دائیں پاؤں کا السر کافی بڑا ہے اور اسے زخم کی دیکھ بھال کی ضرورت ہوگی۔ میں نے انہیں مشورہ دیا کہ السر ٹھیک نہیں ہو رہا ہے اور اس بات کا جائزہ لینے کے لیے مزید مطالعات کی ضرورت ہوگی کہ آیا ان کے پاؤں کے زخم کو ٹھیک کرنے کے لیے ان کے پاس کافی خون کی سپلائی ہے یا نہیں۔ انہیں مشورہ دیا گیا کہ ان کے ذیابیطس کی وجہ سے، خون کی سپلائی کو بہتر بنانے کے لیے سٹنٹ لگانے یا بائی پاس سرجری جیسی جراحی کی مداخلت کی ضرورت پڑ سکتی ہے۔ میں نے یہ بھی مشورہ دیا کہ مجھے یقین ہے کہ ہم ان کے زخم کو ٹھیک کر سکتے ہیں۔ اس وقت، میں نے زخم کی دیکھ بھال جاری رکھنے اور روزانہ 81 ملی گرام ایسپرین لینا جاری رکھنے کی سفارش کی ہے۔ ہم زیریں اعضاء کا آرٹیریل الٹراساؤنڈ آرڈر کریں گے۔ انہیں مشاورت کے لیے پوڈیاٹری کو بھی ریفر کیا جائے گا۔
+ان کے ذیابیطس کے حوالے سے، یہ غیر مستحکم لگتا ہے کیونکہ مریض نے بتایا کہ ان کا آخری ہیموگلوبن a1c 9 سے زیادہ تھا اور اب وہ دائیں پاؤں کا غیر صحتمند السر کا سامنا کر رہے ہیں۔ ہم نے خون کے شوگر کو کنٹرول کرنے کی اہمیت پر تبادلہ خیال</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>c_aci_056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ACI092</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[doctor] hey matthew how're you doing
+ [patient] hey doc i'm doing pretty good how are you
+ [doctor] i'm doing pretty good hey i see here in the nurse's notes it looks like you hurt your left ankle can you tell me a little bit more about that
+ [patient] yeah i did my wife and i were on a walk yesterday and i was just talking to her and and stepped off the curb and landed on it wrong it's kind of embarrassing but yeah it's been killing me for a couple days now
+ [doctor] okay now when you fell did you feel or hear a pop or anything like that
+ [patient] i would n't say i really heard a pop it was just kind of really kind of felt extended and stretched and it it's just been really bothering me ever since kind of on the outside of it
+ [doctor] okay and then were you able to walk on it after the incident
+ [patient] i was able to get back to the house because i did n't wan na you know make my wife carry me but it was it was painful
+ [doctor] okay and then have you done any or had any injuries to that ankle before
+ [patient] nothing substantial that i would say in the past
+ [doctor] okay and then what have you been doing for that left ankle since then have you done anything to help make it make the pain less
+ [patient] i have taken some ibuprofen and then i just tried to elevate it and ice it a little bit and keep my weight off of it
+ [doctor] okay so let's talk real quick about your pain level zero being none ten being the worst pain you've been in in your life without any medication on board can you rate your pain for me
+ [patient] i would say it's about an eight
+ [doctor] okay and then when you do take that ibuprofen or tylenol what what's your relief level what's your pain look like then
+ [patient] maybe a seven it it's a little
+ [doctor] okay now you mentioned going for a walk my wife and i've been on on back behind the new rex center where the new trails are have you guys been back there
+ [patient] we have n't yet but i'm sure we'll check it out ever since i feel like working at home during covid we we we take walks all the time
+ [doctor] yeah i
+ [patient] no i have n't been there yet
+ [doctor] yeah those those trails are great there's like five miles of regular flat trails and then there's a bunch of hiking trails that they've opened up as well it's a really great place man you guys need to get out there we'll get you fixed up and we'll get you back out there okay
+ [patient] awesome
+ [doctor] so let's let's talk a little bit about my physical exam if it's okay with you i'm gon na do a quick physical exam on you your vitals look stable by the way a little elevated i know you're in pain on a focused exam of your left ankle now i do appreciate that there is ecchymosis or bruising over the lateral malleolus and there is some swelling i do i do appreciate some edema now you are positive for tenderness to palpation on the lateral side and the the soft tissue is swollen here the good news is i do not appreciate any laxity in the joint okay and i do n't feel any any type of bony tenderness to palpation of your foot now on the neurovascular exam of your left foot capillary refill is brisk less than three seconds and i do appreciate strong dorsalis pedis pulses and you do have motor and sensation intact which is good now it's important that they were compared bilaterally and they are yeah your your exam is the same bilaterally so that that's an important thing now we did do an x-ray of that left ankle when you came in so i'm gon na review those x-ray results with you now the good news is i do not appreciate a fracture or any bony abnormalities so that's a good thing right so let me talk to you a little bit about my assessment and plan so for your first problem of your left ankle pain your symptoms are consistent with an ankle sprain of the lateral ligament complex and the ligament on the outside of your ankle is what got stretched when you fell now the best treatment for this sprain is what you've kind of already been doing doing the elevation and compression and ice so we're gon na continue the rice protocol and i am gon na go ahead and give you an air cast just to stabilize that ankle i'm gon na prescribe you some crutches i want you to stay off that leg but i do want you to start walking as tolerated but it may be a few days before you feel like doing that now your symptoms are going to get better significantly over the first you know four five six seven days but i am gon na wan na follow up with you just to make sure you're doing okay so what i do is i would like to see you in two weeks and i'm gon na have you continue taking those nsaids as well to help reduce that pain and swelling any other questions comments or concerns before i have the nurse come in and get you fixed up
+ [patient] no i think that sounds like a plan
+ [doctor] okay sounds good like i said i will see you in two weeks if you have any questions or if you have a lot of pain come back in we'll reevaluate otherwise i think you're headed in the right direction and i'll see you again in two weeks
+ [patient] awesome thanks document
+ [doctor] alright thanks bye-bye</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Left ankle pain.
+ HISTORY OF PRESENT ILLNESS
+ Matthew Murphy is a pleasant 20-year-old male who presents to the clinic today for the evaluation of left ankle pain. The onset of his pain began 2 days ago, when he stepped off of a curb and landed on his left ankle wrong. He denies hearing a pop at the time of the injury, however, he describes his ankle as feeling extended and stretched. He was able to ambulate back to his house after the incident but with pain. He denies any previous injuries to his left ankle. His pain is localized to the lateral aspect of his left ankle and can be rated at 8 out of 10 without medication. When taking ibuprofen his pain level is 7 out of 10. He states he has also iced and elevated his ankle.
+ SOCIAL HISTORY
+ Patient reports that he has been working from home since the start of COVID-19 and enjoys taking lots of walks.
+ MEDICATIONS
+ Patient reports taking ibuprofen.
+ REVIEW OF SYSTEMS
+ Musculoskeletal: Patient reports left ankle pain.
+ VITALS
+ Vitals are slightly elevated due to pain level but are otherwise stable.
+ PHYSICAL EXAM
+ NEURO: Normal strength and sensation bilaterally.
+ MSK: Examination of the left ankle: Ecchymosis noted over the lateral malleolus. Edema is present. Tenderness to palpation laterally. No joint laxity appreciated. No bony tenderness to palpation of the foot. Capillary refill is brisk at less than 3 seconds bilaterally. Strong dorsalis pedis pulses bilaterally.
+ RESULTS
+ These reveal no fracture or bony abnormalities.
+ ASSESSMENT
+ Left ankle sprain of the lateral ligament complex.
+ PLAN
+ After reviewing the patient's examination and radiographic findings today, I have had a lengthy discussion with the patient in regards to his current symptoms. We discussed that his symptoms are consistent with an ankle sprain of the lateral ligament complex. The nature of the diagnosis and treatment options were discussed. At this time he will continue to follow the RICE protocol. He will continue to take NSAIDs as needed for pain and swelling. He will also be placed into an Aircast for ankle stabilization and will be provided crutches in order to remain non-weight-bearing. We discussed that it may be a few days before he feels able to tolerate walking. I also advised him that his symptoms will likely start to improve significantly over the next 4 to 6 days.
+ INSTRUCTIONS
+ The patient will follow up with me in 2 weeks to assess his progress, sooner if needed.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>train_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی میتھیو، کیسا محسوس کر رہے ہو؟
+[مریض] ہی ڈاک، میں کافی بہتر محسوس کر رہا ہوں، آپ کیسے ہیں؟
+[ڈاکٹر] میں بھی کافی بہتر ہوں۔ دیکھ رہا ہوں کہ نرس کے نوٹس میں لکھا ہے کہ آپ نے اپنے بائیں ٹخنے کو چوٹ پہنچائی ہے۔ کیا آپ مجھے اس کے بارے میں مزید بتا سکتے ہیں؟
+[مریض] جی ہاں، میں نے۔ میری بیوی اور میں کل سیر کے لیے گئے تھے، اور میں اس سے بات کر رہا تھا، اور اچانک میں سڑک سے اتر گیا اور غلط طریقے سے اُتر کر ٹخنے پر گرا۔ یہ شرم کی بات ہے، لیکن ہاں، مجھے گزشتہ دو دنوں سے بہت درد ہو رہا ہے۔
+[ڈاکٹر] ٹھیک ہے، جب آپ گرے تو کیا آپ نے کوئی آواز سنی یا محسوس کی کہ کوئی چیز چٹکی کی طرح بجی؟
+[مریض] میں نہیں کہوں گا کہ میں نے کوئی آواز سنی، لیکن ایسا لگا کہ یہ بہت زیادہ پھیل گیا اور کھنچ گیا، اور تب سے یہ میرے لیے پریشانی کا باعث بنا ہوا ہے، خاص طور پر اس کے بیرونی حصے میں۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ واقعے کے بعد اس پر چل سکے؟
+[مریض] میں گھر واپس آ سکا کیونکہ میں نہیں چاہتا تھا کہ میری بیوی مجھے اٹھائے، لیکن یہ دردناک تھا۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ نے پہلے کبھی اس ٹخنے کو کوئی چوٹ پہنچائی ہے؟
+[مریض] ماضی میں کوئی خاص چوٹ نہیں آئی۔
+[ڈاکٹر] ٹھیک ہے، اور اس کے بعد سے آپ اس بائیں ٹخنے کے لیے کیا کر رہے ہیں؟ کیا آپ نے درد کو کم کرنے کے لیے کچھ کیا ہے؟
+[مریض] میں نے کچھ آئبوپروفین لی ہے، اور میں نے اسے اونچا رکھنے اور اس پر برف لگانے کی کوشش کی ہے، اور اس پر وزن ڈالنے سے بچ رہا ہوں۔
+[ڈاکٹر] ٹھیک ہے، تو آئیے آپ کے درد کی سطح کے بارے میں جلدی سے بات کرتے ہیں۔ صفر کا مطلب ہے کوئی درد نہیں، اور دس کا مطلب ہے زندگی بھر کا بدترین درد، بغیر کسی دوا کے۔ کیا آپ اپنے درد کی سطح بتا سکتے ہیں؟
+[مریض] میں کہوں گا کہ یہ تقریباً آٹھ ہے۔
+[ڈاکٹر] ٹھیک ہے، اور جب آپ وہ آئبوپروفین یا ٹائلینول لیتے ہیں تو آپ کو کتنی راحت ملتی ہے؟ تب آپ کا درد کیسا ہوتا ہے؟
+[مریض] شاید سات، یہ تھوڑا سا ہے۔
+[ڈاکٹر] ٹھیک ہے، اب آپ نے سیر پر جانے کا ذکر کیا، میری بیوی اور میں نئے ریکس سینٹر کے پیچھے سیر کرتے ہیں جہاں نئے راستے ہیں۔ کیا آپ لوگ وہاں گئے ہیں؟
+[مریض] ابھی تک نہیں، لیکن مجھے یقین ہے کہ ہم ضرور جائیں گے، کیونکہ کووڈ کے دوران گھر پر کام کرنے کے بعد سے ہم ہمیشہ سیر کرتے رہتے ہیں۔
+[ڈاکٹر] ہاں میں…
+[مریض] نہیں، میں ابھی تک وہاں نہیں گیا ہوں۔
+[ڈاکٹر] ہاں، وہ راستے بہت اچھے ہیں، تقریباً پانچ میل کے ہموار راستے ہیں، اور پھر انہوں نے بہت سارے ہائیکنگ ٹریلز بھی کھول دیے ہیں۔ یہ ایک بہت اچھی جگہ ہے، آپ لوگوں کو وہاں جانا چاہیے۔ ہم آپ کو ٹھیک کر دیں گے اور آپ کو وہاں واپس لے جائیں گے۔ ٹھیک ہے؟
+[مریض] زبردست۔
+[ڈاکٹر] تو آئیے میرے جسمانی معائنے کے بارے میں تھوڑی بات کرتے ہیں۔ اگر آپ کو کوئی اعتراض نہیں ہے تو میں آپ کا ایک مختصر جسمانی معائنہ کروں گا۔ آپ کے وائٹلز مستحکم ہیں، لیکن میں جانتا ہوں کہ آپ درد میں ہیں۔ آپ کے بائیں ٹخنے کے ایک مخصوص معائنے میں، مجھے بیرونی malleolus پر ecchymosis یا کبودہ نظر آرہا ہے، اور کچھ سوجن بھی ہے۔ مجھے edema بھی نظر آرہا ہے۔ آپ کو بیرونی جانب palpation پر tenderness ہے، اور یہاں نرم بافت سوج گئی ہے۔ اچھی خبر یہ ہے کہ مجھے جوڑ میں کوئی laxity محسوس نہیں ہو رہی ہے۔ اور مجھے آپ کے پاؤں کی ہڈیوں کی palpation پر کوئی قسم کی tenderness محسوس نہیں ہو رہی ہے۔ اب آپ کے بائیں پاؤں کے neurovascular معائنے میں، capillary refill تیز ہے، تین سیکنڈ سے کم، اور مجھے dorsalis pedis pulses مضبوط محسوس ہو رہی ہیں، اور آپ کے motor اور sensation بھی درست ہیں، جو کہ اچھی بات ہے۔ اب یہ ضروری ہے کہ ان کی دوطرفہ طور پر तुलना کی گئی اور وہ درست ہیں۔ آپ کا معائنہ دونوں طرف سے ایک جیسا ہے۔ یہ ایک اہم بات ہے۔ اب، جب آپ آئے تھے تو ہم نے آپ کے بائیں ٹخنے کا ایک x-ray بھی کیا تھا، تو میں ان x-ray کے نتائج کا جائزہ لوں گا۔ اچھی خبر یہ ہے کہ مجھے کوئی فریکچر یا کوئی ہڈی کی غیر معمولی چیز نظر نہیں آرہی ہے، جو کہ اچھی بات ہے۔ تو آئیے آپ سے میرے assessment اور plan کے بارے میں تھوڑی بات کرتے ہیں۔ آپ کی پہلی پریشانی، آپ کے بائیں ٹخنے کا درد، آپ کے علامات lateral ligament complex کے sprain کے مطابق ہیں، اور آپ کے ٹخنے کے باہر کی ligament وہ ہے جو آپ کے گرنے پر کھنچ گئی تھی۔ اس sprain کا بہترین علاج وہی ہے جو آپ پہلے سے کر رہے ہیں، یعنی elevation اور compression اور ice لگانا۔ تو ہم rice protocol جاری رکھیں گے، اور میں آپ کو ایک air cast دوں گا تاکہ آپ کے ٹخنے کو stabilised رکھا جا سکے۔ میں آپ کو کرچز تجویز کروں گا۔ میں چاہتا ہوں کہ آپ اس پاؤں پر وزن ڈالنے سے بچیں، لیکن میں چاہتا ہوں کہ آپ چلنا شروع کریں جیسا کہ آپ برداشت کر سکتے ہیں، لیکن اس سے پہلے کہ آپ ایسا محسوس کریں، کچھ دن لگ سکتے ہیں۔ آپ کے علامات پہلے چار، پانچ، چھ، سات دنوں میں نمایاں طور پر بہتر ہو جائیں گے، لیکن میں آپ کے ساتھ follow-up کرنا چاہوں گا تاکہ یہ یقینی ہو سکے کہ آپ ٹھیک ہیں۔ میں آپ کو دو ہفتوں میں دیکھنا چاہوں گا۔ اور میں آپ کو ان NSAIDs کو جاری رکھنے کے لیے بھی کہوں گا تاکہ درد اور سوجن کو کم کرنے میں مدد ملے۔ کیا آپ کے کوئی اور سوالات، تبصرے یا خدشات ہیں اس سے پہلے کہ میں نرس کو بلوا کر آپ کا علاج کرواؤں؟
+[مریض] نہیں، مجھے لگتا ہے کہ یہ ایک منصوبہ ہے۔
+[ڈاکٹر] ٹھیک ہے، بہت اچھا۔ جیسا کہ میں نے کہا، میں آپ کو دو ہفتوں میں دیکھوں گا، اگر آپ کے کوئی سوالات ہیں یا اگر آپ کو بہت زیادہ درد ہو رہا ہے تو واپس آئیں۔ ہم دوبارہ جائزہ لیں گے، ورنہ مجھے لگتا ہے کہ آپ صحیح سمت میں جا رہے ہیں، اور میں آپ کو دو ہفتوں میں دوبارہ دیکھوں گا۔
+[مریض] زبردست، شکریہ ڈاک۔
+[ڈاکٹر] ٹھیک ہے، شکریہ، خدا حافظ۔</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+بائیں ٹخنے میں درد۔
+عارضی مرض کی تاریخ
+میتھیو مرفی ایک خوش مزاج 20 سالہ مرد ہیں جو آج بائیں ٹخنے کے درد کے جائزے کے لیے کلینک میں آئے ہیں۔ ان کے درد کا آغاز 2 دن پہلے ہوا، جب وہ ایک کنارے سے اترے اور اپنا بائیں ٹخنا غلط طریقے سے رکھا۔ انہوں نے چوٹ کے وقت کوئی "پاپ" کی آواز سننے سے انکار کیا ہے، تاہم، انہوں نے اپنے ٹخنے کو پھیلا ہوا اور کھنچا ہوا محسوس کیا۔ وہ واقعے کے بعد گھر واپس چل سکے لیکن درد کے ساتھ۔ انہوں نے اپنے بائیں ٹخنے کو پہلے کبھی کوئی چوٹ نہیں لگائی۔ ان کا درد بائیں ٹخنے کے بیرونی حصے تک محدود ہے اور دوا کے بغیر 10 میں سے 8 تک بتایا جا سکتا ہے۔ جب وہ ibuprofen لیتے ہیں تو ان کے درد کی سطح 10 میں سے 7 ہے۔ انہوں نے بتایا کہ انہوں نے اپنے ٹخنے کو ٹھنڈا بھی کیا اور اونچا رکھا۔
+سماجی تاریخ
+مریض نے بتایا کہ وہ COVID-19 کے آغاز کے بعد سے گھر سے کام کر رہے ہیں اور بہت زیادہ سیر کرنے کا لطف اٹھاتے ہیں۔
+دوائیاں
+مریض نے بتایا کہ وہ ibuprofen لے رہے ہیں۔
+جسمانی جائزہ
+اعصابی: دونوں طرف معمول کی طاقت اور احساس۔
+عضلاتی ہڈی: بائیں ٹخنے کا جائزہ: بیرونی malleolus پر ecchymosis دیکھا گیا۔ edema موجود ہے۔ بیرونی طور پر palpation کے لیے حساسیت۔ کوئی جوڑ کی نرمی محسوس نہیں ہوئی۔ پاؤں کے palpation کے لیے کوئی ہڈی کی حساسیت نہیں۔ دونوں طرف 3 سیکنڈ سے کم میں capillary refill تیز ہے۔ دونوں طرف مضبوط dorsalis pedis نبضیں۔
+نتائج
+ان سے کوئی فریکچر یا ہڈی کی غیر معمولی حالت ظاہر نہیں ہوئی۔
+تشخیص
+بائیں ٹخنے میں بیرونی ligament complex کی موچ۔
+یोजना
+آج مریض کے معائنے اور radiographic نتائج کا جائزہ لینے کے بعد، میں نے مریض کے ساتھ اس کے موجودہ علامات کے بارے میں لمبی گفتگو کی ہے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ ان کی علامات ٹخنے میں بیرونی ligament complex کی موچ کے مطابق ہیں۔ تشخیص اور علاج کے اختیارات پر تبادلہ خیال کیا گیا۔ اس وقت وہ RICE protocol پر عمل جاری رکھیں گے۔ وہ درد اور سوجن کے لیے ضرورت کے مطابق NSAIDs لیتے رہیں گے۔ انہیں ٹخنے کو مستحکم کرنے کے لیے Aircast میں بھی رکھا جائے گا اور انہیں غیر وزن بردار رہنے کے لیے کرچز فراہم کیے جائیں گے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ شاید اسے چلنے کی برداشت محسوس کرنے میں کچھ دن لگیں۔ میں نے انہیں مشورہ دیا کہ اگلے 4 سے 6 دنوں میں ان کی علامات میں نمایاں طور پر بہتری آنا شروع ہو جائے گی۔
+ہدایات
+مریض 2 ہفتوں میں ان کے پیشرفت کا جائزہ لینے کے لیے مجھ سے فالو اپ کریں گے، اگر ضرورت ہو تو جلد۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>c_aci_057</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>virtassist</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VA032</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[doctor] hi keith , how are you ?
+ [patient] ah , not too good . my blood sugar is n't under control .
+ [doctor] and , uh , so keith is a 58-year-old male here for evaluation of high blood sugar . so , what happened ? ha- have you just been taking your blood sugars at home and noticed that they're really high ? or ?
+ [patient] yeah i've been taking them at home and i feel like they've been creeping up slightly .
+ [doctor] have- ... what have they been running , in like the 200's or 300's ?
+ [patient] 300's .
+ [doctor] they've been running in the 300's ? and tell me about your diet . have you been eating anything to spark- ... spike them up ?
+ [patient] to be honest my diet has n't changed much .
+ [doctor] okay . have you- ... go ahead .
+ [patient] actually it has n't changed at all . much of the same .
+ [doctor] okay and what do you con- consider the same ? are you eating lots of sugar ? like , teas and coffees and-
+ [patient] i do n't take sugar with my tea .
+ [doctor] okay , all right . and how about , um , like any added sugars into any kind of processed foods or anything like that ?
+ [patient] uh , i think most of my sugars come from fruit .
+ [doctor] from what ?
+ [patient] fruit .
+ [doctor] fruit , okay .
+ [patient] yeah .
+ [doctor] all right . um , and have you been feeling sick recently ? have you had any fever or chills ?
+ [patient] uh , i have not .
+ [doctor] body aches , joint pain ?
+ [patient] uh , a bit of joint pain .
+ [doctor] multiple joints , or just one joint ?
+ [patient] uh , my knee . uh , sorry , right knee to be more exact .
+ [doctor] your right knee ?
+ [patient] yeah .
+ [doctor] okay . and what happened ?
+ [patient] ah , to be honest , nothing much . i just noticed it when you said it .
+ [doctor] okay , all right . um , and how about any nausea or vomiting or belly pain ?
+ [patient] uh , i was nauseous a couple of days back but , uh , that's just because i was sitting in the back of a car . i hate that .
+ [doctor] okay . all right . and no burning when you urinate or anything like that ?
+ [patient] not at all .
+ [doctor] okay . all right . so , um ... you know , i know that you've had this reflux in the past . how are you doing with that ? are you still having a lot of reflux symptoms or do you feel like it's better since we've put you on the protonix ?
+ [patient] i think it's a bit better . uh , i do n't get up at night anymore with reflux and that's always a good thing .
+ [doctor] okay , all right . and i know you have this history of congestive heart failure . have you noticed any recent , uh , weight gain or fluid retention ?
+ [patient] um , not really .
+ [doctor] no ? okay . um , and any problems sleeping while laying flat ?
+ [patient] uh , i- i prefer to sleep on my side so i ca n't really say .
+ [doctor] okay , but even then , you're flat .
+ [patient] yup , yeah .
+ [doctor] okay . all right . and i know that we had an issue with your right rotator cuff , is that okay ?
+ [patient] it's surprisingly good now .
+ [doctor] okay , all right . all right , well let's go ahead and we'll do a quick physical exam . so ... feeling your neck , i do feel like your thyroid's a bit enlarged here . um , your heart is nice and regular . your lungs are clear . your abdomen , um , is nice and soft . your right knee shows that you have some erythema and- and an insect bite with associated fluctuants . and , um , you have some lower extremity edema on the right hand side . so let's go ahead and look at some of your results . i know the nurse had reported these things and we ordered some labs on you before you came in . hey dragon , show me the vital signs . okay , well your- your vital signs look good , which is good . hey dragon , show me the lyme titer . okay , so , you know , your lyme titer is a little elevated , so i think we'll have to go ahead and- and look into that a little bit , okay ?
+ [patient] makes sense .
+ [doctor] that can certainly cause your blood sugar to be elevated . um , hey dragon , uh , show me the rapid strep . and you also have , uh , positive for strep . so i think we have some reasons as to why your blood sugar is so high . so my impression of you , you know , you have this hyperglycemia , which is probably related to some infections going on in your body . um , from a- a- a rapid strep standpoint we're gon na go ahead and treat you with penicillin or , i'm sorry , amoxicillin , 500 milligrams , three times a day . uh , make sure you take it all , even if you start feeling better , okay ?
+ [patient] for sure .
+ [doctor] hey dragon , order amoxicillin , 500 milligrams , three times a day for 10 days . um ... okay . and from ... , and from all- ... a positive lyme titer aspect , we should go ahead and order a western blot , just pcr to see if you have any , um , to see if it's actually acute lyme , okay ?
+ [patient] okay .
+ [doctor] okay . um , hey dragon , order a western blot pcr for lyme . okay . all right . well we'll go ahead and , um , the nurse will come in soon and she'll set you up with these tests , okay ?
+ [patient] yeah . you said lyme . is that related to lyme disease ?
+ [doctor] yes it is , yeah .
+ [patient] you're certain i do n't have alpha-gal syndrome though , right ? i'm terrified of that one .
+ [doctor] have what ?
+ [patient] alpha-gal syndrome , the one where a tick bites you and you get an allergic reaction to meat .
+ [doctor] yeah , i do n't think so . have you eaten meat over the last couple of days ?
+ [patient] i have .
+ [doctor] okay . well i- ... it's , you know , your blood sugar's elevated so you might be having an inflammatory response to that , but we'll go ahead and order some tests to look into it , okay ?
+ [patient] that sounds good .
+ [doctor] all right . call me if anything happens , okay ?
+ [patient] definitely .
+ [doctor] all right . hey dragon , finalize the note .</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ High blood sugar.
+ HISTORY OF PRESENT ILLNESS
+ The patient is a 58-year-old male who presents for evaluation of high blood sugar.
+ The patient states he has been taking his blood sugars at home, and they have been in the 300 's. He notes that his diet has not changed much. He does not eat processed food, nor does he put sugar in his tea. The patient reports that he thinks the sugar in his diet is from fruit. He denies any fever, chills, or body aches. He endorses joint pain in his right knee; however, he notes that he just noticed the joint pain when asked. He states he was nauseous for a couple of days but that was because he was sitting in the back of a car. He denies any burning with urination.
+ The patient has a history of congestive heart failure. He denies any recent weight gain or fluid retention. He has no problems laying flat.
+ The patient has a history of right rotator cuff issues which he notes are doing well.
+ He notes that his reflux is doing better. The patient reports that he no longer gets up at night from reflux.
+ REVIEW OF SYSTEMS
+ â€¢ Constitutional: Negative for fever, chills or unintentional weight changes.
+ â€¢ Musculoskeletal: Positive for right knee pain.
+ PHYSICAL EXAMINATION
+ Neck
+ â€¢ General Examination: Neck is supple, mild thyromegaly noted.
+ Respiratory
+ â€¢ Auscultation of Lungs: Clear bilaterally.
+ Cardiovascular
+ â€¢ Auscultation of Heart: Regular rate and rhythm.
+ Gastrointestinal
+ â€¢ Examination of Abdomen: Soft.
+ Musculoskeletal
+ â€¢ Examination: Right knee shows some erythema and insect bite with associated fluctuance. Trace edema in the right lower extremity.ÃŸ
+ RESULTS
+ Lyme titer: elevated.
+ Rapid strep test: positive.
+ ASSESSMENT AND PLAN
+ The patient is a 58-year-old male who presents for evaluation of high blood sugar.
+ Hyperglycemia
+ â€¢ Medical Reasoning: This is likely related to an inflammatory response as the patient had an elevated Lyme titer and positive rapid strep test.
+ â€¢ Additional Testing: We will order a western blot PCR to evaluate for Lyme disease.
+ â€¢ Medical Treatment: We are going to treat him with amoxicillin 500 mg 3 times a day for 10 days.
+ Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی کیتھ، آپ کیسے ہیں؟
+[مریض] اوہ، زیادہ بہتر نہیں ہوں۔ میری بلڈ شوگر کنٹرول میں نہیں آ رہی۔
+[ڈاکٹر] اور، اوہ، تو کیتھ یہاں 58 سالہ مرد ہے، بلڈ شوگر کے بڑھنے کی تشخیص کے لیے آیا ہے۔ تو، کیا ہوا؟ کیا آپ گھر پر بلڈ شوگر چیک کر رہے تھے اور پتا چلا کہ یہ بہت زیادہ ہے؟ یا؟
+[مریض] جی ہاں، میں گھر پر چیک کر رہا ہوں اور مجھے لگتا ہے کہ یہ تھوڑی تھوڑی بڑھ رہی ہے۔
+[ڈاکٹر] یہ کتنی بڑھ رہی ہے، جیسے 200 کی دہائی میں یا 300 کی دہائی میں؟
+[مریض] 300 کی دہائی میں۔
+[ڈاکٹر] یہ 300 کی دہائی میں چل رہی ہے؟ اور مجھے اپنے کھانے کے بارے میں بتائیں۔ کیا آپ کچھ ایسا کھا رہے ہیں جس سے... یہ بڑھ جائے؟
+[مریض] ایمانداری سے کہوں تو میری خوراک میں زیادہ تبدیلی نہیں ہوئی۔
+[ڈاکٹر] ٹھیک ہے۔ کیا آپ نے... آگے بڑھیں۔
+[مریض] دراصل، اس میں کوئی تبدیلی نہیں ہوئی۔ تقریباً وہی۔
+[ڈاکٹر] ٹھیک ہے اور آپ "وہی" سے کیا مراد رکھتے ہیں؟ کیا آپ بہت زیادہ چینی کھا رہے ہیں؟ جیسے، چائے اور کافی میں، اور۔۔۔
+[مریض] میں اپنی چائے میں چینی نہیں ڈالتا۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور پراسیسڈ فوڈز یا اس طرح کی کسی بھی چیز میں کوئی اضافی چینی؟
+[مریض] اوہ، مجھے لگتا ہے کہ میری زیادہ تر چینی پھلوں سے آتی ہے۔
+[ڈاکٹر] کس چیز سے؟
+[مریض] پھلوں سے۔
+[ڈاکٹر] پھل، ٹھیک ہے۔
+[مریض] جی ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ کو حال ہی میں کوئی بیماری محسوس ہو رہی ہے؟ کیا آپ کو بخار یا ٹھنڈ لگ رہی ہے؟
+[مریض] اوہ، نہیں، مجھے نہیں ہے۔
+[ڈاکٹر] جسم میں درد، جوڑوں میں درد؟
+[مریض] اوہ، تھوڑا سا جوڑوں میں درد ہے۔
+[ڈاکٹر] ایک سے زیادہ جوڑ، یا صرف ایک جوڑ؟
+[مریض] اوہ، میرا گھٹنا۔ اوہ، معاف کیجیے، زیادہ واضح طور پر کہوں تو دائیں گھٹنا۔
+[ڈاکٹر] آپ کا دائیں گھٹنا؟
+[مریض] جی ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا ہوا؟
+[مریض] اوہ، ایمانداری سے کہوں تو، کچھ خاص نہیں ہوا۔ میں نے اسے صرف اس وقت دیکھا جب آپ نے کہا۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور پیٹ میں متلی، الٹی یا درد؟
+[مریض] اوہ، مجھے دو دن پہلے متلی ہو رہی تھی لیکن، اوہ، یہ صرف اس لیے تھا کہ میں کار کے پیچھے بیٹھا تھا۔ مجھے یہ بالکل پسند نہیں ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ اور پیشاب کرتے وقت جلن یا اس طرح کی کوئی چیز نہیں؟
+[مریض] بالکل نہیں۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ تو، اوہ... مجھے معلوم ہے کہ آپ کو ماضی میں ریفلکس کی شکایت رہی ہے۔ آپ اس کے ساتھ کیسے ہیں؟ کیا آپ کو ابھی بھی ریفلکس کے بہت زیادہ علائم ہو رہے ہیں یا آپ کو لگتا ہے کہ یہ بہتر ہو گیا ہے جب سے ہم نے آپ کو پروٹونکس پر رکھا ہے؟
+[مریض] مجھے لگتا ہے کہ یہ تھوڑا بہتر ہے۔ اوہ، میں اب رات کو ریفلکس سے اٹھتا نہیں ہوں اور یہ ہمیشہ اچھی بات ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور مجھے معلوم ہے کہ آپ کو کنجیسٹیو ہارٹ فیلئر کی تاریخ ہے۔ کیا آپ نے حال ہی میں وزن بڑھنے یا پانی جمع ہونے کا مشاہدہ کیا ہے؟
+[مریض] اوہ، نہیں، خاص طور پر نہیں۔
+[ڈاکٹر] نہیں؟ ٹھیک ہے۔ اوہ، اور کیا آپ کو سیدھے لیٹ کر سونے میں کوئی مشکل ہو رہی ہے؟
+[مریض] اوہ، میں سائیڈ پر سونا پسند کرتا ہوں، اس لیے میں واقعی نہیں کہہ سکتا۔
+[ڈاکٹر] ٹھیک ہے، لیکن اس کے باوجود، آپ سیدھے ہیں۔
+[مریض] جی ہاں، جی ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ اور مجھے معلوم ہے کہ ہمیں آپ کے دائیں روٹیٹر کف کے ساتھ ایک مسئلہ تھا، کیا یہ ٹھیک ہے؟
+[مریض] یہ حیران کن طور پر اب بہتر ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ ٹھیک ہے، تو چلیں آگے بڑھیں اور ایک فوری جسمانی معائنہ کریں۔ تو... آپ کی گردن کو محسوس کرتے ہوئے، مجھے لگتا ہے کہ آپ کی تھائرایڈ تھوڑی بڑھی ہوئی ہے۔ اوہ، آپ کا دل ٹھیک اور باقاعدہ ہے۔ آپ کے پھیپھڑے صاف ہیں۔ آپ کا پیٹ، اوہ، نرم ہے۔ آپ کے دائیں گھٹنے سے پتہ چلتا ہے کہ آپ کو کچھ اریتھیما اور ایک کیڑے کا کاٹنا ہے جس میں فلکچوانٹس ہیں۔ اور، اوہ، آپ کو دائیں جانب نچلے جسم میں edema ہے۔ تو چلیں آپ کے کچھ نتائج دیکھتے ہیں۔ مجھے معلوم ہے کہ نرس نے ان چیزوں کی اطلاع دی تھی اور ہم نے آپ کے آنے سے پہلے کچھ لیب ٹیسٹ کیے تھے۔ ہی ڈریگن، مجھے وائٹل سائن دکھاؤ۔ ٹھیک ہے، آپ کے وائٹل سائنز ٹھیک لگ رہے ہیں، جو اچھی بات ہے۔ ہی ڈریگن، مجھے لائم ٹائٹر دکھاؤ۔ ٹھیک ہے، تو، آپ کا لائم ٹائٹر تھوڑا بڑھا ہوا ہے، اس لیے مجھے لگتا ہے کہ ہمیں اس کی مزید جانچ پڑتال کرنی ہوگی، ٹھیک ہے؟
+[مریض] سمجھ میں آیا۔
+[ڈاکٹر] یہ یقینی طور پر آپ کی بلڈ شوگر کو بڑھا سکتا ہے۔ اوہ، ہی ڈریگن، مجھے ریپڈ اسٹریپ دکھاؤ۔ اور آپ کو، اوہ، اسٹریپ کے لیے مثبت بھی ہے۔ تو مجھے لگتا ہے کہ آپ کی بلڈ شوگر اتنی زیادہ ہونے کی کچھ وجوہات ہیں۔ تو، آپ پر میری تاثر یہ ہے کہ آپ کو ہائپرگلیسیمیا ہے، جو شاید آپ کے جسم میں کچھ انفیکشنز سے متعلق ہے۔ ایک تیز اسٹریپ کے نقطہ نظر سے، ہم آپ کا علاج پینسلن یا، معاف کیجیے، ایموکسیسیلن، 500 ملی گرام، دن میں تین بار کریں گے۔ اوہ، یقینی بنائیں کہ آپ اسے سب لیں، یہاں تک کہ اگر آپ کو بہتر محسوس ہونا شروع ہو جائے، ٹھیک ہے؟
+[مریض] ضرور۔
+[ڈاکٹر] ہی ڈریگن، ایموکسیسیلن، 500 ملی گرام، دن میں تین بار 10 دنوں کے لیے آرڈر کریں۔ اوہ... ٹھیک ہے، اور... اور ایک مثبت لائم ٹائٹر کے پہلو سے، ہمیں ایک ویسٹرن بلوٹ آرڈر کرنا چاہیے، صرف PCR یہ دیکھنے کے لیے کہ آیا آپ کو کوئی، اوہ، یہ دیکھنے کے لیے کہ آیا یہ ایک्यूट لائم ہے، ٹھیک ہے؟
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، ہی ڈریگن، لائم کے لیے ویسٹرن بلوٹ PCR آرڈر کریں۔ ٹھیک ہے۔ ٹھیک ہے۔ تو ہم آگے بڑھیں گے اور، اوہ، نرس جلد ہی آئے گی اور آپ کے لیے ان ٹیسٹوں کا اہتمام کرے گی، ٹھیک ہے؟
+[مریض] جی ہاں۔ آپ نے لائم کہا۔ کیا یہ لائم بیماری سے متعلق ہے؟
+[ڈاکٹر] جی ہاں، یہ ہے۔
+[مریض] کیا آپ یقین کر سکتے ہیں کہ مجھے الفا-گال سنڈروم نہیں ہے، ٹھیک ہے؟ میں اس سے بہت ڈرتا ہوں۔
+[ڈاکٹر] کیا؟
+[مریض] الفا-گال سنڈروم، جہاں آپ کو ایک ٹِک کا کاٹنا پڑتا ہے اور آپ کو گوشت سے الرجی ہو جاتی ہے۔
+[ڈاکٹر] جی ہاں، مجھے نہیں لگتا۔ کیا آپ نے گزشتہ چند دنوں میں گوشت کھایا ہے؟
+[مریض] میں نے کھایا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، میں... آپ کی بلڈ شوگر بڑھ رہی ہے، اس لیے آپ کو اس کا مدافعتی ردعمل ہو سکتا ہے، لیکن ہم اس کی مزید جانچ کے لیے کچھ ٹیسٹ کرائیں گے، ٹھیک ہے؟
+[مریض] یہ اچھا لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اگر کچھ بھی ہو تو مجھے کال کریں، ٹھیک ہے؟
+[مریض] ضرور۔
+[ڈاکٹر] ٹھیک ہے۔ ہی ڈریگن، نوٹ کو حتمی شکل دیں۔</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+بلند بلڈ شوگر۔
+عارضی مرض کی تاریخ
+مریض 58 سالہ مرد ہیں جو بلند بلڈ شوگر کے لیے تشخیص کے لیے حاضر ہوئے ہیں۔
+مریض بیان کرتے ہیں کہ وہ گھر پر اپنی بلڈ شوگر چیک کر رہے ہیں، اور یہ 300 کی دہائی میں رہی ہے۔ وہ نوٹ کرتے ہیں کہ ان کی غذا میں زیادہ تبدیلی نہیں آئی ہے۔ وہ پروسیسڈ فوڈ نہیں کھاتے، اور نہ ہی وہ اپنی چائے میں چینی ڈالتے ہیں۔ مریض کا خیال ہے کہ ان کی غذا میں موجود چینی پھلوں سے ہے۔ وہ بخار، ٹھنڈ لگنا، یا جسم درد سے انکار کرتے ہیں۔ وہ اپنے دائیں گھٹنے میں جوڑوں کے درد کی تصدیق کرتے ہیں؛ تاہم، وہ نوٹ کرتے ہیں کہ انہوں نے یہ درد صرف پوچھنے پر محسوس کیا۔ وہ کہتے ہیں کہ انہیں دو دنوں تک متلی ہو رہی تھی لیکن یہ اس لیے تھی کیونکہ وہ کار کے پیچھے بیٹھے تھے۔ وہ پیشاب کے ساتھ جلنے سے انکار کرتے ہیں۔
+مریض کو congestive heart failure کی تاریخ ہے۔ وہ حالیہ وزن بڑھنے یا پانی جمع ہونے سے انکار کرتے ہیں۔ انہیں لیٹنے میں کوئی مشکل نہیں ہے۔
+مریض کو دائیں rotator cuff کے مسائل کی تاریخ ہے جو کہ، ان کے مطابق، بہتر ہو رہے ہیں۔
+وہ نوٹ کرتے ہیں کہ ان کا reflux بہتر ہو رہا ہے۔ مریض کا کہنا ہے کہ اب وہ رات کو reflux کی وجہ سے نہیں اٹھتے۔
+جسمانی جائزہ
+• Constitutional: بخار، ٹھنڈ لگنا یا غیر ارادی وزن میں تبدیلی کا کوئی نشان نہیں ہے۔
+• Musculoskeletal: دائیں گھٹنے کے درد کی تصدیق ہوئی۔
+جسمانی معائنہ
+گردن
+• عمومی معائنہ: گردن لچکدار ہے، ہلکی thyromegaly نوٹ کی گئی۔
+سانس
+• پھیپھڑوں کا auscultation: دونوں طرف صاف۔
+قلبی
+• دل کا auscultation: باقاعدہ رفتار اور تال۔
+گیسٹرواینٹسٹینل
+• پیٹ کا معائنہ: نرم۔
+Musculoskeletal
+• معائنہ: دائیں گھٹنے میں کچھ erythema اور کیڑے کے کاٹنے کے نشان کے ساتھ ساتھ fluctuance بھی ہے۔ دائیں زیریں عضو میں معمولی edema۔
+نتائج
+Lyme titer: بلند۔
+Rapid strep test: مثبت۔
+تشخیص اور منصوبہ
+مریض 58 سالہ مرد ہیں جو بلند بلڈ شوگر کے لیے تشخیص کے لیے حاضر ہوئے ہیں۔
+Hyperglycemia
+• طبی منطق: یہ ممکنہ طور پر سوزش کے ردعمل سے متعلق ہے کیونکہ مریض میں بلند Lyme titer اور مثبت rapid strep test تھا۔
+• اضافی ٹیسٹنگ: ہم Lyme disease کے لیے western blot PCR کا آرڈر دیں گے۔
+• طبی علاج: ہم انہیں 10 دنوں کے لیے روزانہ 3 بار 500 mg amoxicillin کے ساتھ علاج کریں گے۔
+مریض کی رضامندی: مریض تجویز کردہ طبی علاج کے منصوبے کو سمجھتا ہے اور اس سے اتفاق کرتا ہے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>c_aci_058</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ACI029</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[doctor] alright scott so so i understand that you you had some right knee injury can you tell me a little bit about what happened
+ [patient] yeah i was trying to go out and play some pickup soccer games over the weekend and went to go plank kick the ball and and just felt a pop in my right knee
+ [doctor] okay and and how long ago did that happen
+ [patient] about three days ago
+ [doctor] three days okay and when did you notice any swelling anything like that
+ [patient] it it's swollen some some of that swelling has gone down
+ [doctor] okay
+ [patient] but it it mainly just it it feels like that i just i ca n't my knee is just not as functionally it's not moving as well as what it used to be it seems to be a little limited
+ [doctor] okay alright and then so how's the pain with your knee on a scale of one to ten one being the least pain ten being the worst pain how's how's it been ranging
+ [patient] it's somewhere between six and seven right now it's about four or five with some of the swelling going down
+ [doctor] okay alright and did you take anything at all to relieve the pain
+ [patient] anti-inflammatories
+ [doctor] okay alrighty and did that help
+ [patient] yeah the ibuprofen helped a little bit but i'm on it pretty on a pretty regular basis right now
+ [doctor] gotcha okay now tell me are you able to bend or straighten your leg ever since then
+ [patient] i can bend it but it hurts towards the end of the motion and i can straighten it but it does n't it feels like i have to help get it straightened
+ [doctor] okay alright and then how about you able to bear any weight on it or walk on it at all
+ [patient] i can still bear weight on it but it feels just really loose it it does n't feel normal
+ [doctor] gotcha okay alright well let's go ahead and take a look at your knee here real quick before i take a look at your knee here i'm gon na do a physical exam and in terms of your gait here i did notice that you do have a marked limp on your looks like it's your right leg upon ambulation so let me go ahead and take a look at that right knee real quick i do appreciate some significant effusion in the right knee just a slight bit of ecchymosis let me just feel around here scott how does that feel does that hurt when i kinda press on that there
+ [patient] a little bit of pain there not not really bad it's it feels like it's just more on the inside of my knee
+ [doctor] yep okay so you definitely feeling some a little bit of pain to palpation at the medial joint line now i'm gon na have you lie on your back and also i'm gon na do some maneuvering here of your leg i'm gon na do a real quick test on you here okay alright how does that feel
+ [patient] just feels just feels loose it hurts when you pull it at the very end
+ [doctor] okay sorry about that alright so you're definitely having some difficulty with some passive range of motion here and you're lacking a few degrees of terminal extension to about a hundred and fifteen degrees as well as lacking about maybe twenty to thirty degrees of terminal flexion on the secondary secondary to the pain here and you do have a positive lachman exam so one more thing i wan na take a look at real quick i'm gon na take a look at your toes here real quick very good so neurovascularly your bilateral lower extremities are intact and it looks like you have a muscle strength of a five out of five so scott you know based on my examination here your right knee injury is really suggestive of anterior cruciate ligament tear and you've heard of it probably even heard as acl tear sometimes especially when a lot of people do sports and they injure their knee that that can happen so my plan for you though is i wan na i wan na go ahead and order an mri because i wan na evaluate the integrity of that acl now you may need surgery but we'll we'll first take a look at that mri result and reevaluate and reevaluate that first but in the meantime i wan na go ahead and order some anti-inflammatory medication meloxicam 15 milligrams a day it's gon na help reduce that swelling and the pain and then i want you to go ahead and ice the knee if you need to if you're still seeing some swelling and some pain you can go ahead and use ice as well but i definitely would like for you to moderate your activities so i would like for you to wear a knee immobilizer and then also use crutches when you walk around just to help you a little bit so not to put too much stress and strain on that knee does that sound like a plan
+ [patient] it it does now well i need to limit my work activities i i typically sit behind a desk but it's not been very comfortable sitting here lately
+ [doctor] yeah definitely so yeah so you you can limit the activities for sure in terms of your work activities i know if you sit too long sometimes it can be painful because you do need to move that leg a little bit so it does n't lock up so i i would like for you to you know do do some slight activities not enough to stress your legs but definitely move move them a little bit every now and then so it does n't lock up on you okay
+ [patient] okay
+ [doctor] alright i do want you to i know you are i know you actually jog often so i want you to just slow that down for a bit no jogging for a while until we get you know results of your mri till we figure out what we what we are gon na be doing okay
+ [patient] okay
+ [doctor] alright and how's your dog you has it been jogging with you before this incident
+ [patient] how's just how's my dog or how is my job
+ [doctor] your your dog
+ [patient] my my my dog is okay
+ [doctor] good
+ [patient] is doing really well and and he enjoys still playing around outside but looks like wo n't be able to do that for a little bit
+ [doctor] very good alright well i'm gon na go ahead and have the nurse take you to the scheduler to get your mri and i'll get back with you as soon as we get the results of that
+ [patient] okay sounds good thank you
+ [doctor] thank you</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Right knee injury.
+ HISTORY OF PRESENT ILLNESS
+ Scott Miller is a pleasant 36-year-old male who presents to the clinic today for the evaluation of a right knee injury. The injury occurred 3 days ago, when he was playing pickup soccer games and felt a pop in his right knee. He reports swelling at the time of the injury, which has improved. The patient states that his knee is not as functional or moving as well as it used to be. He rates his pain level as a 6 to 7 out of 10 currently and a 4 to 5 out of 10 when the swelling decreases. The patient has been taking ibuprofen on a regular basis, which provides some relief. He states that he is able to bend his knee with pain towards the end of this motion; however, when he goes to straighten his knee, he feels like he has to help it straight. The patient adds that he is able to bear weight on his right knee, however it feels loose and does not feel normal.
+ SOCIAL HISTORY
+ The patient works at a desk.
+ REVIEW OF SYSTEMS
+ Musculoskeletal: Reports right knee pain.
+ PHYSICAL EXAM
+ GAIT: Marked limp in the right leg upon ambulation.
+ MSK: Examination of the right knee: Significant effusion. Slight ecchymosis. Pain with palpation at the medial joint line. Difficulty with passive ROM. Lacking a few degrees of terminal extension to 115 degrees. Lacking 20-30 degrees of terminal flexion secondary to pain. Positive Lachman's test. Muscle strength is 5/5. Neurovascular intact distally.
+ ASSESSMENT
+ Right knee pain, possible anterior cruciate ligament tear.
+ PLAN
+ After reviewing the patient's examination findings today, I have had a lengthy discussion with the patient in regards to his current symptoms. I have recommended that we obtain an MRI of the right knee to evaluate the integrity of the ACL. I have prescribed the patient meloxicam 15 mg a day to reduce swelling and pain. We discussed that the patient should utilize ice and activity modification to reduce swelling and pain. I recommended that he wears a knee immobilizer and use crutches when he is ambulating. He will avoid jogging until we have the results of his MRI.
+ INSTRUCTIONS
+ The patient will follow up with me once the MRI results are available for review and further discussion.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>test2_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ٹھیک ہے سکاٹ، تو میں سمجھتا ہوں کہ آپ کو دائیں گھٹنے میں چوٹ لگی ہے۔ کیا آپ مجھے بتا سکتے ہیں کہ کیا ہوا؟
+[مریض] جی ہاں، میں سُبْح کے دن فٹ بال کھیلنے گیا تھا اور گیند کو پلک کرنے کی کوشش کر رہا تھا، اور پھر میرے دائیں گھٹنے میں ایک 'پاپ' کی آواز آئی۔
+[ڈاکٹر] ٹھیک ہے، اور یہ کتنے دن پہلے ہوا؟
+[مریض] تقریباً تین دن پہلے۔
+[ڈاکٹر] تین دن ٹھیک ہے، اور آپ نے کب سوجن محسوس کی؟
+[مریض] یہ کچھ سوج گئی ہے، لیکن کچھ سوجن کم ہو گئی ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] لیکن بنیادی طور پر ایسا لگتا ہے کہ میرا گھٹنا پہلے جیسا کام نہیں کر رہا ہے، یہ پہلے جیسا نہیں ہل رہا ہے۔ یہ تھوڑا محدود ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، تو آپ کے گھٹنے میں درد کی شدت ایک سے دس کے پیمانے پر کتنی ہے، ایک کا مطلب کم سے کم درد اور دس کا مطلب سب سے زیادہ درد؟ یہ کیسی رہی ہے؟
+[مریض] ابھی یہ چھ سے سات کے درمیان ہے، سوجن کم ہونے کے ساتھ یہ تقریباً چار یا پانچ ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، اور کیا آپ نے درد سے راحت کے لیے کچھ لیا؟
+[مریض] اینٹی-انفلامیٹری دوائیں۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، اور کیا اس سے مدد ملی؟
+[مریض] جی ہاں، آئیبوپروفین نے تھوڑی مدد کی، لیکن میں ابھی اسے باقاعدگی سے استعمال کر رہا ہوں۔
+[ڈاکٹر] سمجھ گیا، ٹھیک ہے، اب بتائیں کہ کیا آپ اس کے بعد سے اپنا پاؤں موڑ یا سیدھا کر سکتے ہیں؟
+[مریض] میں اسے موڑ سکتا ہوں، لیکن حرکت کے آخر میں درد ہوتا ہے، اور میں اسے سیدھا کر سکتا ہوں، لیکن ایسا لگتا ہے کہ مجھے اسے سیدھا کرنے میں مدد کی ضرورت ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، اور کیا آپ اس پر وزن ڈال سکتے ہیں یا چل سکتے ہیں؟
+[مریض] میں اس پر وزن ڈال سکتا ہوں، لیکن یہ بہت ڈھیلا لگتا ہے، یہ معمول کے مطابق نہیں لگتا۔
+[ڈاکٹر] سمجھ گیا، ٹھیک ہے، ٹھیک ہے، تو آئیے آپ کے گھٹنے کو جلدی سے دیکھ لیں۔ آپ کے گھٹنے کو دیکھنے سے پہلے، میں ایک جسمانی امتحان کروں گا، اور آپ کے چلنے کے انداز کے لحاظ سے، میں نے دیکھا کہ آپ کا دایاں پاؤں لنگڑا رہا ہے۔ تو آئیے اس دائیں گھٹنے کو جلدی سے دیکھیں۔ میں آپ کے دائیں گھٹنے میں نمایاں سوجن اور ہلکی سی خونجلہ دیکھ رہا ہوں۔ مجھے یہاں محسوس کرنے دیجیے سکاٹ، کیا یہ درد کرتا ہے جب میں یہاں دباتا ہوں؟
+[مریض] تھوڑا سا درد ہے، لیکن زیادہ نہیں۔ یہ میرے گھٹنے کے اندرونی حصے میں محسوس ہوتا ہے۔
+[ڈاکٹر] جی ہاں، ٹھیک ہے، تو آپ یقینی طور پر اندرونی جوڑ کی لکیر پر ہلکا سا درد محسوس کر رہے ہیں۔ اب میں آپ کو اپنی پیٹھ کے بل لیٹنے کو کہوں گا، اور میں آپ کے پاؤں کو کچھ حرکت دینے والا ہوں۔ میں آپ پر ایک جلدی ٹیسٹ کرنے والا ہوں۔ ٹھیک ہے، یہ کیسا محسوس ہو رہا ہے؟
+[مریض] یہ صرف ڈھیلا محسوس ہو رہا ہے، جب آپ اسے آخر میں کھینچتے ہیں تو درد ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، معاف کیجیے گا۔ تو آپ کو یقینی طور پر کچھ غیر فعال رینج آف موشن میں مشکل ہو رہی ہے، اور آپ کو تقریباً 115 ڈگری کے ٹرمینل ایکسٹینشن کی چند ڈگریوں کی کمی ہے، ساتھ ہی درد کی وجہ سے تقریباً 20 سے 30 ڈگری کے ٹرمینل فلیکشن کی کمی ہے۔ اور آپ کا لیچمین امتحان مثبت ہے۔ ایک اور چیز جو میں جلدی سے دیکھنا چاہتا ہوں، میں آپ کے انگلیوں کو دیکھنا چاہتا ہوں۔ بہت اچھا۔ اعصابی طور پر آپ کے دونوں پاؤں درست ہیں، اور ایسا لگتا ہے کہ آپ کی پٹھوں کی طاقت 5 میں سے 5 ہے۔ تو سکاٹ، میرے امتحان کے نتائج کے مطابق، آپ کی دائیں گھٹنے کی چوٹ اینٹیریئر کروسیٹ لیگمنٹ کے آنسو کی نشاندہی کرتی ہے۔ آپ نے اس کے بارے میں سنا ہوگا، اور شاید اسے ACL آنسو بھی کہا جاتا ہے۔ خاص طور پر جب بہت سے لوگ کھیل کھیلتے ہیں اور ان کو گھٹنے میں چوٹ لگتی ہے تو ایسا ہو سکتا ہے۔ لیکن آپ کے لیے میری منصوبہ یہ ہے کہ میں ایک ایم آر آئی کروانا چاہتا ہوں، کیونکہ میں اس ACL کی سالمیت کا جائزہ لینا چاہتا ہوں۔ آپ کو سرجری کی ضرورت پڑ سکتی ہے، لیکن ہم پہلے ایم آر آئی کے نتائج دیکھیں گے اور دوبارہ جائزہ لیں گے۔ لیکن اس دوران، میں اینٹی-انفلامیٹری دوا، میلوکسیکم 15 ملی گرام روزانہ تجویز کرنا چاہتا ہوں، یہ سوجن اور درد کو کم کرنے میں مدد کرے گا۔ اور پھر میں چاہتا ہوں کہ آپ گھٹنے کو ٹھنڈا کریں، اگر آپ کو اب بھی کچھ سوجن اور درد نظر آ رہا ہے۔ لیکن میں یقینی طور پر چاہتا ہوں کہ آپ اپنی سرگرمیوں کو کم کریں، میں چاہتا ہوں کہ آپ گھٹنے کو جام کرنے والا پہنیں، اور چلتے وقت کرچز کا استعمال کریں۔ تاکہ آپ کے گھٹنے پر زیادہ دباؤ نہ پڑے۔ کیا یہ منصوبہ ٹھیک ہے؟
+[مریض] جی ہاں، ٹھیک ہے۔ کیا مجھے اپنی کام کی سرگرمیوں کو محدود کرنے کی ضرورت ہے؟ میں عام طور پر ڈیسک کے پیچھے بیٹھا رہتا ہوں، لیکن بیٹھے بیٹھے مجھے بہت آرام دہ نہیں لگ رہا۔
+[ڈاکٹر] جی ہاں، یقینی طور پر، تو جی ہاں، آپ کام کی سرگرمیوں کو محدود کر سکتے ہیں۔ میں جانتا ہوں کہ اگر آپ بہت دیر تک بیٹھے رہتے ہیں تو یہ تکلیف دہ ہو سکتا ہے، کیونکہ آپ کو اپنے پاؤں کو تھوڑا سا ہلانا پڑتا ہے۔ تاکہ یہ جام نہ ہو جائے۔ تو میں چاہتا ہوں کہ آپ تھوڑی سرگرمی کریں، لیکن اتنا نہ کہ آپ اپنے پاؤں پر دباؤ ڈالیں۔ تاکہ یہ آپ کے لیے جام نہ ہو جائے۔ ٹھیک ہے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے، میں چاہتا ہوں کہ میں جانتا ہوں کہ آپ اکثر جاکنگ کرتے ہیں، تو میں چاہتا ہوں کہ آپ اسے تھوڑی دیر کے لیے سست کر دیں۔ کچھ دیر تک جاکنگ نہ کریں، جب تک کہ ہمیں آپ کے ایم آر آئی کے نتائج نہ مل جائیں اور ہم یہ معلوم نہ کر لیں کہ ہم کیا کرنے والے ہیں۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے، اور آپ کا کتا، کیا وہ اس واقعے سے پہلے آپ کے ساتھ جاکنگ کر رہا تھا؟
+[مریض] آپ کا کتا یا آپ کی نوکری؟
+[ڈاکٹر] آپ کا کتا۔
+[مریض] میرا کتا ٹھیک ہے۔
+[ڈاکٹر] اچھا۔
+[مریض] وہ باہر کھیلنے کا لطف اٹھا رہا ہے، لیکن ایسا لگتا ہے کہ وہ کچھ دیر تک ایسا نہیں کر پائے گا۔
+[ڈاکٹر] بہت اچھا۔ ٹھیک ہے، میں اب نرس کو آپ کو شیڈیولر کے پاس لے جانے کے لیے کہوں گا تاکہ آپ کا ایم آر آئی ہو سکے، اور جیسے ہی ہمیں اس کے نتائج ملیں گے میں آپ سے رابطہ کروں گا۔
+[مریض] ٹھیک ہے، شکریہ۔
+[ڈاکٹر] شکریہ۔</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+دائیں گھٹنے کی چوٹ۔
+عارضی مرض کی تاریخ
+اسکاٹ ملر ایک خوش مزاج 36 سالہ مرد ہیں جو آج دائیں گھٹنے کی چوٹ کے جائزے کے لیے کلینک میں آئے ہیں۔ یہ چوٹ 3 دن پہلے لگی، جب وہ پِک اپ فٹ بال کھیل رہے تھے اور انہیں اپنے دائیں گھٹنے میں "پاپ" کی آواز آئی۔ وہ چوٹ کے وقت سوجن کی شکایت کرتے ہیں، جو کہ اب بہتر ہو گئی ہے۔ مریض کہتے ہیں کہ ان کا گھٹنا پہلے جیسا فعال نہیں رہا اور نہ ہی اس کی حرکت پہلے جیسی ہے۔ وہ اس وقت اپنے درد کی شدت کو 10 میں سے 6 تا 7 بتاتے ہیں اور جب سوجن کم ہوتی ہے تو 10 میں سے 4 تا 5 بتاتے ہیں۔ مریض باقاعدگی سے ibuprofen لے رہے ہیں، جس سے کچھ راحت مل رہی ہے۔ وہ کہتے ہیں کہ وہ درد کے ساتھ اپنے گھٹنے کو موڑ سکتے ہیں، لیکن جب وہ گھٹنے کو سیدھا کرنے کی کوشش کرتے ہیں، تو انہیں لگتا ہے کہ انہیں اسے سیدھا کرنے میں مدد کرنی پڑتی ہے۔ مریض نے مزید بتایا کہ وہ اپنے دائیں گھٹنے پر وزن اٹھا سکتے ہیں، لیکن یہ ڈھیلا محسوس ہوتا ہے اور معمول کے مطابق نہیں ہے۔
+سماجی تاریخ
+مریض ڈیسک پر کام کرتے ہیں۔
+جسمانی نظام کا جائزہ
+عضلاتی اسکلٹی: دائیں گھٹنے میں درد کی شکایت۔
+جسمانی معائنہ
+چلنے کا انداز: دائیں پاؤں سے چلتے وقت واضح لنگڑا پن۔
+عضلاتی اسکلٹی: دائیں گھٹنے کا معائنہ: نمایاں effusion (تجمعِ مایع)۔ ہلکا ecchymosis (ورم)۔ medial joint line (اندرونی مفصل لکیر) پر palpation (تحسس) کے ساتھ درد۔ passive ROM (غیر فعال حرکت کی حد) میں مشکل۔ 115 ڈگری تک terminal extension (مکمل توسیع) میں چند ڈگری کی کمی۔ درد کی وجہ سے terminal flexion (مکمل خم) میں 20-30 ڈگری کی کمی۔ Lachman's test مثبت۔ پٹھوں کی طاقت 5/5۔ distal (دور) حصے میں neurovascular (عصبی و عروقی) سالمیت برقرار ہے۔
+تشخیص
+دائیں گھٹنے میں درد، ممکنہ anterior cruciate ligament (ACL) کا آنسو۔
+علاج کی منصوبہ بندی
+مریض کے آج کے معائنے کے نتائج کا جائزہ لینے کے بعد، میں نے مریض کے ساتھ ان کے موجودہ علامات کے حوالے سے ایک طویل گفتگو کی ہے۔ میں نے تجویز دی ہے کہ ہم ACL کی سالمیت کا جائزہ لینے کے لیے دائیں گھٹنے کا MRI کرائیں۔ میں نے مریض کو سوجن اور درد کو کم کرنے کے لیے meloxicam 15 mg روزانہ تجویز کی ہے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ مریض کو سوجن اور درد کو کم کرنے کے لیے برف اور سرگرمی میں تبدیلی کا استعمال کرنا چاہیے۔ میں نے تجویز دی کہ وہ knee immobilizer (گھٹنے کو ثابت کرنے والا آلہ) پہنیں اور چلتے وقت crutches (بیساکھیاں) استعمال کریں۔ MRI کے نتائج آنے تک وہ jogging سے گریز کریں گے۔
+ہدایات
+مریض MRI کے نتائج دستیاب ہونے پر ان کا جائزہ لینے اور مزید تبادلہ خیال کرنے کے لیے مجھ سے دوبارہ رابطہ کریں گے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>c_aci_059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ACI051</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[doctor] hi richard how are you the medical assistant told me that you have a tick bite is that what happened
+[patient] i really do n't know where i got it but i i had i do get out in the woods and i do spend a lot of time out in the yard but yeah i've got a tick bite around my knee and and it's been it's been over a week and and just it just burns and just quite annoying
+[doctor] okay and have you had any fever or chills
+[patient] i have not at this point it just feels warm on that spot
+[doctor] okay alright and have you noticed any other joint pain like in your elbows or shoulders or anything like that that since this started
+[patient] nothing other than my typical arthritic pain
+[doctor] okay alright now you say that you like to go outside and and you're working in the yard now i i heard that you were a a hunter when was the last time you went hunting has hunting season started yet i do n't even know
+[patient] well i i did go hunting not long ago couple of weeks ago
+[doctor] okay did you did you
+[patient] windle season is open well it it's actually on a on a a got the right word for it but it it's where they train dogs and things like that
+[doctor] okay
+[patient] type thing
+[doctor] okay did you i did did did were you able to shoot anything did you bring anything home
+[patient] well actually i yeah i shut several i had some grandchildren with me so i let them have what they wanted
+[doctor] nice nice you know i i did hear i do n't know much about hunting but i did hear a hunting software joke the other day do you want to hear it
+[patient] sure
+[doctor] so what software do hunters use for designing and hunting their pray
+[patient] man i have no idea
+[doctor] the adobee illustrator get it
+[patient] do n't be
+[doctor] anyway i die grass let's just get back to our visit here so about your line or about your tick bite so do you notice that it's hard for you to move your knee at all
+[patient] not at this time no
+[doctor] no and do you have any problems walking
+[patient] no
+[doctor] no okay and have you ever had a tick bite before
+[patient] i have when i was younger i used to get a lot of them because i spent a lot of time out of the woods never get into anesthesia takes you can get several bites out of that but this was just one
+[doctor] okay alright and have you ever been diagnosed with what we call lyme disease before
+[patient] i have not
+[doctor] you have not
+[patient] i would n't know so i would n't know what symptoms are
+[doctor] okay
+[patient] what you just asked me i guess maybe
+[doctor] yeah so some of those symptoms like any flu like symptoms have you had like any body aches or chills or anything like that
+[patient] no just really just kind of a a headache just generally do n't feel well
+[doctor] generally do n't feel well okay and has that been since the tick bite
+[patient] it has
+[doctor] it has okay alright and any other symptoms like a cough or shortness of breath or dizziness or anything like that
+[patient] no
+[doctor] okay now since you are here let me just ask you a little bit about your high blood pressure did you buy the blood pressure cuff i asked you to have you been checking your blood pressure at home
+[patient] periodically yes
+[doctor] okay and do you think that they are running okay
+[patient] yeah blood pressure seems to be doing okay the lisinopril works well
+[doctor] good i was just gon na ask you if you were taking your lisinopril so that's good okay and any side effects from the lisinopril since we started it i think we started it about a year ago two years ago
+[patient] no no no side effects that i'm aware of
+[doctor] no side effects okay and then in terms of your diabetes are you watching your sugar intake
+[patient] yeah i usually watch it the form of high what i'm eating but
+[doctor] i am a big pie fan as well i know what's your favorite type of pie
+[patient] well you know it's favorite boy i just like pie you know apples cherry chocolate you know bicon
+[doctor] yeah
+[patient] i try to try to avoid the bicon because i think it's just all sugar but i do like it
+[doctor] okay
+[patient] less
+[doctor] i like it too alright are you taking the metformin twice a day
+[patient] not everyday but most of the time
+[doctor] okay alright and are you checking your blood sugars pretty regularly
+[patient] i try to
+[doctor] okay and do you do you know on average how they're running are they running below like one fifty or
+[patient] yeah it's definitely running below that
+[doctor] okay your blood sugars are running below
+[patient] it's it's probably with with with the metformin it seems to be you know one twenty
+[doctor] good
+[patient] pretty regular
+[doctor] good your blood sugars are running in the one twenties that's really good okay alright well i wan na just go ahead and do a quick physical exam okay so i'm looking here at your vital signs and your vital signs look really good i do think you're doing a good job with taking your lisinopril your blood pressure's about one twenty two over seventy right now which is right where we want it your heart rate is nice and slow at sixty seven again which is right where we want it and i do n't appreciate any fever today you you have a normal temperature at ninety eight . four which is really good so i'm just gon na be going ahead and calling out some physical exam findings and i'm gon na let you know what that means when i'm done okay so on your heart exam your heart is in a nice regular rate and rhythm i do n't appreciate any murmur rub or gallop on your lung exam your lungs are nice and clear to auscultation bilaterally on your right knee exam i do appreciate some erythema and edema as well as an area of fluctuance over your right patella now does it hurt when i press
+[patient] it's a little bit sore
+[doctor] okay there is pain to palpation of the right anterior knee and i'm just gon na bend your knee up and down does that hurt at all
+[patient] no no it's just more of the typical grinding that i would feel
+[doctor] okay there is full range of motion of the right knee and on skin examination there is evidence of a bull's-eye rash over the right knee okay so what does that mean richard so that means that you know you do have some area of some inflammation over the over the right knee where you where you have that tick bite and you do have what we call that bull's eye rash which is what we get concerned about with with lyme disease so let's just talk a little bit about you know my assessment and my plan for you okay so for this first problem of your of your tick bite my concern is that you might have lyme disease based on the presentation of your right knee so i'm gon na go ahead and start you on doxycycline one hundred milligrams twice a day
+[patient] we're gon na continue that for about three weeks i'm also gon na go ahead and send a lyme titer as well as a western blot to see if you do in fact have lyme lyme disease and we'll have to go ahead and just see how you do with this we you know i'd like to avoid intravenous antibiotics which i think we can avoid but i wanted to see how you do so
+[doctor] do you have any questions about that
+[patient] yeah i did n't know what those last two things or just
+[doctor] yeah so so we are gon na start you on some antibiotics to help help you with this
+[patient] you know possible lyme disease and i'm gon na just order some blood tests just to see exactly what's going on and then you know sometimes people need intravenous antibiotics because lyme disease can cause problems on other organs like your heart that type of thing
+[doctor] if not treated appropriately and sometimes we need to give antibiotics through the iv which i'd like to avoid i think that we got this early enough that we can just treat you with some oral antibiotics okay for your second problem of your hypertension you know i think you're doing a really good job let's go ahead and continue you on the lisinopril twenty milligrams once a day and i wan na just go ahead and order a lipid panel just to make sure that everything is okay with your cholesterol how does that sound
+[patient] that's fine
+[doctor] great and then for your third problem of your diabetes i wan na just go ahead and order a hemoglobin a1c and continue you on the metformin one thousand milligrams twice a day it sounds like you're doing a good job since your blood sugars are running in the one twenties i do n't think we need to make any adjustments but we'll see what the hemoglobin a1c shows that gives us a an idea of what your blood sugars are doing on a long-term basis how does that sound
+[patient] okay at what point time do you start kinda checking kidney function i've been told that metformin can possibly cause some kidney issues
+[doctor] so it can you know your kidney function we've you know i think you've been really lucky it's been normal i checked it about two months ago and it looks pretty good it looks pretty normal but since we're doing blood work on you i can go ahead and order a a basic metabolic panel just to make sure that your kidney function is stable
+[patient] okay that'd be good
+[doctor] okay anything else
+[patient] not that i can think of at this time as soon as i leave
+[doctor] well you know where to find me okay
+[patient] alright
+[doctor] take care bye</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+Tick bite.
+MEDICAL HISTORY
+Patient reports a history of arthritis, hypertension, and diabetes type 2.
+SOCIAL HISTORY
+Patient reports he enjoys spending time outside in the woods and working in the yard. He went hunting with his grandchildren a couple of weeks ago.
+MEDICATIONS
+Patient reports taking lisinopril 20 mg once a day and metformin 1000 mg twice daily most of the time.
+REVIEW OF SYSTEMS
+Constitutional: Reports general ill feelings. Denies any fever, chills, flu like symptoms, body aches, or trouble waking.
+Respiratory: Denies cough or shortness of breath.
+Musculoskeletal: Denies joint pain or problems with ambulation.
+Skin: Reports warmth on the right knee.
+Neurological: Reports headache. Denies dizziness.
+VITALS
+Blood Pressure: 122/70 mmHg.
+Heart Rate: 67 beats per minute.
+Body Temperature: 98.4 degrees F.
+PHYSICAL EXAM
+Neck
+- General Examination: Neck is supple without thyromegaly or lymphadenopathy.
+Respiratory
+- Auscultation of Lungs: Clear bilaterally.
+Cardiovascular
+- Auscultation of Heart: Regular rate and rhythm. No murmurs, gallops or rubs.
+Musculoskeletal
+- Examination of the right knee: Erythema and edema as well as an area of fluctuance noted over the right patella. There is pain to palpation of the right anterior knee. Full range of motion.
+Integumentary
+- Examination: There is evidence of a bullâ€™s eye rash over the right knee.
+RESULTS
+Patient's previous kidney function is within normal limits.
+ASSESSMENT AND PLAN
+1. Tick bite.
+- Medical Reasoning: My concern is that he might have Lyme disease based on the presentation of his right knee.
+- Patient Education and Counseling: The patient and I discussed blood testing to determine if he does in fact have Lyme disease. I explained that Lyme disease can cause problems with other organs if not treated appropriately. We discussed that sometimes antibiotics need to be administered intravenously if oral antibiotics are not given early enough. We will see how he does with a course of oral antibiotics as I would like to avoid intravenous antibiotics.
+- Medical Treatment: Prescription for doxycycline 100 mg twice a day for 3 weeks provided. Lyme titer and Western blot will be obtained to determine if he has Lyme disease.
+2. Hypertension.
+- Medical Reasoning: This is well-controlled at this time.
+- Patient Education and Counseling: The patient and I discussed that he is doing really well monitoring his blood pressure at home.
+- Medical Treatment: Continue lisinopril 20 mg once a day. Lipid panel ordered to assess his cholesterol levels.
+3. Diabetes type 2.
+- Medical Reasoning: He is doing a good job managing his diabetes since his blood sugars are running in the 120s. I do not think we need to make any adjustments, but we will see what the hemoglobin A1c shows as that gives us an idea of what his blood sugars are doing on a long-term basis.
+- Patient Education and Counseling: We discussed that metformin can affect kidney function; however, his kidney function was last checked 2 months ago, and it has remained within normal limits.
+- Medical Treatment: Continue metformin 1000 mg twice a day. Hemoglobin A1c ordered. Basic metabolic panel ordered to assess kidney function. 
+Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>valid_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی رچرڈ، کیسے ہیں آپ؟ میڈیکل اسسٹنٹ نے مجھے بتایا کہ آپ کو ٹِک کا کاٹ لگا ہے، کیا یہ وہی واقعہ ہے؟
+[مریض] مجھے واقعی نہیں معلوم کہ یہ کہاں سے لگا، لیکن میں جنگل میں جاتا ہوں اور گھر کے باہر بھی بہت وقت گزارتا ہوں، لیکن ہاں، میرے گھٹنے کے قریب ٹِک کا کاٹ لگا ہے اور یہ ایک ہفتے سے زیادہ ہو گیا ہے اور یہ جلتا ہے اور کافی پریشان کن ہے۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ کو بخار یا ٹھنڈ لگ رہی ہے؟
+[مریض] ابھی تک نہیں، صرف اس جگہ پر گرم محسوس ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ کو اس کے شروع ہونے کے بعد سے کہنیوں یا کندھوں یا کسی اور جوڑ میں درد محسوس ہوا ہے؟
+[مریض] صرف میرا عام آرتھرائٹک درد ہے۔
+[ڈاکٹر] ٹھیک ہے، اب آپ کہتے ہیں کہ آپ باہر جاتے ہیں اور گھر کے باہر کام کرتے ہیں، اور میں نے سنا ہے کہ آپ ایک شکاری ہیں، آپ آخری بار کب شکار پر گئے تھے، کیا شکار کا موسم شروع ہو گیا ہے؟ مجھے تو معلوم بھی نہیں ہے۔
+[مریض] میں حال ہی میں شکار پر گیا تھا، کچھ ہفتے پہلے۔
+[ڈاکٹر] ٹھیک ہے، کیا آپ نے…
+[مریض] ونڈل سیزن کھلا ہے، دراصل یہ ایک ایسی جگہ ہے جہاں وہ کتے کو تربیت دیتے ہیں اور اس طرح کی چیزیں کرتے ہیں۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] اس قسم کی چیز۔
+[ڈاکٹر] ٹھیک ہے، کیا آپ نے کچھ شوٹ کیا؟ کیا آپ کچھ گھر لے کر آئے؟
+[مریض] میں نے واقعی ہاں، کئی شوٹ کیے، میرے ساتھ میرے پوتے تھے، اس لیے میں نے انہیں وہ لینے دیا جو وہ چاہتے تھے۔
+[ڈاکٹر] بہت خوب، بہت خوب۔ آپ جانتے ہیں، میں نے سنا ہے، مجھے شکار کے بارے میں زیادہ معلوم نہیں ہے، لیکن میں نے حال ہی میں شکار کے سافٹ ویئر کا ایک مذاق سنا تھا، کیا آپ اسے سننا چاہیں گے؟
+[مریض] ضرور۔
+[ڈاکٹر] تو شکاری اپنے شکار کو ڈیزائن کرنے اور شکار کرنے کے لیے کون سا سافٹ ویئر استعمال کرتے ہیں؟
+[مریض] مجھے کوئی اندازہ نہیں ہے۔
+[ڈاکٹر] ایڈوبی السٹریٹر، سمجھ گئے؟
+[مریض] مت مضحکہ اڑائیں۔
+[ڈاکٹر] ویسے، آئیے آپ کے دورے پر واپس آئیں۔ تو آپ کے ٹِک کے کاٹنے کے بارے میں، کیا آپ کو محسوس ہوتا ہے کہ آپ اپنے گھٹنے کو حرکت دینے میں مشکل محسوس کر رہے ہیں؟
+[مریض] اس وقت نہیں، نہیں۔
+[ڈاکٹر] نہیں۔ اور کیا آپ کو چلنے میں کوئی مشکل ہو رہی ہے؟
+[مریض] نہیں۔
+[ڈاکٹر] نہیں۔ ٹھیک ہے، اور کیا آپ کو پہلے کبھی ٹِک کا کاٹ لگا ہے؟
+[مریض] جب میں چھوٹا تھا، مجھے بہت لگتے تھے کیونکہ میں جنگل میں بہت وقت گزارتا تھا، اینستھیزیا لینے کی ضرورت نہیں پڑتی، آپ ایک کاٹنے سے کئی کاٹنے حاصل کر سکتے ہیں، لیکن یہ صرف ایک تھا۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ کو کبھی "لائم ڈیزیز" تشخیص ہوئی ہے؟
+[مریض] نہیں ہوئی۔
+[ڈاکٹر] نہیں ہوئی۔
+[مریض] مجھے معلوم نہیں ہوگا، اس لیے مجھے نہیں معلوم کہ علامات کیا ہیں۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] جو آپ نے مجھ سے پوچھا، شاید وہ۔
+[ڈاکٹر] ہاں، تو ان علامات میں سے کچھ، جیسے کہ فلو جیسی علامات، کیا آپ کو جسم درد یا ٹھنڈ لگ رہی ہے؟
+[مریض] نہیں۔ صرف واقعی سر درد، عام طور پر اچھا محسوس نہیں ہوتا۔
+[ڈاکٹر] عام طور پر اچھا محسوس نہیں ہوتا، ٹھیک ہے، اور کیا یہ ٹِک کے کاٹنے کے بعد سے ہے؟
+[مریض] ہے.
+[ڈاکٹر] ہے۔ ٹھیک ہے، اور کیا آپ کو کھانسی، سانس کی قلت، چکر آنے یا اس طرح کی کوئی اور علامات ہیں؟
+[مریض] نہیں۔
+[ڈاکٹر] ٹھیک ہے، اب چونکہ آپ یہاں ہیں، تو مجھے آپ کے ہائی بلڈ پریشر کے بارے میں بھی تھوڑا پوچھنے دیجیے، کیا آپ نے بلڈ پریشر کا کفہ خریدا جو میں نے آپ سے کہا تھا؟ کیا آپ گھر پر اپنا بلڈ پریشر چیک کر رہے ہیں؟
+[مریض] وقتاً فوقتاً، ہاں۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ کو لگتا ہے کہ یہ ٹھیک چل رہا ہے؟
+[مریض] ہاں، بلڈ پریشر ٹھیک لگ رہا ہے، لیسینوپرل اچھی طرح کام کرتا ہے۔
+[ڈاکٹر] اچھا، میں صرف یہ پوچھنے والا تھا کہ کیا آپ اپنا لیسینوپرل لے رہے ہیں، تو یہ اچھی بات ہے۔ ٹھیک ہے، اور کیا آپ کو لیسینوپرل سے کوئی سائڈ ایفیکٹس ہو رہے ہیں، جب سے ہم نے اسے شروع کیا تھا، مجھے لگتا ہے کہ ہم نے اسے ایک سال پہلے یا دو سال پہلے شروع کیا تھا۔
+[مریض] نہیں۔ کوئی سائڈ ایفیکٹس نہیں جن سے میں واقف ہوں۔
+[ڈاکٹر] کوئی سائڈ ایفیکٹس نہیں، ٹھیک ہے، اور پھر آپ کے ذیابیطس کے لحاظ سے، کیا آپ اپنی چینی کی مقدار پر نظر رکھ رہے ہیں؟
+[مریض] ہاں، میں عام طور پر اس پر نظر رکھتا ہوں، جو میں کھا رہا ہوں، لیکن…
+[ڈاکٹر] میں بھی ایک بڑا پائی کا مداح ہوں، مجھے معلوم ہے، آپ کی پسندیدہ قسم کی پائی کون سی ہے؟
+[مریض] اچھا، آپ جانتے ہیں، میری پسندیدہ پائی، مجھے صرف پائی پسند ہے، آپ جانتے ہیں، سیب، چیری، چاکلیٹ، آپ جانتے ہیں، بیکن۔
+[ڈاکٹر] ہاں۔
+[مریض] میں بیکن سے بچنے کی کوشش کرتا ہوں کیونکہ مجھے لگتا ہے کہ یہ صرف چینی ہے، لیکن مجھے یہ پسند ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] کم۔
+[ڈاکٹر] مجھے بھی یہ پسند ہے۔ ٹھیک ہے، کیا آپ میٹفورمین دن میں دو بار لے رہے ہیں؟
+[مریض] ہر روز نہیں، لیکن اکثر۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ باقاعدگی سے اپنے بلڈ شوگر چیک کر رہے ہیں؟
+[مریض] میں کوشش کرتا ہوں۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ جانتے ہیں کہ اوسطاً وہ کتنی چل رہی ہیں، کیا وہ ایک سو پچاس سے کم چل رہی ہیں؟
+[مریض] ہاں، یہ یقینی طور پر اس سے کم چل رہی ہے۔
+[ڈاکٹر] ٹھیک ہے، آپ کی بلڈ شوگر ایک سو پچاس سے کم چل رہی ہے۔
+[مریض] یہ، میٹفورمین کے ساتھ، یہ تقریباً ایک سو بیس لگتی ہے۔
+[ڈاکٹر] اچھا۔
+[مریض] باقاعدگی سے۔
+[ڈاکٹر] اچھا، آپ کی بلڈ شوگر ایک سو بیس پر چل رہی ہے، یہ بہت اچھی بات ہے۔ ٹھیک ہے، میں صرف ایک فوری جسمانی معائنہ کرنا چاہتا ہوں، ٹھیک ہے، میں یہاں آپ کے وائٹل سائنز دیکھ رہا ہوں اور آپ کے وائٹل سائنز بہت اچھی لگ رہی ہیں۔ مجھے لگتا ہے کہ آپ اپنا لیسینوپرل لینے میں اچھا کام کر رہے ہیں، آپ کا بلڈ پریشر تقریباً ایک سو بیس اوور ستر ہے، جو بالکل وہی ہے جہاں ہم چاہتے ہیں۔ آپ کی دل کی دھڑکن اچھی طرح سے سست ہے، ساٹھ سات، جو بالکل وہی ہے جہاں ہم چاہتے ہیں۔ اور مجھے آج کوئی بخار نہیں دکھائی دے رہا ہے، آپ کا نارمل درجہ حرارت 98.4 ہے، جو بہت اچھی بات ہے۔ میں صرف کچھ جسمانی معائنے کے نتائج بتانے والا ہوں اور جب میں ختم ہو جاؤں گا تو میں آپ کو بتاؤں گا کہ اس کا کیا مطلب ہے۔ تو آپ کے دل کے معائنے پر، آپ کا دل ایک اچھی باقاعدہ رفتار اور تال میں ہے، میں کوئی مرمر، رگڑ یا گیلپ نہیں دیکھ رہا ہوں۔ آپ کے پھیپھڑوں کے معائنے پر، آپ کے پھیپھڑے دوطرفہ طور پر سننے کے لیے صاف ہیں۔ آپ کے دائیں گھٹنے کے معائنے پر، مجھے کچھ لالی اور سوزش کے ساتھ ساتھ آپ کے دائیں پٹیلا کے اوپر ایک جگہ پر اتار چڑھاؤ محسوس ہو رہا ہے۔ کیا جب میں دباتا ہوں تو درد ہوتا ہے؟
+[مریض] یہ تھوڑا دردناک ہے۔
+[ڈاکٹر] ٹھیک ہے، دائیں سامنے والے گھٹنے میں درد ہے اور میں آپ کے گھٹنے کو اوپر اور نیچے موڑنے والا ہوں، کیا اس سے کوئی درد ہوتا ہے؟
+[مریض] نہیں۔ یہ صرف وہی عام گھسنا ہے جو مجھے محسوس ہوگا۔
+[ڈاکٹر] ٹھیک ہے، دائیں گھٹنے کی پوری حد ہے اور جلد کے معائنے پر، دائیں گھٹنے کے اوپر "بلز آئی" کے نشانات کا ثبوت ہے۔ ٹھیک ہے، اس کا کیا مطلب ہے، رچرڈ؟ اس کا مطلب ہے کہ آپ کو دائیں گھٹنے کے اوپر کچھ سوزش ہے جہاں آپ کو ٹِک کا کاٹ لگا ہے اور آپ کو وہ "بلز آئی" کے نشانات ہیں جن کے بارے میں ہم لائم ڈیزیز کے ساتھ فکر مند ہیں۔ تو آئیے آپ کے اس مسئلے اور آپ کے ٹِک کے کاٹنے کے بارے میں میری تشخیص اور منصوبہ پر بات کرتے ہیں۔ تو اس ٹِک کے کاٹنے کے مسئلے کے لیے میری تشویش یہ ہے کہ آپ کو لائم ڈیزیز ہو سکتی ہے، آپ کے دائیں گھٹنے کی پیشکش کے لحاظ سے، میں آپ کو ڈاکسی سائکلین ایک سو ملی گرام دن میں دو بار شروع کرنے والا ہوں۔
+[مریض] ہم اس کو تقریباً تین ہفتوں تک جاری رکھیں گے، میں لائم ٹائٹر اور ویسٹرن بلوٹ بھی بھیجنے والا ہوں تاکہ یہ دیکھا جا سکے کہ آیا آپ کو واقعی لائم ڈیزیز ہے اور ہمیں یہ دیکھنا ہوگا کہ آپ اس کے ساتھ کیسے چل رہے ہیں۔ میں یہ دیکھنا چاہتا ہوں کہ ہم انٹراوینس اینٹی بائیوٹکس سے بچ سکتے ہیں، مجھے لگتا ہے کہ ہم بچ سکتے ہیں، لیکن میں دیکھنا چاہتا ہوں کہ آپ کیسے چل رہے ہیں۔
+[ڈاکٹر] کیا آپ کو اس کے بارے میں کوئی سوالات ہیں؟
+[مریض] ہاں، مجھے معلوم نہیں تھا کہ وہ آخری دو چیزیں کیا ہیں۔
+[ڈاکٹر] ہاں، تو ہم آپ کو کچھ اینٹی بائیوٹکس شروع کرنے والے ہیں تاکہ آپ کو اس میں مدد مل سکے…
+[مریض] ممکنہ لائم ڈیزیز اور میں صرف کچھ خون کے ٹیسٹ کرنے والا ہوں تاکہ یہ دیکھا جا سکے کہ بالکل کیا ہو رہا ہے اور پھر، آپ جانتے ہیں، کبھی کبھی لوگوں کو انٹراوینس اینٹی بائیوٹکس کی ضرورت ہوتی ہے کیونکہ لائم ڈیزیز آپ کے دل جیسے دوسرے اعضاء میں مسائل پیدا کر سکتی ہے…
+[ڈاکٹر] اگر مناسب علاج نہ کیا جائے اور کبھی کبھی ہمیں IV کے ذریعے اینٹی بائیوٹکس دینے کی ضرورت ہوتی ہے، جو میں بچانا چاہتا ہوں، مجھے لگتا ہے کہ ہم نے اسے اتنا جلد پکڑ لیا ہے کہ ہم صرف آپ کا علاج کچھ زبانی اینٹی بائیوٹکس سے کر سکتے ہیں۔ ٹھیک ہے، آپ کے ہائی بلڈ پریشر کے دوسرے مسئلے کے لیے، مجھے لگتا ہے کہ آپ بہت اچھا کام کر رہے ہیں، آئیے لیسینوپرل 20 ملی گرام روزانہ جاری رکھیں اور میں آپ کے کولیسٹرول کے ٹھیک ہونے کو یقینی بنانے کے لیے ایک لیپڈ پینل بھی آرڈر کرنا چاہتا ہوں۔ یہ کیسا لگتا ہے؟
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] بہت خوب، اور پھر آپ کے ذیابیطس کے تیسرے مسئلے کے لیے، میں ہیموگلوبن A1c آرڈر کرنا چاہتا ہوں اور میٹفورمین 1000 ملی گرام دن میں دو بار جاری رکھنا چاہتا ہوں۔ ایسا لگتا ہے کہ آپ اچھا کام کر رہے ہیں کیونکہ آپ کی بلڈ شوگر ایک سو بیس پر چل رہی ہے، مجھے لگتا ہے کہ ہمیں کوئی ایڈجسٹمنٹ کرنے کی ضرورت نہیں ہے، لیکن ہم دیکھیں گے کہ ہیموگلوبن A1c کیا دکھاتا ہے، یہ ہمیں ایک خیال دے گا کہ آپ کی بلڈ شوگر طویل مدتی بنیادوں پر کیسے چل رہی ہے۔ یہ کیسا لگتا ہے؟
+[مریض] ٹھیک ہے، آپ کس وقت کلیہ فنکشن کی جانچ کرنا شروع کرتے ہیں، مجھے بتایا گیا ہے کہ میٹفورمین ممکنہ طور پر کچھ کلیوی مسائل کا باعث بن سکتا ہے۔
+[ڈاکٹر] تو یہ کر سکتا ہے، آپ کا کلیوی فنکشن، مجھے لگتا ہے کہ آپ بہت خوش قسمت رہے ہیں، یہ نارمل رہا ہے، میں نے اسے تقریباً دو ماہ پہلے چیک کیا تھا اور یہ بہت اچھا لگ رہا ہے، لیکن چونکہ ہم آپ پر خون کا کام کر رہے ہیں، میں ایک بنیادی میٹابولک پینل بھی آرڈر کر سکتا ہوں تاکہ یہ یقینی ہو سکے کہ آپ کا کلیوی فنکشن مستحکم ہے۔
+[مریض] ٹھیک ہے، یہ اچھا ہوگا۔
+[ڈاکٹر] ٹھیک ہے، کیا اور کچھ ہے؟
+[مریض] ابھی تو کچھ نہیں سوچ رہا ہوں۔
+[ڈاکٹر] ٹھیک ہے، آپ جانتے ہیں کہ مجھے کہاں ڈھونڈنا ہے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] خیال رکھیں، خدا حافظ۔</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+ٹک کا کاٹنا۔
+طبی تاریخ
+مریض کو آرثرائٹس، ہائی بلڈ پریشر اور ٹائپ 2 ذیابیطس کی تاریخ ہے۔
+سماجی تاریخ
+مریض نے بتایا کہ اسے جنگلوں میں وقت گزارنا اور گھر کے صحن میں کام کرنا پسند ہے۔ وہ دو ہفتے پہلے اپنے پوتے پوتیاں کے ساتھ شکار پر گیا تھا۔
+دوائیاں
+مریض نے بتایا کہ وہ لِزینوپرل 20 ملی گرام روزانہ ایک بار اور میٹفورمین 1000 ملی گرام اکثر روزانہ دو بار لیتے ہیں۔
+اعضاء کا جائزہ
+جسمانی: عام کمزوری کی شکایت۔ بخار، ٹھنڈ لگنا، فلو جیسے علامات، جسم درد، یا جاگنے میں دشواری کی کوئی شکایت نہیں۔
+سانس کی نالی: کھانسی یا سانس کی قلت کی کوئی شکایت نہیں۔
+عضلاتی و ہڈی: جوڑوں کے درد یا چلنے پھرنے میں کوئی مسئلہ نہیں۔
+جلد: دائیں گھٹنے پر گرمی محسوس ہو رہی ہے۔
+اعصابی: سر درد کی شکایت۔ چکر آنے کی کوئی شکایت نہیں۔
+حیاتیاتی نشانات
+بلڈ پریشر: 122/70 mmHg۔
+قلب کی رفتار: 67 دھڑکنیں فی منٹ۔
+جسم کا درجہ حرارت: 98.4 ڈگری فارنہیٹ۔
+جسمانی معائنہ
+گردن
+- عمومی معائنہ: گردن لچکدار ہے، کوئی تھائیرومیگالی یا لِمف ایڈینوپیتھی نہیں ہے۔
+سانس کی نالی
+- پھیپھڑوں کا سینکشن: دونوں طرف صاف۔
+قلبی و عروقی
+- دل کا سینکشن: باقاعدہ رفتار اور تال۔ کوئی مرمر، گیلوپ یا رگڑ نہیں۔
+عضلاتی و ہڈی
+- دائیں گھٹنے کا معائنہ: دائیں پٹیلا کے اوپر سوزش اور ورم کے ساتھ ساتھ ایک جگہ پر اتار چڑھاؤ دیکھا گیا۔ دائیں پٹیلا کے سامنے چھونے پر درد ہے۔ مکمل حرکت کی حد۔
+جلد
+- معائنہ: دائیں گھٹنے پر "بلز آئی" کی طرح کی سُوختگی کے نشانات موجود ہیں۔
+نتائج
+مریض کی پچھلی گردے کی کارکردگی معمول کی حد میں ہے۔
+تشخیص اور منصوبہ
+1. ٹک کا کاٹنا۔
+- طبی منطق: مجھے خدشہ ہے کہ اس کے دائیں گھٹنے کی پیشکش کے आधार پر اسے لائم بیماری ہو سکتی ہے۔
+- مریض کی تعلیم اور مشورہ: میں اور مریض نے خون کی جانچ کے بارے میں بات کی تاکہ یہ معلوم ہو سکے کہ آیا اسے واقعی لائم بیماری ہے۔ میں نے وضاحت کی کہ اگر مناسب علاج نہ کیا گیا تو لائم بیماری دوسرے اعضاء کو متاثر کر سکتی ہے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ اگر زبانی اینٹی بائیوٹکس جلد نہ دی جائیں تو بعض اوقات اینٹی بائیوٹکس کو رگ کے ذریعے دینا ضروری ہوتا ہے۔ میں زبانی اینٹی بائیوٹکس سے بچنا چاہوں گا، اس لیے ہم دیکھیں گے کہ وہ زبانی اینٹی بائیوٹکس کے کورس کے ساتھ کیسے کرتے ہیں۔
+- طبی علاج: ڈاکسی سائکلین 100 ملی گرام روزانہ دو بار 3 ہفتوں کے لیے تجویز دی گئی۔ یہ دیکھنے کے لیے لائم ٹائٹر اور ویسٹرن بلوٹ حاصل کیے جائیں گے کہ آیا اسے لائم بیماری ہے۔
+2. ہائی بلڈ پریشر۔
+- طبی منطق: یہ اس وقت اچھی طرح سے کنٹرول میں ہے۔
+- مریض کی تعلیم اور مشورہ: میں اور مریض نے بات کی کہ وہ گھر پر اپنے بلڈ پریشر کی نگرانی کرنے میں بہت اچھا کام کر رہے ہیں۔
+- طبی علاج: لِزینوپرل 20 ملی گرام روزانہ ایک بار جاری رکھیں۔ اس کے کولیسٹرول کی سطح کا اندازہ لگانے کے لیے لیپڈ پینل کا آرڈر دیا گیا۔
+3. ٹائپ 2 ذیابیطس۔
+- طبی منطق: وہ اپنی ذیابیطس کو اچھی طرح سے منظم کر رہے ہیں کیونکہ ان کا بلڈ شوگر 120 کی حد میں چل رہا ہے۔ مجھے نہیں لگتا کہ ہمیں کوئی تبدیلی کرنے کی ضرورت ہے، لیکن ہم دیکھیں گے کہ ہیموگلوبن A1c کیا ظاہر کرتا ہے کیونکہ یہ ہمیں ایک خیال دیتا ہے کہ اس کا بلڈ شوگر طویل مدت میں کیسا کر رہا ہے۔
+- مریض کی تعلیم اور مشورہ: ہم نے بات کی کہ میٹفورمین گردے کی کارکردگی کو متاثر کر سکتا</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>c_aci_060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>virtscribe</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VS006</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[doctor] next patient is christine hernandez . date of birth is january 13 , 1982 . hey miss christine , how are you doing today ? [patient] i'm good , thanks , how are you ? [doctor] i'm pretty good . so it looks like you've completed the covid vaccine , that's great . [patient] yes , i did . [doctor] anything new since your last visit ? [patient] no , i did all the tests that you had recommended me to take . i have n't been able to take the thyroid medicine . the one that you prescribed as i'm still taking my old one , the price is a little high on the new one . [doctor] okay , so did , did you try the coupon that i gave you ? [patient] i did not try the coupon . there was a charge of $ 75 . [doctor] okay , well , next time that , that coupon should help , but it should only be about three dollars . [patient] okay . i do n't have it . do you happen to have another one you can give me ? [doctor] yep , right here . [patient] wonderful . thank you so much and and then the gel they are charging me $ 100 for it , so i do n't know if this is because it's a , it's walmart or if i should try somewhere else or maybe you know how or where i could get it cheaper . [doctor] yeah , let's try something else . sometimes it can be cheaper if we just prescribe you the individual ingredients of a medication rather than the , the combined medication itself . [patient] that would be great . [doctor] so that's clindamycin gel and benzoyl peroxide maybe by doing them separately , they could be a lot cheaper so that we can do , the unithroid with the discount code should only be about nine dollars for 90 days . [patient] okay , that would be great , yeah , they were charging me $ 75 and i just could n't pay that . [doctor] maybe we try a different pharmacy as well . [patient] okay . so do you think that my weight gain could have been the birth control that i was taking before that caused it ? [doctor] maybe . i do n't really see an endocrine cause for it at least , so i would need to see the , the hyper and dragonism or high testosterone or a high dhea to cause acne or hair growth or any of that stuff , but the numbers are n't showing up out of range . [patient] okay . [doctor] i really do n't see any endocrine cause for it , like i said , your growth hormone was fine , but we definitely want to and need to treat it i do n't know if we talked about maybe a little weight loss study . [patient] you mentioned the weight loss study and you mentioned that i have some meal plans that you had given me , i still have those two . [doctor] have you tried to make any changes in the diet since the last time we spoke ? [patient] i've been trying to get better . i will start back at the gym in july because of my contract , i had to put a hold on it until then . [doctor] okay . [patient] so i do want to start doing that . i will be a little freeer since i'll be on vacation after july 8 . [doctor] okay , good . [patient] and then my cousin was telling me to ask you about cla because it's supposed to help your metabolism , is that okay to take ? [doctor] i'm not sure , what is the cla ? [patient] i'm not sure what it is either . [doctor] okay , well , i'm unfamiliar with it , so . [patient] okay . i also have a coworker who has a thyroid issue too and she suggested to try chromium for weight loss . [doctor] so that likely will not help too much . you could try it either if you really want to but then they will not accept you into the weight loss study if you try those two . [patient] okay . [doctor] chromium is just a supplement and it wo n't help that much . [patient] it wo n't , okay , thank you . [doctor] it wo n't hurt like i should n't say that it wo n't hurt , but it also wo n't help that much , so it's up to you . [patient] okay and so my cousin also suggested amino acids and that i might find them in certain foods i guess for my workout . [doctor] yeah , amino acids are fine , they wo n't , wo n't really help with weight loss either , but it might help you replenish and just kind of feel hydrated . [patient] okay , are they proteins , my cousin said she had lost some weight and has been working out every day but she does n't work , so i do n't know . [doctor] yes , i mean acids are what make up the protein , which is in any food you eat with any protein , so meat , dairy , nuts , any of that sort of thing . [patient] okay , thank you , got it . [doctor] alright are you allergic to any medications ? [patient] no , not that i know of . [doctor] okay . is your skin pretty sensitive ? [patient] yes . [doctor] alright . [patient] yeah , on my sides , i will start getting rashes with different products . [doctor] and have you ever tried clindamycin topical as an antibiotic for your acne ? [patient] no , i've never tried anything for it . [doctor] okay . we may give you some of that . [patient] okay and i also want to mention that my feet do swell up a lot . [doctor] okay . i'm , i'm gon na take a look at that for just a moment . any constipation ? [patient] yes , i also do have that problem . [doctor] alright . miralax will definitely help with that . [patient] okay , yes , my doctor did also recommend that . [doctor] great . alright , let's do an exam real quick . please have a seat on this table and i'm gon na listen to your lungs and heart . [patient] okay . [doctor] alright . deep breath , alright again . [patient] okay . [doctor] alright sounds good . [patient] great . [doctor] let me take a look at your feet and ankles . [patient] okay . [doctor] alright , they look okay right now . certainly let your doctor know about this if it gets any worse or reoccurs . [patient] okay , i'll do that . [doctor] now let's go over your lab work . so when you took that pill , the dexamethasone test , you passed , which means you do n't have cushing syndrome on that test at least . the salivary cortisol though unless you did one wrong , two of them were completely normal , one was abnormal , so we might need to repeat that in the future . [patient] okay , that's okay . [doctor] alright , so your cholesterol was quite high , the total cholesterol was 222 , good cholesterol was about 44 , the bad was 153 and it should be less than 100 . the non-hdl was about 178 and it should be less than 130 . the good cholesterol should be over 50 and it was 44 . so your screening for diabetes is was fine . you do have a vitamin d deficiency and i do n't know if we started the vitamin d yet or not . [patient] yes , we did . i , i do need to take one today though . [doctor] okay . so i also checked a lot of other pituitary hormones , iron levels , everything else seemed to be pretty good and in decent range . [patient] okay , that sounds great . so i wanted to also show you my liver enzymes because i have n't come back since then , but i was also happy because one of them was back to normal . [doctor] okay , great . let's see them . [patient] okay , so the one that's 30 that was almost 200 , not so long ago . [doctor] yeah , your alt was about 128 . [patient] okay and , and back in october it was 254 . [doctor] yeah , this is much better . [patient] okay , great , and then it dropped in january and then it dropped a little more in march since i stopped taking the medicine in december . [doctor] okay , that's good . so i'm proud of you with the course of your labs so before i forget , i'm gon na just put your labs into the computer today and i wo n't be checking your vitamin d level for some time . [patient] okay . so with the thyroid and the low vitamin d , does that always happen together ? [doctor] i do have a lot of people that have thyroid thyroid issues and they have vitamin d deficiency . [patient] okay . [doctor] this is what i'm , i'm going to do , i'm going to put , print out your prescriptions so you can shop around at the pharmacies and see if you can find better prices . [patient] okay , that way i can go ask them and try cvs . [doctor] yeah , that sounds like a plan . [patient] okay , good . so the weight loss study that you mentioned , when does that start or how does that work ? [doctor] so we are about to start as we just got approval last week and we are just waiting on our paperwork , so we can get started . [patient] okay and what's involved with that ? [doctor] so it'll involve you receiving a medication , which has been used for diabetes treatment , and it works mostly in the gut on satiety or satiety hormones . the most common side effects are gon na be nausea , vomiting , diarrhea , and constipation , there are six arms to the study , one is the placebo , the other ones are various , various dosages of the medication , excuse me , you would receive an injection once a week also keep in mind that most of the weight loss medications are not covered by insurance . [patient] okay . [doctor] so it's a way of getting them but the odds of getting one of the arms with the medication that are in your favor right might be only 1 out of 5 of our 100 patients that we have on the list for the study that will receive the placebo . [patient] okay . [doctor] does that make sense ? [patient] yes , it does . [doctor] so we do expect pretty big weight loss because of what we learn in the diabetes study , so it's a year long process and it's an injection once a week . you come in weekly for the first four or 5 weeks , i believe and then after that it's once a month . you do get a stype in for participating in the study and parking is validated and whatever else that you need for the study . [patient] okay , do you know how much the skypond is ? [doctor] i will have to double check for you and you do n't have to be my patient , you just have to meet the criteria so the criteria is a bmi greater than 30 if you do n't have any other medical condition or a bmi greater than 27 if you do have other medical condition like your cholesterol bmi greater than 27 would qualify you . [patient] i have a friend who might be interested and she does have diabetes . [doctor] if she has the diabetes , then she wo n't qualify . [patient] okay . you ca n't if you , if you have diabetes , got it . [doctor] correct . yeah , the only thing that they can not have really is diabetes , severe psychiatric disease or schizophrenia , bipolar , things like that . [patient] okay . [doctor] but if they have hypertension , high cholesterol , things like that , they can definitely sign up . [patient] and they can , okay , thank you for explaining that . [doctor] of course , so do you want me to try to get you into that study or would you just like to try me to prescribe you something , it's kinda up to you . [patient] i think i'll just wait for a little bit now . [doctor] alright . sounds good . i'll give you the information for the research . it's just in my office . it is a different phone number though so then if you're interested , just call us within a month because i do n't know how long the , the wait will be . [patient] okay , we will do . [doctor] perfect . so let me go grab your discount card for the unithroid . when you go in to activate it , the instructions are on this card and then you use your insurance . then show them this and ask how much it will cost . if it's too expensive , just let me know . [patient] i will , thank you so much for your help on that . [doctor] you're welcome . then what i did is i gave you a topical antibiotic plus i gave you the benzyl peroxide so the peroxide may bleach your sheets . but you want to make sure to take it and apply it at night so you do n't have a reaction from the sun during the day . [patient] okay , i can do that . [doctor] but you do also want to make sure that you do n't mess up your sheets . [patient] okay , sounds good . [doctor] so that's that and then let's see how you do on the other medications . i think this will , this will get better . in the meantime , a low carb diet , avoid alcohol and fatty foods and low cholesterol foods . [patient] okay . [doctor] and again once you finish your dose of vitamin d for the vitamin d deficiency , you're gon na start with the 2000 international units daily so that you're able to maintain those levels , sound good ? [patient] yes , that sounds great . [doctor] i really think your liver enzymes are gon na get better once you lose the weight though . [patient] okay , that would be great . [doctor] since we stopped your birth control , we can try one called fexie , which is kind of like a spermaside basically . [patient] okay . [doctor] and you just apply it before intercourse . [patient] okay . [doctor] if you need some just let me know . [patient] okay , i will , i will let you know . [doctor] okay , perfect . so stay put for me now . i'm gon na go see if they have a discount samples and bring you that prescription and then i'm going to order the labs for next time . [patient] okay , great . thank you so much . [doctor] you're welcome . so under the plan under abnormal liver enzymes , they have improved since discontinuation of her birth control . under abnormal weight gain , her dexamethasone suppression test was normal , 2 out of 3 solid chorisol tests were normal , not consistent with cushing's and therefore , ruling out cushing's . under her hirsutism , her androgen levels were normal . for the acne vulgaris , the epiduo was not covered , so we will try benzoyl peroxide with clindamycin and remove the previous information on the hypothyroidism . we will print out her prescriptions unithyroid should be better priced with the discount card and we will repeat levels of everything before next visit . thanks .</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHIEF COMPLAINT
+Hypothyroidism.
+Abnormal liver enzymes.
+Abnormal weight gain.
+Acne vulgaris.
+HISTORY OF PRESENT ILLNESS
+Christine Hernandez is a 39-year-old female who presents today for evaluation and management of abnormal liver enzymes and hypothyroidism.
+When the patient was last seen, her thyroid medicine was changed to Unithroid, but due to the cost of $75, she has not yet started the new medicine and continues taking her previous thyroid medicine. She denies utilizing the coupon that was previously recommended for the Unithroid. Similarly, the patient was prescribed Epiduo for her acne vulgaris, which she did not fill due to the cost of $100. She tried filling both prescriptions at Walmart.
+Mrs. Hernandez still presents with abnormal weight gain. She questioned if her oral contraceptive Microgestin, which was discontinued, could have been the cause. Additional symptoms included acne, hirsutism. She is attempting to modify her intake and plans to resume her gym membership in July as she will be on vacation. She inquired about the impact on weight loss of chromium, CLA, and amino acids.
+The patient confirmed that she is taking her high dose Vitamin D as prescribed. She does suffer from constipation and she treats with MiraLAX.
+She denies previous treatment for her acne vulgaris. She denies ever using clindamycin topical antibiotic. She reports having sensitive skin, developing rashes with various skin products.
+PAST HISTORY
+Medical
+Hypothyroidism.
+Acne Vulgaris.
+Vitamin D deficiency.
+Abnormal weight gain.
+Hirsutism.
+Constipation.
+CURRENT MEDICATIONS
+Benzoyl Peroxide.
+Clindamycin Gel applied topically.
+Vitamin D 2000 IU daily.
+Unithroid.
+MiraLAX.
+ALLERGIES
+No known allergies.
+RESULTS
+Dexamethasone Suppression Test: Normal.
+Salivary Cortisol Tests: 2 out of 3 were normal. Not consistent with Cushingâ€™s Syndrome.
+Hepatic Function Panel: ALT 128.
+Lipid Panel: Total cholesterol 222 mg/dL, HDL 44 mg/dL, LDL 153 mg/dL, non-HDL 178 mg/dL.
+FAI: Normal.
+ASSESSMENT
+â€¢ Hypothyroidism.
+â€¢ Abnormal liver enzymes.
+â€¢ Abnormal weight gain.
+â€¢ Acne vulgaris
+â€¢ Vitamin D deficiency.
+â€¢ Hirsutism
+PLAN
+Hypothyroidism
+The patient will again attempt to initiate Unithroid. I have printed out the prescription and a discount card, which should result in a reduced price. She will contact my office if she encounters additional issues.
+Abnormal liver enzymes
+We have seen improvement since the discontinuation of Microgestin. I recommended the spermicide Phexxi for alternative birth control. The patient will also continue working on weight loss, which should additionally improve her liver enzymes.
+Abnormal weight gain
+Cushingâ€™s Syndrome has been ruled out. I reviewed the weight loss study with the patient, she will call within a month if she is interested in participating. I advised her to follow a low carbohydrate, low cholesterol, abstain from alcohol, and reduce fatty foods diet.
+Acne vulgaris
+Epiduo was not covered and too expensive. The patient will try benzoyl peroxide and Clindamycin separately to see if the price improves.
+Vitamin D deficiency
+The patient will complete the high dose vitamin D and then should start vitamin D 2000 IU per day to maintain her levels.
+Hirsutism
+Her androgen levels were normal.
+INSTRUCTIONS
+She will repeat all labs prior to her next visit.
+</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>train_virtscribe_asr</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] اگلا مریض کرسٹین ہرننڈیز ہے۔ تاریخ پیدائش 13 جنوری 1982 ہے۔ ہی مس کرسٹین، آج آپ کیسی ہیں؟ [مریض] میں ٹھیک ہوں، شکریہ، آپ کیسے ہیں؟ [ڈاکٹر] میں کافی اچھی ہوں۔ تو ایسا لگتا ہے کہ آپ نے کووڈ ویکسین مکمل کر لی ہے، یہ بہت اچھی بات ہے۔ [مریض] جی ہاں، میں نے کر لی ہے۔ [ڈاکٹر] آپ کی آخری ملاقات کے بعد سے کوئی نئی بات ہوئی ہے؟ [مریض] نہیں، میں نے وہ تمام ٹیسٹ کروا لیے ہیں جو آپ نے مجھے کروانے کی سفارش کی تھی۔ میں ابھی تک پرانی دوا لے رہی ہوں، جو آپ نے تجویز کی تھی، کیونکہ نئی دوا کی قیمت تھوڑی زیادہ ہے۔ [ڈاکٹر] ٹھیک ہے، تو کیا آپ نے وہ کوپن استعمال کرنے کی کوشش کی جو میں نے آپ کو دیا تھا؟ [مریض] میں نے کوپن استعمال نہیں کیا۔ اس پر 75 ڈالر کا چارج لگا تھا۔ [ڈاکٹر] ٹھیک ہے، اگلے بار وہ کوپن مددگار ہونا چاہیے، لیکن یہ صرف تین ڈالر کے آس پاس ہونا چاہیے۔ [مریض] ٹھیک ہے۔ میرے پاس وہ نہیں ہے۔ کیا آپ کے پاس کوئی اور ہے جو آپ مجھے دے سکیں؟ [ڈاکٹر] جی ہاں، یہ رہا۔ [مریض] بہت خوب۔ بہت شکریہ اور پھر وہ جیل جس پر مجھے 100 ڈالر وصول کیے جا رہے ہیں، تو مجھے نہیں معلوم کہ کیا یہ والمارٹ کی وجہ سے ہے یا مجھے کہیں اور کوشش کرنی چاہیے یا آپ جانتے ہیں کہ میں اسے سستا کہاں سے حاصل کر سکتی ہوں۔ [ڈاکٹر] ہاں، آئیے کچھ اور کوشش کرتے ہیں۔ کبھی کبھی اگر ہم آپ کو دوا کے الگ الگ اجزاء تجویز کریں تو یہ سستا ہو سکتا ہے بجائے اس کے کہ دوا خود کو ملایا جائے۔ [مریض] یہ بہت اچھا ہوگا۔ [ڈاکٹر] تو یہ کلینڈامائسن جیل اور بینزویل پیرو آکسائیڈ ہو سکتا ہے، شاید انہیں الگ الگ کرنے سے یہ بہت سستا ہو جائے تاکہ ہم یونیتھیروئڈ کو ڈسکاؤنٹ کوڈ کے ساتھ صرف نو ڈالر میں 90 دنوں کے لیے حاصل کر سکیں۔ [مریض] ٹھیک ہے، یہ بہت اچھا ہوگا، ہاں، وہ مجھ سے 75 ڈالر وصول کر رہے تھے اور میں اتنی رقم ادا نہیں کر سکتی تھی۔ [ڈاکٹر] شاید ہم ایک مختلف فارمیسی بھی آزمائیں۔ [مریض] ٹھیک ہے۔ تو کیا آپ کو لگتا ہے کہ وزن بڑھنے کا سبب وہ برتھ کنٹرول ہو سکتا ہے جو میں پہلے لے رہی تھی؟ [ڈاکٹر] شاید۔ میں کم سے کم کوئی اینڈوکرائن سبب نہیں دیکھ رہی ہوں، تو مجھے ہائپر اینڈروجنزم یا ہائی ٹیسٹوسٹیرون یا ہائی ڈی ایچ اے دیکھنے کی ضرورت ہوگی جو کہ مہاسے یا بالوں کی افزائش کا سبب بن سکتا ہے، لیکن اعداد و شمار حد سے باہر نہیں دکھا رہے ہیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] میں واقعی کوئی اینڈوکرائن سبب نہیں دیکھ رہی ہوں، جیسا کہ میں نے کہا، آپ کا گروتھ ہارمون ٹھیک تھا، لیکن ہم یقینی طور پر اس کا علاج کرنا چاہتے ہیں اور مجھے نہیں معلوم کہ کیا ہم نے شاید تھوڑی سی وزن کم کرنے کے مطالعے کے بارے میں بات کی تھی۔ [مریض] آپ نے وزن کم کرنے کے مطالعے کا ذکر کیا تھا اور آپ نے ذکر کیا تھا کہ میرے پاس کچھ کھانے کے منصوبے ہیں جو آپ نے مجھے دیے تھے، میرے پاس وہ ابھی بھی موجود ہیں۔ [ڈاکٹر] کیا آپ نے آخری بار جب ہم ملے تھے اس کے بعد سے اپنی غذا میں کوئی تبدیلی کرنے کی کوشش کی ہے؟ [مریض] میں بہتر ہونے کی کوشش کر رہی ہوں۔ میں جولائی میں واپس جم شروع کروں گی کیونکہ میرے معاہدے کی وجہ سے مجھے اسے روکنا پڑا تھا۔ [ڈاکٹر] ٹھیک ہے۔ [مریض] تو میں اسے شروع کرنا چاہتی ہوں۔ میں جولائی 8 کے بعد تھوڑی زیادہ آزاد ہوں گی کیونکہ میں چھٹی پر جاؤں گی۔ [ڈاکٹر] ٹھیک ہے، اچھا۔ [مریض] اور پھر میرے کزن نے مجھے آپ سے CLA کے بارے میں پوچھنے کو کہا کیونکہ یہ کہتا ہے کہ یہ آپ کے میٹابولزم میں مدد کرتا ہے، کیا یہ لینا ٹھیک ہے؟ [ڈاکٹر] مجھے یقین نہیں، CLA کیا ہے؟ [مریض] مجھے بھی یقین نہیں ہے۔ [ڈاکٹر] ٹھیک ہے، ٹھیک ہے، میں اس سے واقف نہیں ہوں، تو۔ [مریض] ٹھیک ہے۔ میرے پاس ایک ساتھی کارکن بھی ہے جس کو تھائرایڈ کی مسئلہ ہے اور اس نے وزن کم کرنے کے لیے کرومیم استعمال کرنے کا مشورہ دیا۔ [ڈاکٹر] تو یہ شاید زیادہ مدد نہیں کرے گا۔ آپ اسے آزما سکتے ہیں اگر آپ واقعی چاہتے ہیں لیکن پھر وہ آپ کو وزن کم کرنے کے مطالعے میں قبول نہیں کریں گے اگر آپ ان دونوں کو آزمائیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] کرومیم صرف ایک سپلیمنٹ ہے اور یہ زیادہ مدد نہیں کرے گا۔ [مریض] یہ نہیں کرے گا، ٹھیک ہے، شکریہ۔ [ڈاکٹر] یہ نقصان نہیں کرے گا، لیکن میں نہیں کہوں گا کہ یہ مدد نہیں کرے گا، تو یہ آپ پر منحصر ہے۔ [مریض] ٹھیک ہے اور تو میرے کزن نے امینو ایسڈز تجویز کیے اور میں نے اندازہ لگایا کہ وہ میرے ورزش کے لیے کچھ خاص کھانوں میں مل سکتے ہیں۔ [ڈاکٹر] ہاں، امینو ایسڈز ٹھیک ہیں، وہ وزن کم کرنے میں واقعی مدد نہیں کریں گے، لیکن یہ آپ کو دوبارہ بھرنے اور صرف ہائیڈریٹڈ محسوس کرنے میں مدد کر سکتے ہیں۔ [مریض] ٹھیک ہے، کیا وہ پروٹین ہیں، میرے کزن نے کہا کہ اس نے کچھ وزن کم کیا ہے اور وہ ہر روز ورزش کر رہی ہے لیکن وہ کام نہیں کرتی، تو مجھے نہیں معلوم۔ [ڈاکٹر] جی ہاں، میں کا کہنا ہے کہ ایسڈز وہ ہیں جو پروٹین بناتے ہیں، جو آپ جو بھی پروٹین کھاتے ہیں اس میں موجود ہوتے ہیں، تو گوشت، ڈیری، گری دار میوے، ان میں سے کوئی بھی چیز۔ [مریض] ٹھیک ہے، شکریہ، سمجھ گئی۔ [ڈاکٹر] ٹھیک ہے، کیا آپ کو کسی دوا سے الرجی ہے؟ [مریض] نہیں، جہاں تک مجھے معلوم ہے۔ [ڈاکٹر] ٹھیک ہے۔ کیا آپ کی جلد بہت حساس ہے؟ [مریض] جی ہاں۔ [ڈاکٹر] ٹھیک ہے۔ [مریض] ہاں، میری طرف سے، میں مختلف مصنوعات سے جلن شروع کر دوں گی۔ [ڈاکٹر] اور کیا آپ نے کبھی اپنے مہاسے کے لیے ٹاپیکل کلینڈامائسن استعمال کیا ہے؟ [مریض] نہیں، میں نے کبھی اس کے لیے کچھ بھی استعمال نہیں کیا۔ [ڈاکٹر] ٹھیک ہے۔ ہم آپ کو کچھ دے سکتے ہیں۔ [مریض] ٹھیک ہے اور میں یہ بھی ذکر کرنا چاہتی ہوں کہ میرے پاؤں بہت سوج جاتے ہیں۔ [ڈاکٹر] ٹھیک ہے۔ میں ابھی ایک لمحتے کے لیے اس کو دیکھ لوں گا۔ کیا آپ کو قبض ہے؟ [مریض] جی ہاں، مجھے یہ مسئلہ بھی ہے۔ [ڈاکٹر] ٹھیک ہے۔ مرالیکس یقینی طور پر اس میں مدد کرے گا۔ [مریض] ٹھیک ہے، میرے ڈاکٹر نے بھی یہ تجویز کی تھی۔ [ڈاکٹر] بہت اچھا۔ ٹھیک ہے، آئیے ایک فوری امتحان کریں۔ براہ کرم اس میز پر بیٹھ جائیں اور میں آپ کے پھیپھڑوں اور دل کو سنوں گی۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے۔ گہری سانس لیں، ٹھیک ہے، پھر سے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے، یہ اچھا لگتا ہے۔ [مریض] بہت اچھا۔ [ڈاکٹر] اب آئیے آپ کے پاؤں اور ٹخنوں کو دیکھیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے، ابھی تو وہ ٹھیک لگ رہے ہیں۔ یقینی طور پر اپنے ڈاکٹر کو اس کے بارے میں بتائیں اگر یہ مزید خراب ہو جائے یا دوبارہ ہو۔ [مریض] ٹھیک ہے، میں کروں گی۔ [ڈاکٹر] اب آئیے آپ کے لیب کے کام کو دیکھیں۔ تو جب آپ نے وہ گولی لی، تو ڈیکسامیتھاسون ٹیسٹ، تو آپ پاس ہو گئیں، اس کا مطلب ہے کہ کم سے کم اس ٹیسٹ میں آپ کو کوشنگ سنڈروم نہیں ہے۔ سیلوری کورٹیسول، جب تک کہ آپ نے کوئی غلط نہ کی ہو، دو بالکل نارمل تھے، ایک غیر معمولی تھا، تو ہمیں مستقبل میں اسے دہرانا پڑ سکتا ہے۔ [مریض] ٹھیک ہے، ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے، تو آپ کا کولیسٹرول کافی زیادہ تھا، کل کولیسٹرول 222 تھا، اچھا کولیسٹرول تقریباً 44 تھا، برا 153 تھا اور یہ 100 سے کم ہونا چاہیے۔ غیر HDL تقریباً 178 تھا اور یہ 130 سے کم ہونا چاہیے۔ اچھا کولیسٹرول 50 سے زیادہ ہونا چاہیے اور یہ 44 تھا۔ آپ کی ذیابیطس کی سکریننگ ٹھیک تھی۔ آپ کو وٹامن ڈی کی کمی ہے اور مجھے نہیں معلوم کہ کیا ہم نے ابھی تک وٹامن ڈی شروع کی ہے یا نہیں۔ [مریض] جی ہاں، ہم نے کی۔ میں، مجھے آج ایک لینا ہے۔ [ڈاکٹر] ٹھیک ہے۔ تو میں نے بہت سے دیگر پٹویٹری ہارمونز، آئرن کے لیول بھی چیک کیے، سب کچھ ٹھیک اور مناسب حد میں لگتا ہے۔ [مریض] ٹھیک ہے، یہ بہت اچھا لگتا ہے۔ تو میں آپ کو اپنے جگر کے انزائمز بھی دکھانا چاہتی تھی کیونکہ میں اس کے بعد سے واپس نہیں آئی ہوں، لیکن میں خوش تھی کیونکہ ان میں سے ایک نارمل ہو گیا تھا۔ [ڈاکٹر] ٹھیک ہے، بہت اچھا۔ آئیے انہیں دیکھیں۔ [مریض] ٹھیک ہے، تو وہ جو 30 ہے وہ کچھ وقت پہلے تقریباً 200 تھا۔ [ڈاکٹر] ہاں، آپ کا ALT تقریباً 128 تھا۔ [مریض] ٹھیک ہے اور، اور اکتوبر میں یہ 254 تھا۔ [ڈاکٹر] ہاں، یہ بہت بہتر ہے۔ [مریض] ٹھیک ہے، بہت اچھا، اور پھر جنوری میں یہ کم ہو گیا اور مارچ میں یہ تھوڑا اور کم ہو گیا جب سے میں نے دسمبر میں دوا لینا بند کر دی۔ [ڈاکٹر] ٹھیک ہے، یہ اچھا ہے۔ تو میں آپ کے لیب کے نتائج پر فخر کرتی ہوں۔ لیکن میں بھولنے سے پہلے، میں آج آپ کے لیب کو کمپیوٹر میں ڈال دوں گی اور میں کچھ دیر تک آپ کے وٹامن ڈی کے لیول کو چیک نہیں کروں گی۔ [مریض] ٹھیک ہے۔ تو کیا تھائرایڈ اور کم وٹامن ڈی ہمیشہ ایک ساتھ ہوتے ہیں؟ [ڈاکٹر] میرے پاس بہت سے لوگ ہیں جن کو تھائرایڈ کے مسائل ہیں اور ان کو وٹامن ڈی کی کمی ہے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] یہ وہ ہے جو میں کرنے جا رہی ہوں، میں آپ کے نسخے پرنٹ کروں گی تاکہ آپ فارمیسیوں میں خریداری کر سکیں اور دیکھ سکیں کہ کیا آپ کو بہتر قیمتیں مل سکتی ہیں۔ [مریض] ٹھیک ہے، اس طرح میں ان سے پوچھ سکتی ہوں اور CVS کو بھی آزمائیں۔ [ڈاکٹر] ہاں، یہ ایک منصوبہ لگتا ہے۔ [مریض] ٹھیک ہے، اچھا۔ تو وزن کم کرنے کا مطالعہ جس کا آپ نے ذکر کیا تھا، وہ کب شروع ہوتا ہے یا یہ کیسے کام کرتا ہے؟ [ڈاکٹر] تو ہم ابھی شروع کرنے والے ہیں کیونکہ ہمیں گزشتہ ہفتے منظوری ملی ہے اور ہم صرف اپنے کاغذات کا انتظار کر رہے ہیں، تاکہ ہم شروع کر سکیں۔ [مریض] ٹھیک ہے اور اس میں کیا شامل ہے؟ [ڈاکٹر] تو آپ کو ایک دوا ملے گی، جو ذیابیطس کے علاج کے لیے استعمال کی گئی ہے، اور یہ زیادہ تر آنت میں سیر ہونے والے ہارمونز پر کام کرتی ہے۔ سب سے عام ضمنی اثرات متلی، الٹی، اسہال اور قبض ہوں گے۔ مطالعے کے چھ حصے ہیں، ایک پلیسبو ہے، دوسرے دوا کی مختلف خوراکیں ہیں، معاف کیجیے گا، آپ کو ہفتے میں ایک بار انجیکشن ملے گا۔ آپ کو ہمارے 100 مریضوں کی فہرست میں سے صرف 1 کو دوا کے ساتھ والے حصے ملنے کا امکان ہو سکتا ہے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] کیا یہ سمجھ میں آیا؟ [مریض] جی ہاں، یہ سمجھ میں آیا۔ [ڈاکٹر] تو ہم ذیابیطس کے مطالعے میں جو سیکھتے ہیں اس کی وجہ سے ہم کافی وزن کم ہونے کی توقع کرتے ہیں، تو یہ ایک سال کی لمبی عمل ہے اور یہ ہفتے میں ایک بار انجیکشن ہے۔ آپ پہلے 4 یا 5 ہفتوں کے لیے ہفتہ وار آتے ہیں، مجھے لگتا ہے اور اس کے بعد یہ مہینے میں ایک بار ہے۔ آپ مطالعے میں حصہ لینے کے لیے ایک سٹائپنڈ بھی حاصل کرتے ہیں اور پارکنگ کی تصدیق ہوتی ہے اور مطالعے کے لیے آپ کو جو بھی چیز درکار ہو۔ [مریض] ٹھیک ہے، کیا آپ کو معلوم ہے کہ سٹائپنڈ کتنا ہے؟ [ڈاکٹر] مجھے آپ کے لیے اسے دوبارہ چیک کرنا پڑے گا اور آپ کو میرے مریض ہونے کی ضرورت نہیں ہے، آپ کو صرف معیار پر پورا اترنا ہے۔ معیار 30 سے زیادہ بی ایم آئی ہے اگر آپ کو کوئی اور طبی حالت نہیں ہے یا 27 سے زیادہ بی ایم آئی اگر آپ کو کوئی اور طبی حالت ہے جیسے کہ آپ کا کولیسٹرول 27 سے زیادہ بی ایم آئی آپ کو اہل بنائے گا۔ [مریض] میرے پاس ایک دوست ہے جو اس میں دلچسپی لے سکتا ہے اور اسے ذیابیطس بھی ہے۔ [ڈاکٹر] اگر اسے ذیابیطس ہے، تو وہ اہل نہیں ہوگی۔ [مریض] ٹھیک ہے۔ آپ نہیں ہو سکتے اگر، اگر آپ کو ذیابیطس ہے، ٹھیک ہے۔ [ڈاکٹر] درست۔ ہاں، ان کے پاس واقعی ذیابیطس نہیں ہو سکتی، شدید ذہنی بیماری یا سکیزوفرینیا، بائپولر، اس طرح کی چیزیں ہیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] لیکن اگر ان کو ہائی بلڈ پریشر، زیادہ کولیسٹرول، اس طرح کی چیزیں ہیں، تو وہ یقینی طور پر سائن اپ کر سکتے ہیں۔ [مریض] اور وہ کر سکتے ہیں، ٹھیک ہے، اس کی وضاحت کرنے کے لیے شکریہ۔ [ڈاکٹر] بالکل، تو کیا آپ چاہیں گے کہ میں آپ کو اس مطالعے میں شامل کرنے کی کوشش کروں یا آپ صرف مجھے کچھ تجویز کرنے کا انتظار کرنا چاہیں گے، یہ آپ پر منحصر ہے۔ [مریض] میں ابھی کے لیے انتظار کروں گی۔ [ڈاکٹر] ٹھیک ہے۔ اچھا لگتا ہے۔ میں آپ کو تحقیق کے لیے معلومات دوں گی۔ یہ صرف میرے دفتر میں ہے۔ یہ ایک مختلف فون نمبر ہے، تو اگر آپ دلچسپی رکھتے ہیں، تو ایک ماہ کے اندر ہمیں کال کریں کیونکہ مجھے نہیں معلوم کہ انتظار کتنی دیر تک ہوگا۔ [مریض] ٹھیک ہے، ہم کریں گے۔ [ڈاکٹر] کامل۔ تو آئیے میں آپ کے یونیتھیروئڈ کے لیے ڈسکاؤنٹ کارڈ حاصل کر لوں۔ جب آپ اسے فعال کرنے کے لیے جائیں، تو اس کارڈ پر ہدایات ہیں اور پھر آپ اپنا بیمہ استعمال کریں۔ پھر انہیں یہ دکھائیں اور پوچھیں کہ یہ کتنا ہو گا۔ اگر یہ بہت مہنگا ہے، تو بس مجھے بتائیں۔ [مریض] میں کروں گی، اس کی بہت مدد کرنے کے لیے شکریہ۔ [ڈاکٹر] خوش آمدید۔ تو میں نے آپ کو ایک ٹاپیکل اینٹی بائیوٹک دی ہے اور میں نے آپ کو بینزائل پیرو آکسائیڈ بھی دی ہے، پیرو آکسائیڈ آپ کی چادروں کو سفید کر سکتا ہے۔ لیکن آپ کو یہ یقینی بنانا ہوگا کہ آپ اسے رات کو لگائیں تاکہ دن کے دوران سورج سے کوئی ردعمل نہ ہو۔ [مریض] ٹھیک ہے، میں کر سکتی ہوں۔ [ڈاکٹر] لیکن آپ کو یہ بھی یقینی بنانا ہوگا کہ آپ اپنی چادریں خراب نہ کریں۔ [مریض] ٹھیک ہے، اچھا لگتا ہے۔ [ڈاکٹر] تو یہ ہے اور آئیے دیکھتے ہیں کہ آپ کو دوسری دوائیوں پر کیسے لگ رہا ہے۔ مجھے لگتا ہے کہ یہ، یہ بہتر ہو جائے گا۔ اس دوران، کم کاربوہائیڈریٹ غذا، الکحل اور چکنی غذا سے پرہیز کریں اور کم کولیسٹرول والی غذا کھائیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] اور پھر ایک بار جب آپ وٹامن ڈی کی کمی کے لیے وٹامن ڈی کی خوراک ختم کر لیں گے، تو آپ روزانہ 2000 بین الاقوامی یونٹ شروع کریں گے تاکہ آپ ان لیول کو برقرار رکھ سکیں۔ اچھا لگتا ہے؟ [مریض] جی ہاں، یہ بہت اچھا لگتا ہے۔ [ڈاکٹر] مجھے واقعی لگتا ہے کہ آپ کے جگر کے انزائمز بہتر ہو جائیں گے جب آپ وزن کم کریں گے۔ [مریض] ٹھیک ہے، یہ بہت اچھا ہوگا۔ [ڈاکٹر] چونکہ ہم نے آپ کا برتھ کنٹرول بند کر دیا ہے، ہم فیکسی نام کا ایک ایسا ہی استعمال کر سکتے ہیں، جو بنیادی طور پر سپرمیسائیڈ کی طرح ہے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] اور آپ صرف اسے جماع سے پہلے لگائیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] اگر آپ کو کچھ درکار ہو تو بس مجھے بتائیں۔ [مریض] ٹھیک ہے، میں آپ کو بتاتی ہوں، میں آپ کو بتاتی ہوں۔ [ڈاکٹر] ٹھیک ہے، کامل۔ تو رک جائیں میرے لیے اب میں دیکھتی ہوں کہ کیا ان کے پاس ڈسکاؤنٹ کے نمونے ہیں اور آپ کو وہ نسخہ لائیں اور پھر میں اگلے دور کے لیے لیب کا آرڈر دوں گی۔ [مریض] ٹھیک ہے، بہت اچھا۔ آپ کی بہت مدد کرنے کے لیے شکریہ۔ [ڈاکٹر] خوش آمدید۔ تو منصوبہ کے تحت غیر معمولی جگر کے انزائمز، وہ برتھ کنٹرول بند کرنے کے بعد سے بہتر ہو گئے ہیں۔ غیر معمولی وزن بڑھنے کے تحت، اس کا ڈیکسامیتھاسون دبانے والا ٹیسٹ نارمل تھا، 2 میں سے 3 ٹھوس کورٹیسول ٹیسٹ نارمل تھے، کوشنگ کے ساتھ مطابقت نہیں رکھتے ہیں اور اس وجہ سے، کو</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>شکایتِ اصلی
+Hypothyroidism۔
+غیر معمولی لِور انزائمز۔
+غیر معمولی وزن میں اضافہ۔
+Acne vulgaris۔
+عارضی مرض کی تاریخ
+کرسٹین ہرننڈیز، 39 سالہ خاتون، آج غیر معمولی لِور انزائمز اور Hypothyroidism کے تشخیص اور علاج کے لیے پیش ہوئی ہیں۔
+مریض کو آخری بار دیکھنے پر، اس کی تھائیرائیڈ کی دوا Unithroid میں تبدیل کر دی گئی تھی، لیکن $75 کی لاگت کی وجہ سے، وہ ابھی تک نئی دوا شروع نہیں کر پائی ہے اور اپنی پرانی تھائیرائیڈ کی دوا استعمال کر رہی ہے۔ اس نے پہلے تجویز کردہ Unithroid کے لیے کوپن استعمال کرنے سے انکار کر دیا۔ اسی طرح، مریض کو اس کے Acne vulgaris کے لیے Epiduo تجویز کی گئی تھی، جو اس نے $100 کی لاگت کی وجہ سے نہیں بھروائی۔ اس نے دونوں نسخے Walmart میں بھروانے کی کوشش کی۔
+محترمہ ہرننڈیز ابھی بھی غیر معمولی وزن میں اضافے کے ساتھ پیش ہو رہی ہیں۔ اس نے پوچھا کہ کیا اس کی خوراک سے روکنے والی دوا Microgestin، جو بند کر دی گئی تھی، اس کا سبب ہو سکتی ہے۔ اضافی علامات میں Acne، hirsutism شامل ہیں۔ وہ اپنی غذا میں تبدیلی کرنے کی کوشش کر رہی ہے اور جولائی میں اپنی جم ممبرشپ بحال کرنے کا ارادہ رکھتی ہے کیونکہ وہ چھٹی پر ہوگی۔ اس نے chromium، CLA، اور amino acids کے وزن کم کرنے پر اثرات کے بارے میں پوچھا۔
+مریض نے تصدیق کی کہ وہ اپنی تجویز کردہ ہائی ڈوز وٹامن ڈی لے رہی ہے۔ اسے قبض (constipation) کی شکایت ہے اور وہ MiraLAX سے علاج کرتی ہے۔
+اس نے اپنے Acne vulgaris کے لیے پہلے کبھی علاج نہیں کروایا۔ اس نے کبھی بھی clindamycin topical antibiotic استعمال نہیں کیا۔ اس کا کہنا ہے کہ اس کی جلد حساس ہے اور مختلف جلد کی مصنوعات سے الرجی ہو جاتی ہے۔
+گزشتہ طبی تاریخ
+طبی
+Hypothyroidism۔
+Acne Vulgaris۔
+وٹامن ڈی کی کمی۔
+غیر معمولی وزن میں اضافہ۔
+Hirsutism۔
+قبض (Constipation)۔
+موجودہ دوائیں
+Benzoyl Peroxide۔
+Clindamycin Gel جو مقامی طور پر لگائی جاتی ہے۔
+وٹامن ڈی 2000 IU روزانہ۔
+Unithroid۔
+MiraLAX۔
+الرجی
+کوئی معلوم الرجی نہیں۔
+نتائج
+Dexamethasone Suppression Test: معمول۔
+Salivary Cortisol Tests: 3 میں سے 2 معمول تھے۔ Cushing’s Syndrome کے ساتھ مطابقت نہیں رکھتا۔
+Hepatic Function Panel: ALT 128۔
+Lipid Panel: Total cholesterol 222 mg/dL، HDL 44 mg/dL، LDL 153 mg/dL، non-HDL 178 mg/dL۔
+FAI: معمول۔
+تشخیص
+• Hypothyroidism۔
+• غیر معمولی لِور انزائمز۔
+• غیر معمولی وزن میں اضافہ۔
+• Acne vulgaris
+• وٹامن ڈی کی کمی۔
+• Hirsutism
+علاج کی منصوبہ بندی
+Hypothyroidism
+مریض دوبارہ Unithroid شروع کرنے کی کوشش کرے گی۔ میں نے نسخہ اور ایک ڈسکاؤنٹ کارڈ پرنٹ کر دیا ہے، جس سے قیمت کم ہو جائے گی۔ اگر اسے کوئی اضافی مسئلہ درپیش آتا ہے تو وہ میرے دفتر سے رابطہ کرے گی۔
+غیر معمولی لِور انزائمز
+Microgestin بند کرنے کے بعد سے ہمیں بہتری نظر آئی ہے۔ میں نے متبادل پیدائشی کنٹرول کے لیے spermicide Phexxi تجویز کی۔ مریض وزن کم کرنے پر بھی کام جاری رکھے گی، جس سے اس کے لِور انزائمز میں مزید بہتری ہوگی۔
+غیر معمولی وزن میں اضافہ
+Cushing’s Syndrome کو مسترد کر دیا گیا ہے۔ میں نے مریض کے ساتھ وزن کم کرنے کے مطالعے کا جائزہ لیا، وہ اگر دلچسپی رکھتی ہے تو ایک ماہ کے اندر کال کرے گی۔ میں نے اسے کم کاربوہائیڈریٹ، کم کولیسٹرول، الکوحل سے اجتناب، اور چکنی خوراک کو کم کرنے والی غذا کھانے کا مشورہ دیا۔
+Acne vulgaris
+Epiduo کور نہیں کی گئی تھی اور بہت مہنگی تھی۔ مریض قیمت میں بہتری کے لیے Benzoyl Peroxide اور Clindamycin کو الگ سے استعمال کرنے کی کوشش کرے گی۔
+وٹامن ڈی کی کمی
+مریض ہائی ڈوز وٹامن ڈی مکمل کرے گی اور پھر اپنے لیول کو برقرار رکھنے کے لیے روزانہ وٹامن ڈی 2000 IU شروع کر دینا چاہیے۔
+Hirsutism
+اس کے androgen لیول معمول تھے۔</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
